--- a/ETS Software Listing 20200721.xlsx
+++ b/ETS Software Listing 20200721.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ASEULA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C1541-796A-49BE-B611-BC0C9602AD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F92E5-0A62-4DE1-AF1A-70C08CD1C76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="615" windowWidth="25560" windowHeight="15585" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="38430" windowHeight="15630" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
   </bookViews>
   <sheets>
     <sheet name="20200721" sheetId="1" r:id="rId1"/>
+    <sheet name="Output Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Restriction Sentences" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="query__1" localSheetId="0" hidden="1">'20200721'!$A$1:$AR$819</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15434" uniqueCount="2640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15925" uniqueCount="2777">
   <si>
     <t>sites/Fulton/ETS/sysmgmt/software/Lists/Software</t>
   </si>
@@ -8260,6 +8262,417 @@
   <si>
     <t>http://st-download.mediag.com/stfiles/download/85/Altair_License_Management_System_11%200_1.pdf</t>
   </si>
+  <si>
+    <t>-----------------------</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  Unknown</t>
+  </si>
+  <si>
+    <t>Publisher:  Xilinx, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Xilinx</t>
+  </si>
+  <si>
+    <t>Here's what we found for Xilinx_Vivado_HLS.pdf</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.vernier.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Llc</t>
+  </si>
+  <si>
+    <t>Software:  Vernier</t>
+  </si>
+  <si>
+    <t>Here's what we found for Vernier_Sensordaq.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, No RDP use</t>
+  </si>
+  <si>
+    <t>Publisher:  Unknown</t>
+  </si>
+  <si>
+    <t>Software:  Pro</t>
+  </si>
+  <si>
+    <t>Here's what we found for Unity.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Block embargoed countries, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https://www.synopsys.com/company/legal/software-</t>
+  </si>
+  <si>
+    <t>Publisher:  Synopsys, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Synopsys</t>
+  </si>
+  <si>
+    <t>Here's what we found for Synopsys18.pdf</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https://www.stratasys.com/legal/terms-and-conditions-of-sale</t>
+  </si>
+  <si>
+    <t>Software:  Consumables</t>
+  </si>
+  <si>
+    <t>Here's what we found for Stratasys_Insight.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Needs Review</t>
+  </si>
+  <si>
+    <t>Information Webpage:  Minitab.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Bruce Pincus</t>
+  </si>
+  <si>
+    <t>Software:  Bruce, Pincus</t>
+  </si>
+  <si>
+    <t>Here's what we found for SPM_Cart_Pro.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only, VPN required off-site, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, VPN required off-site, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, VPN required off-site</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.3ds.com/terms/ost</t>
+  </si>
+  <si>
+    <t>Publisher:  Adobe Systems Incorporated</t>
+  </si>
+  <si>
+    <t>Software:  Data</t>
+  </si>
+  <si>
+    <t>Here's what we found for Solidworks.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.3ds.com/terms/price</t>
+  </si>
+  <si>
+    <t>Software:  simulia</t>
+  </si>
+  <si>
+    <t>Here's what we found for SIMULIA_Abaqus_2018.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Use geographically limited (Campus), US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (radius), Instructional-use only, Research-use only, US use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  activate.rockwellautomation.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Rockwell Automation, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Rev</t>
+  </si>
+  <si>
+    <t>Here's what we found for Rockwell-EULA-and-Addendum_English-Final2019.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, No RDP use, US use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, No RDP use, Use geographically limited (Campus), US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Instructional-use only, US use only</t>
+  </si>
+  <si>
+    <t>Publisher:  Codesourcery Inc License</t>
+  </si>
+  <si>
+    <t>Software:  License</t>
+  </si>
+  <si>
+    <t>Here's what we found for Quartus_Prime.txt</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.maplesoft.com/contact</t>
+  </si>
+  <si>
+    <t>Publisher:  Waterloo Maple Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Maplesoft</t>
+  </si>
+  <si>
+    <t>Here's what we found for Maplesoft_EULA.pdf</t>
+  </si>
+  <si>
+    <t>Publisher:  Digilent, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Henley</t>
+  </si>
+  <si>
+    <t>Here's what we found for digilent.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only, VPN required off-site, Block embargoed countries, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, On-site use for on-site students only, VPN required off-site, US use only, Block embargoed countries, No RDP use</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.comsol.com/trademarks</t>
+  </si>
+  <si>
+    <t>Publisher:  Siemens Product Lifecycle Management Software Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Compiled</t>
+  </si>
+  <si>
+    <t>Here's what we found for COMSOL_5.5_SoftwareLicenseAgreement.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, No RDP use, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, US use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.cadence.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Cadence Design Systems, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Cadence, ce</t>
+  </si>
+  <si>
+    <t>Here's what we found for Cadence-tbl-v8.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https:/Awww.bluebeam.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Bluebeam, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Bluebeam</t>
+  </si>
+  <si>
+    <t>Here's what we found for Bluebeam_Revu.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  On-site use for on-site students only, Instructional-use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.automationstudio.com</t>
+  </si>
+  <si>
+    <t>Publisher:  Famic Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Software:  cece</t>
+  </si>
+  <si>
+    <t>Here's what we found for Automation_Studio.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, No RDP use, Use geographically limited (Campus), VPN required off-site, Virtualization Allowed</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Use geographically limited (Campus), VPN required off-site, Block embargoed countries, Virtualization Allowed</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  VPN required off-site, Instructional-use only, Research-use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://download.autodesk.com/us/fy</t>
+  </si>
+  <si>
+    <t>Publisher:  Autodesk, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Autodesk</t>
+  </si>
+  <si>
+    <t>Here's what we found for Autodesk.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.anylogic.com</t>
+  </si>
+  <si>
+    <t>Software:  Ln</t>
+  </si>
+  <si>
+    <t>Here's what we found for Anylogic_PLE.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Use geographically limited (Campus), Use geographically limited (radius)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensing Restrictions:  Use geographically limited (Campus), Use geographically limited (radius), Block embargoed countries       </t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (Campus), Use geographically limited (radius)</t>
+  </si>
+  <si>
+    <t>Software:  User</t>
+  </si>
+  <si>
+    <t>Here's what we found for Ansys19.pdf</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://docs.anaconda.com/anaconda/pkg-docs</t>
+  </si>
+  <si>
+    <t>Software:  Anaconda</t>
+  </si>
+  <si>
+    <t>Here's what we found for Anaconda_Individual_Edition.docx</t>
+  </si>
+  <si>
+    <t>Information Webpage:  urt.sh</t>
+  </si>
+  <si>
+    <t>Publisher:  Altair Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Altair</t>
+  </si>
+  <si>
+    <t>Here's what we found for Altair_License_Management_System_BIG.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), US use only, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), US use only, Block embargoed countries, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), On-site use for on-site students only, US use only</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.keysight.com10</t>
+  </si>
+  <si>
+    <t>Publisher:  Keysight Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Software:  Keysight</t>
+  </si>
+  <si>
+    <t>Here's what we found for ADS_Keysight.pdf</t>
+  </si>
+  <si>
+    <t>Execution time: 19.767368345 Minutes</t>
+  </si>
+  <si>
+    <t>Job runtime: 43.63153139166666 Minutes</t>
+  </si>
+  <si>
+    <t>Execution time: 19.896659191666668 Minutes</t>
+  </si>
+  <si>
+    <t>RBM</t>
+  </si>
+  <si>
+    <t>Regex w/ Validation</t>
+  </si>
+  <si>
+    <t>Regex w/o Validation</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>If You have purchased a Floating Node Seat, You may also copy the Licensed Software onto another computer (or access it through networked workstations) for Use by another User; provided however, that all Users agree to accept the terms and conditions of this Agreement in writing prior to Using the Licensed Software.</t>
+  </si>
+  <si>
+    <t>You may not use, copy, modify, distribute, or otherwise transfer the Licensed Software or any portions thereof, or permit any remote access thereof by any person or entity.</t>
+  </si>
+  <si>
+    <t>Whenever You receive a new License Key in order to effect a transfer to new Designated Equipment, You will immediately cease to Use the Licensed Software under the previously issued License Key.</t>
+  </si>
+  <si>
+    <t>You may change the Designated Equipment as permitted by the customer self- service license center, with further changes permitted only upon consent of Intel.</t>
+  </si>
+  <si>
+    <t>In order to generate License Keys, You must provide Intel with the Designated Equipment's host identification number, which Intel will include in the applicable License Key.</t>
+  </si>
+  <si>
+    <t>Designated Equipment.</t>
+  </si>
+  <si>
+    <t>Use means downloading, installing and/or copying all or any portion of the Licensed Software into the Designated Equipment for processing the instructions contained in the Licensed Software, and/or loading data into or displaying, viewing or extracting output results from, or otherwise operating, any portion of the Licensed Software.</t>
+  </si>
+  <si>
+    <t>Designated Equipment" means the computer system identified by a network interface card or host id number on which the Licensed Software is installed and Used, and which has the configuration, capacity, operating system version level, and pre-requisite applications described in the Documentation as necessary for the operation of the Licensed Software, and is designated by the network interface card or host id in the License Key as the computer system on which the License Key management software will be installed.</t>
+  </si>
+  <si>
+    <t>any business, marketing, technical, scientific or financial information disclosed to You by Intel or an Authorized Distributor; or  any information which, at the time of disclosure, is designated in writing as confidential or proprietary, or similar designation, is disclosed in circumstances of confidence, or would be reasonably understood by a person, exercising business judgment, to be confidential.</t>
+  </si>
+  <si>
+    <t>If You have obtained the Licensed Software through the Intel fpga University Program, then You are only permitted to Use the Licensed Software for educational and academic purposes and cannot Use the Licensed Software for any commercial purposes.</t>
+  </si>
+  <si>
+    <t>Specification" means technical data in human or machine readable form furnished by Intel which:  provides operating instructions for using the Licensed Software, or  explains the capabilities and functions of such items, and any full or partial copies of any such technical data.</t>
+  </si>
+  <si>
+    <t>which:  provides operating instructions for using or  explains the capabilities and functions of the Licensed Software.</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>ASEULA_FINAL</t>
+  </si>
 </sst>
 </file>
 
@@ -8325,12 +8738,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8346,7 +8765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8371,14 +8790,41 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8586,50 +9032,50 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{896C48B2-22DC-4816-925C-B048C3598701}" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{F4A12026-ED1E-439D-9B37-A3B4663B7F4B}" uniqueName="Current_x005f_x0020_Version" name="Current Version(s)" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{02FB8763-317D-4A54-B306-4C9D8A589E6D}" uniqueName="Older_x005f_x0020_Versions" name="Older Versions" queryTableFieldId="35" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{896C48B2-22DC-4816-925C-B048C3598701}" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F4A12026-ED1E-439D-9B37-A3B4663B7F4B}" uniqueName="Current_x005f_x0020_Version" name="Current Version(s)" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{02FB8763-317D-4A54-B306-4C9D8A589E6D}" uniqueName="Older_x005f_x0020_Versions" name="Older Versions" queryTableFieldId="35" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{588A9D10-0099-4B39-A4FC-960C7F3B9EFB}" uniqueName="Support_x005f_x0020_Contact" name="Support Contact" queryTableFieldId="10"/>
-    <tableColumn id="5" xr3:uid="{F4A49A77-01A4-425C-93B9-2B350EC3549E}" uniqueName="Available_x005f_x0020_on_x005f_x0020_MyApps_" name="Available on MyApps?" queryTableFieldId="30" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{BEE94145-6156-441A-9B19-0FD6EE65B13B}" uniqueName="License_x005f_x0020_Manager" name="Contacts License Manager?" queryTableFieldId="18" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{AE17FA82-2AFA-472B-B49E-C4254FF64F93}" uniqueName="ETS_x005f_x0020_Managed_x005f_x0020_LM_x003f" name="ETS Managed LM?" queryTableFieldId="19" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{F4A49A77-01A4-425C-93B9-2B350EC3549E}" uniqueName="Available_x005f_x0020_on_x005f_x0020_MyApps_" name="Available on MyApps?" queryTableFieldId="30" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{BEE94145-6156-441A-9B19-0FD6EE65B13B}" uniqueName="License_x005f_x0020_Manager" name="Contacts License Manager?" queryTableFieldId="18" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{AE17FA82-2AFA-472B-B49E-C4254FF64F93}" uniqueName="ETS_x005f_x0020_Managed_x005f_x0020_LM_x003f" name="ETS Managed LM?" queryTableFieldId="19" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{727244E4-AD16-42D0-887B-4A986D2A3CA9}" uniqueName="Planned_x005f_x0020_for_x005f_x0020_Labs" name="Planned for Labs" queryTableFieldId="12"/>
     <tableColumn id="9" xr3:uid="{6E354BB8-6F91-4543-8F01-58FC6E852A20}" uniqueName="Classrooms_x005f_x002f_Labs_x005f_x0020_2" name="Classrooms/Labs" queryTableFieldId="11"/>
     <tableColumn id="10" xr3:uid="{D61E0114-2CEC-473C-A4A6-C30A226A884A}" uniqueName="Category" name="Category" queryTableFieldId="5"/>
-    <tableColumn id="11" xr3:uid="{E9F63825-06C1-48EC-8ED9-E3DB255AD318}" uniqueName="Expiration_x005f_x0020_Date" name="Expiration Date" queryTableFieldId="26" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{AB65F6BE-2A35-4DC6-9B51-1FC9318EB72B}" uniqueName="Expires_x005f_x003f_" name="Expires?" queryTableFieldId="25" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{E9F63825-06C1-48EC-8ED9-E3DB255AD318}" uniqueName="Expiration_x005f_x0020_Date" name="Expiration Date" queryTableFieldId="26" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{AB65F6BE-2A35-4DC6-9B51-1FC9318EB72B}" uniqueName="Expires_x005f_x003f_" name="Expires?" queryTableFieldId="25" dataDxfId="28"/>
     <tableColumn id="13" xr3:uid="{ECE81CA1-5C6E-44BF-86E2-C5BC6C5E68A7}" uniqueName="Information_x005f_x0020_Webpage" name="Information Webpage" queryTableFieldId="8"/>
-    <tableColumn id="14" xr3:uid="{F1CEFB8F-91C3-4DD3-95DA-A243F53A8D37}" uniqueName="License_x005f_x0020_Restricted_x005f_x0020_T" name="License Restricted To" queryTableFieldId="14" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{EE832A8D-20CE-48A6-BB2E-AB4D4A0AEED0}" uniqueName="License_x005f_x0020_Restrictions" name="License Restrictions" queryTableFieldId="15" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{65853726-1E92-435B-966A-95BBA0A610BB}" uniqueName="Licenses" name="Licenses" queryTableFieldId="24" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{822A0BE2-1581-4B88-B923-370F1F346605}" uniqueName="Licensing_x005f_x0020_Status" name="Licensing Status" queryTableFieldId="13" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{F1CEFB8F-91C3-4DD3-95DA-A243F53A8D37}" uniqueName="License_x005f_x0020_Restricted_x005f_x0020_T" name="License Restricted To" queryTableFieldId="14" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{EE832A8D-20CE-48A6-BB2E-AB4D4A0AEED0}" uniqueName="License_x005f_x0020_Restrictions" name="License Restrictions" queryTableFieldId="15" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{65853726-1E92-435B-966A-95BBA0A610BB}" uniqueName="Licenses" name="Licenses" queryTableFieldId="24" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{822A0BE2-1581-4B88-B923-370F1F346605}" uniqueName="Licensing_x005f_x0020_Status" name="Licensing Status" queryTableFieldId="13" dataDxfId="24"/>
     <tableColumn id="18" xr3:uid="{BD5EDB3B-B907-4FA3-901A-990B48E1A1AF}" uniqueName="Link_x005f_x0020_to_x005f_x0020_LM_x005f_x0020_Doc" name="Link to LM Documentation" queryTableFieldId="20"/>
-    <tableColumn id="19" xr3:uid="{E4ACABBE-DE2A-44E0-AF8C-E53FA7FD8E34}" uniqueName="LM_x005f_x0020_Server" name="LM Server" queryTableFieldId="21" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{9F68E9AE-2B68-40FC-ABDE-227D34785F64}" uniqueName="LM_x005f_x0020_Server_x005f_x0020_Port" name="LM Server Port" queryTableFieldId="22" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{B8A8470C-4F72-4ED3-97D2-4961C0052F89}" uniqueName="MyApps_x005f_x0020_Access" name="MyApps Access" queryTableFieldId="31" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{B6905A6C-1AD9-450B-B394-640AB6005495}" uniqueName="Obsolete_x005f_x003f_" name="Obsolete? (Move to Older Versions column of Current Version)" queryTableFieldId="36" dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{B2F7EAC1-C229-4150-A484-FE18ACBD46E6}" uniqueName="OS_x005f_x0020_Supported" name="OS Supported" queryTableFieldId="7" dataDxfId="17"/>
-    <tableColumn id="24" xr3:uid="{24AA4CAE-870B-4DA4-9779-26D54E03251A}" uniqueName="Outdated_x005f_x003f_" name="Outdated? (If still used, move to Current Version column of Current Version)" queryTableFieldId="34" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{E4ACABBE-DE2A-44E0-AF8C-E53FA7FD8E34}" uniqueName="LM_x005f_x0020_Server" name="LM Server" queryTableFieldId="21" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{9F68E9AE-2B68-40FC-ABDE-227D34785F64}" uniqueName="LM_x005f_x0020_Server_x005f_x0020_Port" name="LM Server Port" queryTableFieldId="22" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{B8A8470C-4F72-4ED3-97D2-4961C0052F89}" uniqueName="MyApps_x005f_x0020_Access" name="MyApps Access" queryTableFieldId="31" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{B6905A6C-1AD9-450B-B394-640AB6005495}" uniqueName="Obsolete_x005f_x003f_" name="Obsolete? (Move to Older Versions column of Current Version)" queryTableFieldId="36" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{B2F7EAC1-C229-4150-A484-FE18ACBD46E6}" uniqueName="OS_x005f_x0020_Supported" name="OS Supported" queryTableFieldId="7" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{24AA4CAE-870B-4DA4-9779-26D54E03251A}" uniqueName="Outdated_x005f_x003f_" name="Outdated? (If still used, move to Current Version column of Current Version)" queryTableFieldId="34" dataDxfId="18"/>
     <tableColumn id="25" xr3:uid="{51BC4120-9143-438A-A390-A2762279EDC2}" uniqueName="SMS_x005f_x0020_Package_x005f_x0020_Creator" name="Package Creator" queryTableFieldId="28"/>
-    <tableColumn id="26" xr3:uid="{C73E59FE-6CF8-4B98-AE2F-E7B94610FB16}" uniqueName="Publisher" name="Publisher" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{C73E59FE-6CF8-4B98-AE2F-E7B94610FB16}" uniqueName="Publisher" name="Publisher" queryTableFieldId="6" dataDxfId="17"/>
     <tableColumn id="27" xr3:uid="{FB3D1A47-4F60-4777-B011-5FE54B079E44}" uniqueName="Purchase_x005f_x0020_Contact" name="Purchase Contact" queryTableFieldId="9"/>
-    <tableColumn id="28" xr3:uid="{AB07EF28-88D9-47E8-B167-F33764CA983A}" uniqueName="Requires_x005f_x0020_Dongle_x005f_x003f_" name="Requires Dongle?" queryTableFieldId="23" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{950B2BCF-4905-48AA-8092-FDA34BC51A81}" uniqueName="Where_x005f_x0020_is_x005f_x0020_Media_x0020" name="Where is Media Located?" queryTableFieldId="17" dataDxfId="13"/>
-    <tableColumn id="30" xr3:uid="{D91786E0-F66E-4142-B676-842C34FBEE71}" uniqueName="Additional_x005f_x0020_Notes" name="Additional Notes" queryTableFieldId="33" dataDxfId="12"/>
-    <tableColumn id="31" xr3:uid="{463565F8-32DC-401C-9DAE-BE574154E532}" uniqueName="MyApps_x005f_x0020_Notes" name="MyApps Notes" queryTableFieldId="32" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{AB07EF28-88D9-47E8-B167-F33764CA983A}" uniqueName="Requires_x005f_x0020_Dongle_x005f_x003f_" name="Requires Dongle?" queryTableFieldId="23" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{950B2BCF-4905-48AA-8092-FDA34BC51A81}" uniqueName="Where_x005f_x0020_is_x005f_x0020_Media_x0020" name="Where is Media Located?" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{D91786E0-F66E-4142-B676-842C34FBEE71}" uniqueName="Additional_x005f_x0020_Notes" name="Additional Notes" queryTableFieldId="33" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{463565F8-32DC-401C-9DAE-BE574154E532}" uniqueName="MyApps_x005f_x0020_Notes" name="MyApps Notes" queryTableFieldId="32" dataDxfId="13"/>
     <tableColumn id="32" xr3:uid="{C6EACCE1-2DC1-412A-ABB8-69667B6ECA2A}" uniqueName="Classrooms_x005f_x002f_Labs_x005f_x003a_Cour" name="Classrooms/Labs:Courses" queryTableFieldId="42"/>
-    <tableColumn id="33" xr3:uid="{C51E58BC-6590-481A-8F7A-21328E5923EB}" uniqueName="Stakeholders" name="Stakeholders" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{0C7BC96F-0B04-488E-95C3-020FCB70866C}" uniqueName="Available_x005f_x0020_on_x005f_x0020_SCCM_x0" name="Available on SCCM?" queryTableFieldId="27" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{ABEAACA3-DDCB-45BB-8F90-4DEC611FC9E5}" uniqueName="Available_x005f_x0020_on_x005f_x0020_Casper_" name="Available on JAMF?" queryTableFieldId="29" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{A5C18D5F-7D51-446C-B995-6F1A33734839}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_" name="FSE Security Review Type" queryTableFieldId="37" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{FB568714-7583-48F4-97E1-ADDA48A64016}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_0" name="FSE Security Review Notes" queryTableFieldId="38" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{FCFEF4BC-C3B4-4468-9FC2-3D89D0D1896F}" uniqueName="Date_x005f_x0020_of_x005f_x0020_Compliance" name="FSE Security Review Date of Compliance" queryTableFieldId="39" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{1BD7A9AC-A628-4CE2-A5F9-86A5FA0E50BF}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus" name="Available Off Campus" queryTableFieldId="40" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{3C22339F-E5E1-40C2-ACDB-9630E2A16A8F}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus0" name="Available Off Campus comments" queryTableFieldId="41" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{38D85B14-55B3-40DA-A6EC-F98D08BD76C6}" uniqueName="Deployment_x005f_x0020_Types" name="Deployment Types" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{C51E58BC-6590-481A-8F7A-21328E5923EB}" uniqueName="Stakeholders" name="Stakeholders" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{0C7BC96F-0B04-488E-95C3-020FCB70866C}" uniqueName="Available_x005f_x0020_on_x005f_x0020_SCCM_x0" name="Available on SCCM?" queryTableFieldId="27" dataDxfId="11"/>
+    <tableColumn id="35" xr3:uid="{ABEAACA3-DDCB-45BB-8F90-4DEC611FC9E5}" uniqueName="Available_x005f_x0020_on_x005f_x0020_Casper_" name="Available on JAMF?" queryTableFieldId="29" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{A5C18D5F-7D51-446C-B995-6F1A33734839}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_" name="FSE Security Review Type" queryTableFieldId="37" dataDxfId="9"/>
+    <tableColumn id="37" xr3:uid="{FB568714-7583-48F4-97E1-ADDA48A64016}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_0" name="FSE Security Review Notes" queryTableFieldId="38" dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{FCFEF4BC-C3B4-4468-9FC2-3D89D0D1896F}" uniqueName="Date_x005f_x0020_of_x005f_x0020_Compliance" name="FSE Security Review Date of Compliance" queryTableFieldId="39" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{1BD7A9AC-A628-4CE2-A5F9-86A5FA0E50BF}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus" name="Available Off Campus" queryTableFieldId="40" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{3C22339F-E5E1-40C2-ACDB-9630E2A16A8F}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus0" name="Available Off Campus comments" queryTableFieldId="41" dataDxfId="5"/>
+    <tableColumn id="41" xr3:uid="{38D85B14-55B3-40DA-A6EC-F98D08BD76C6}" uniqueName="Deployment_x005f_x0020_Types" name="Deployment Types" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="42" xr3:uid="{CA154ACC-93A1-47CD-9DBE-619C636CD5FE}" uniqueName="Terms_x005f_x0020_of_x005f_x0020_Use" name="Terms of Use" queryTableFieldId="16"/>
-    <tableColumn id="43" xr3:uid="{11410E5C-FEA0-4D1D-AB30-B536AFF386BD}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="44" dataDxfId="1"/>
-    <tableColumn id="44" xr3:uid="{B95C9F5D-1AD8-477E-9D4B-792B452742C6}" uniqueName="FileDirRef" name="Path" queryTableFieldId="43" dataDxfId="0"/>
+    <tableColumn id="43" xr3:uid="{11410E5C-FEA0-4D1D-AB30-B536AFF386BD}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="44" dataDxfId="3"/>
+    <tableColumn id="44" xr3:uid="{B95C9F5D-1AD8-477E-9D4B-792B452742C6}" uniqueName="FileDirRef" name="Path" queryTableFieldId="43" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8946,7 +9392,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8988,7 +9434,7 @@
     <col min="39" max="39" width="22.5703125" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="74.85546875" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="38" customWidth="1"/>
+    <col min="42" max="42" width="78.42578125" style="2" customWidth="1"/>
     <col min="43" max="43" width="12.140625" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="47.85546875" hidden="1" customWidth="1"/>
   </cols>
@@ -9117,7 +9563,7 @@
       <c r="AO1" t="s">
         <v>2589</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>2588</v>
       </c>
       <c r="AQ1" t="s">
@@ -9219,6 +9665,7 @@
         <v>2583</v>
       </c>
       <c r="AO2" s="1"/>
+      <c r="AP2"/>
       <c r="AQ2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9316,6 +9763,7 @@
         <v>2581</v>
       </c>
       <c r="AO3" s="1"/>
+      <c r="AP3"/>
       <c r="AQ3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9410,6 +9858,7 @@
       <c r="AL4" s="1"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="1"/>
+      <c r="AP4"/>
       <c r="AQ4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9503,6 +9952,7 @@
       <c r="AL5" s="1"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="1"/>
+      <c r="AP5"/>
       <c r="AQ5" s="1" t="s">
         <v>1</v>
       </c>
@@ -9605,6 +10055,7 @@
       <c r="AL6" s="1"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="1"/>
+      <c r="AP6"/>
       <c r="AQ6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9697,6 +10148,7 @@
       <c r="AL7" s="1"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="1"/>
+      <c r="AP7"/>
       <c r="AQ7" s="1" t="s">
         <v>1</v>
       </c>
@@ -9786,6 +10238,7 @@
       <c r="AL8" s="1"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="1"/>
+      <c r="AP8"/>
       <c r="AQ8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9893,6 +10346,7 @@
         <v>2560</v>
       </c>
       <c r="AO9" s="1"/>
+      <c r="AP9"/>
       <c r="AQ9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9982,6 +10436,7 @@
       <c r="AL10" s="1"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="1"/>
+      <c r="AP10"/>
       <c r="AQ10" s="1" t="s">
         <v>1</v>
       </c>
@@ -10069,6 +10524,7 @@
       <c r="AL11" s="1"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="1"/>
+      <c r="AP11"/>
       <c r="AQ11" s="1" t="s">
         <v>1</v>
       </c>
@@ -10170,6 +10626,7 @@
         <v>28</v>
       </c>
       <c r="AO12" s="1"/>
+      <c r="AP12"/>
       <c r="AQ12" s="1" t="s">
         <v>1</v>
       </c>
@@ -10278,6 +10735,7 @@
         <v>2542</v>
       </c>
       <c r="AO13" s="1"/>
+      <c r="AP13"/>
       <c r="AQ13" s="1" t="s">
         <v>1</v>
       </c>
@@ -10372,6 +10830,7 @@
       <c r="AL14" s="1"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="1"/>
+      <c r="AP14"/>
       <c r="AQ14" s="1" t="s">
         <v>1</v>
       </c>
@@ -10471,6 +10930,7 @@
       <c r="AL15" s="1"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="1"/>
+      <c r="AP15"/>
       <c r="AQ15" s="1" t="s">
         <v>1</v>
       </c>
@@ -10565,6 +11025,7 @@
       <c r="AL16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="1"/>
+      <c r="AP16"/>
       <c r="AQ16" s="1" t="s">
         <v>1</v>
       </c>
@@ -10655,6 +11116,7 @@
       <c r="AL17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="1"/>
+      <c r="AP17"/>
       <c r="AQ17" s="1" t="s">
         <v>1</v>
       </c>
@@ -10754,6 +11216,7 @@
         <v>2531</v>
       </c>
       <c r="AO18" s="1"/>
+      <c r="AP18"/>
       <c r="AQ18" s="1" t="s">
         <v>1</v>
       </c>
@@ -10855,6 +11318,7 @@
         <v>66</v>
       </c>
       <c r="AO19" s="1"/>
+      <c r="AP19"/>
       <c r="AQ19" s="1" t="s">
         <v>1</v>
       </c>
@@ -10952,6 +11416,7 @@
         <v>1271</v>
       </c>
       <c r="AO20" s="1"/>
+      <c r="AP20"/>
       <c r="AQ20" s="1" t="s">
         <v>1</v>
       </c>
@@ -11051,6 +11516,7 @@
         <v>1271</v>
       </c>
       <c r="AO21" s="1"/>
+      <c r="AP21"/>
       <c r="AQ21" s="1" t="s">
         <v>1</v>
       </c>
@@ -11150,6 +11616,7 @@
         <v>1271</v>
       </c>
       <c r="AO22" s="1"/>
+      <c r="AP22"/>
       <c r="AQ22" s="1" t="s">
         <v>1</v>
       </c>
@@ -11249,6 +11716,7 @@
         <v>1271</v>
       </c>
       <c r="AO23" s="1"/>
+      <c r="AP23"/>
       <c r="AQ23" s="1" t="s">
         <v>1</v>
       </c>
@@ -11350,6 +11818,7 @@
       </c>
       <c r="AN24" s="2"/>
       <c r="AO24" s="1"/>
+      <c r="AP24"/>
       <c r="AQ24" s="1" t="s">
         <v>1</v>
       </c>
@@ -11440,6 +11909,7 @@
       <c r="AL25" s="1"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="1"/>
+      <c r="AP25"/>
       <c r="AQ25" s="1" t="s">
         <v>1</v>
       </c>
@@ -11539,6 +12009,7 @@
         <v>1271</v>
       </c>
       <c r="AO26" s="1"/>
+      <c r="AP26"/>
       <c r="AQ26" s="1" t="s">
         <v>1</v>
       </c>
@@ -11636,6 +12107,7 @@
         <v>1271</v>
       </c>
       <c r="AO27" s="1"/>
+      <c r="AP27"/>
       <c r="AQ27" s="1" t="s">
         <v>1</v>
       </c>
@@ -11728,6 +12200,7 @@
       <c r="AL28" s="1"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="1"/>
+      <c r="AP28"/>
       <c r="AQ28" s="1" t="s">
         <v>1</v>
       </c>
@@ -11822,6 +12295,7 @@
       <c r="AL29" s="1"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="1"/>
+      <c r="AP29"/>
       <c r="AQ29" s="1" t="s">
         <v>1</v>
       </c>
@@ -11914,6 +12388,7 @@
       <c r="AL30" s="1"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="1"/>
+      <c r="AP30"/>
       <c r="AQ30" s="1" t="s">
         <v>1</v>
       </c>
@@ -12004,6 +12479,7 @@
       <c r="AL31" s="1"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="1"/>
+      <c r="AP31"/>
       <c r="AQ31" s="1" t="s">
         <v>1</v>
       </c>
@@ -12103,6 +12579,7 @@
         <v>1271</v>
       </c>
       <c r="AO32" s="1"/>
+      <c r="AP32"/>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
       </c>
@@ -12202,6 +12679,7 @@
         <v>1271</v>
       </c>
       <c r="AO33" s="1"/>
+      <c r="AP33"/>
       <c r="AQ33" s="1" t="s">
         <v>1</v>
       </c>
@@ -12301,6 +12779,7 @@
         <v>1271</v>
       </c>
       <c r="AO34" s="1"/>
+      <c r="AP34"/>
       <c r="AQ34" s="1" t="s">
         <v>1</v>
       </c>
@@ -12400,6 +12879,7 @@
         <v>1271</v>
       </c>
       <c r="AO35" s="1"/>
+      <c r="AP35"/>
       <c r="AQ35" s="1" t="s">
         <v>1</v>
       </c>
@@ -12499,6 +12979,7 @@
         <v>1271</v>
       </c>
       <c r="AO36" s="1"/>
+      <c r="AP36"/>
       <c r="AQ36" s="1" t="s">
         <v>1</v>
       </c>
@@ -12598,6 +13079,7 @@
         <v>1271</v>
       </c>
       <c r="AO37" s="1"/>
+      <c r="AP37"/>
       <c r="AQ37" s="1" t="s">
         <v>1</v>
       </c>
@@ -12697,6 +13179,7 @@
         <v>1271</v>
       </c>
       <c r="AO38" s="1"/>
+      <c r="AP38"/>
       <c r="AQ38" s="1" t="s">
         <v>1</v>
       </c>
@@ -12796,6 +13279,7 @@
         <v>1271</v>
       </c>
       <c r="AO39" s="1"/>
+      <c r="AP39"/>
       <c r="AQ39" s="1" t="s">
         <v>1</v>
       </c>
@@ -12895,6 +13379,7 @@
         <v>1271</v>
       </c>
       <c r="AO40" s="1"/>
+      <c r="AP40"/>
       <c r="AQ40" s="1" t="s">
         <v>1</v>
       </c>
@@ -12994,6 +13479,7 @@
         <v>28</v>
       </c>
       <c r="AO41" s="1"/>
+      <c r="AP41"/>
       <c r="AQ41" s="1" t="s">
         <v>1</v>
       </c>
@@ -13109,7 +13595,7 @@
         <v>2493</v>
       </c>
       <c r="AO42" s="1"/>
-      <c r="AP42" s="14" t="s">
+      <c r="AP42" s="15" t="s">
         <v>2492</v>
       </c>
       <c r="AQ42" s="1" t="s">
@@ -13210,6 +13696,7 @@
       <c r="AL43" s="1"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="1"/>
+      <c r="AP43"/>
       <c r="AQ43" s="1" t="s">
         <v>1</v>
       </c>
@@ -13309,6 +13796,7 @@
       <c r="AL44" s="1"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="1"/>
+      <c r="AP44"/>
       <c r="AQ44" s="1" t="s">
         <v>1</v>
       </c>
@@ -13404,6 +13892,7 @@
       <c r="AL45" s="1"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="1"/>
+      <c r="AP45"/>
       <c r="AQ45" s="1" t="s">
         <v>1</v>
       </c>
@@ -13494,6 +13983,7 @@
       <c r="AL46" s="1"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="1"/>
+      <c r="AP46"/>
       <c r="AQ46" s="1" t="s">
         <v>1</v>
       </c>
@@ -13584,6 +14074,7 @@
       <c r="AL47" s="1"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="1"/>
+      <c r="AP47"/>
       <c r="AQ47" s="1" t="s">
         <v>1</v>
       </c>
@@ -13688,6 +14179,7 @@
       <c r="AL48" s="1"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="1"/>
+      <c r="AP48"/>
       <c r="AQ48" s="1" t="s">
         <v>1</v>
       </c>
@@ -13780,6 +14272,7 @@
       <c r="AL49" s="1"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="1"/>
+      <c r="AP49"/>
       <c r="AQ49" s="1" t="s">
         <v>1</v>
       </c>
@@ -13873,6 +14366,7 @@
       <c r="AL50" s="1"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="1"/>
+      <c r="AP50"/>
       <c r="AQ50" s="1" t="s">
         <v>1</v>
       </c>
@@ -13976,6 +14470,7 @@
         <v>28</v>
       </c>
       <c r="AO51" s="1"/>
+      <c r="AP51"/>
       <c r="AQ51" s="1" t="s">
         <v>1</v>
       </c>
@@ -14079,6 +14574,7 @@
         <v>28</v>
       </c>
       <c r="AO52" s="1"/>
+      <c r="AP52"/>
       <c r="AQ52" s="1" t="s">
         <v>1</v>
       </c>
@@ -14307,7 +14803,7 @@
         <v>2447</v>
       </c>
       <c r="AO54" s="1"/>
-      <c r="AP54" s="15" t="s">
+      <c r="AP54" s="16" t="s">
         <v>2639</v>
       </c>
       <c r="AQ54" s="1" t="s">
@@ -14409,6 +14905,7 @@
       </c>
       <c r="AN55" s="2"/>
       <c r="AO55" s="1"/>
+      <c r="AP55"/>
       <c r="AQ55" s="1" t="s">
         <v>1</v>
       </c>
@@ -14508,6 +15005,7 @@
         <v>28</v>
       </c>
       <c r="AO56" s="1"/>
+      <c r="AP56"/>
       <c r="AQ56" s="1" t="s">
         <v>1</v>
       </c>
@@ -14600,6 +15098,7 @@
       <c r="AL57" s="1"/>
       <c r="AN57" s="2"/>
       <c r="AO57" s="1"/>
+      <c r="AP57"/>
       <c r="AQ57" s="1" t="s">
         <v>1</v>
       </c>
@@ -14711,6 +15210,7 @@
       <c r="AL58" s="1"/>
       <c r="AN58" s="2"/>
       <c r="AO58" s="1"/>
+      <c r="AP58"/>
       <c r="AQ58" s="1" t="s">
         <v>1</v>
       </c>
@@ -14808,7 +15308,7 @@
       </c>
       <c r="AN59" s="2"/>
       <c r="AO59" s="1"/>
-      <c r="AP59" s="14" t="s">
+      <c r="AP59" s="15" t="s">
         <v>2430</v>
       </c>
       <c r="AQ59" s="1" t="s">
@@ -14912,6 +15412,7 @@
         <v>28</v>
       </c>
       <c r="AO60" s="1"/>
+      <c r="AP60"/>
       <c r="AQ60" s="1" t="s">
         <v>1</v>
       </c>
@@ -15009,6 +15510,7 @@
       <c r="AL61" s="1"/>
       <c r="AN61" s="2"/>
       <c r="AO61" s="1"/>
+      <c r="AP61"/>
       <c r="AQ61" s="1" t="s">
         <v>1</v>
       </c>
@@ -15101,6 +15603,7 @@
       <c r="AL62" s="1"/>
       <c r="AN62" s="2"/>
       <c r="AO62" s="1"/>
+      <c r="AP62"/>
       <c r="AQ62" s="1" t="s">
         <v>1</v>
       </c>
@@ -15206,7 +15709,7 @@
         <v>2417</v>
       </c>
       <c r="AO63" s="1"/>
-      <c r="AP63" s="14" t="s">
+      <c r="AP63" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="AQ63" s="1" t="s">
@@ -15308,7 +15811,7 @@
         <v>2413</v>
       </c>
       <c r="AO64" s="1"/>
-      <c r="AP64" s="14" t="s">
+      <c r="AP64" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="AQ64" s="1" t="s">
@@ -15410,7 +15913,7 @@
         <v>2409</v>
       </c>
       <c r="AO65" s="1"/>
-      <c r="AP65" s="14" t="s">
+      <c r="AP65" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="AQ65" s="1" t="s">
@@ -15527,7 +16030,7 @@
       <c r="AL66" s="1"/>
       <c r="AN66" s="2"/>
       <c r="AO66" s="1"/>
-      <c r="AP66" s="14" t="s">
+      <c r="AP66" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="AQ66" s="1" t="s">
@@ -15622,6 +16125,7 @@
       <c r="AL67" s="1"/>
       <c r="AN67" s="2"/>
       <c r="AO67" s="1"/>
+      <c r="AP67"/>
       <c r="AQ67" s="1" t="s">
         <v>1</v>
       </c>
@@ -15723,7 +16227,7 @@
         <v>2392</v>
       </c>
       <c r="AO68" s="1"/>
-      <c r="AP68" s="14" t="s">
+      <c r="AP68" s="15" t="s">
         <v>2391</v>
       </c>
       <c r="AQ68" s="1" t="s">
@@ -15823,6 +16327,7 @@
       <c r="AL69" s="1"/>
       <c r="AN69" s="2"/>
       <c r="AO69" s="1"/>
+      <c r="AP69"/>
       <c r="AQ69" s="1" t="s">
         <v>1</v>
       </c>
@@ -15920,6 +16425,7 @@
       </c>
       <c r="AN70" s="2"/>
       <c r="AO70" s="1"/>
+      <c r="AP70"/>
       <c r="AQ70" s="1" t="s">
         <v>1</v>
       </c>
@@ -16017,6 +16523,7 @@
       </c>
       <c r="AN71" s="2"/>
       <c r="AO71" s="1"/>
+      <c r="AP71"/>
       <c r="AQ71" s="1" t="s">
         <v>1</v>
       </c>
@@ -16114,6 +16621,7 @@
       </c>
       <c r="AN72" s="2"/>
       <c r="AO72" s="1"/>
+      <c r="AP72"/>
       <c r="AQ72" s="1" t="s">
         <v>1</v>
       </c>
@@ -16211,6 +16719,7 @@
       </c>
       <c r="AN73" s="2"/>
       <c r="AO73" s="1"/>
+      <c r="AP73"/>
       <c r="AQ73" s="1" t="s">
         <v>1</v>
       </c>
@@ -16308,6 +16817,7 @@
       </c>
       <c r="AN74" s="2"/>
       <c r="AO74" s="1"/>
+      <c r="AP74"/>
       <c r="AQ74" s="1" t="s">
         <v>1</v>
       </c>
@@ -16405,6 +16915,7 @@
       </c>
       <c r="AN75" s="2"/>
       <c r="AO75" s="1"/>
+      <c r="AP75"/>
       <c r="AQ75" s="1" t="s">
         <v>1</v>
       </c>
@@ -16502,6 +17013,7 @@
       </c>
       <c r="AN76" s="2"/>
       <c r="AO76" s="1"/>
+      <c r="AP76"/>
       <c r="AQ76" s="1" t="s">
         <v>1</v>
       </c>
@@ -16599,6 +17111,7 @@
       </c>
       <c r="AN77" s="2"/>
       <c r="AO77" s="1"/>
+      <c r="AP77"/>
       <c r="AQ77" s="1" t="s">
         <v>1</v>
       </c>
@@ -16696,6 +17209,7 @@
       </c>
       <c r="AN78" s="2"/>
       <c r="AO78" s="1"/>
+      <c r="AP78"/>
       <c r="AQ78" s="1" t="s">
         <v>1</v>
       </c>
@@ -16786,6 +17300,7 @@
       <c r="AL79" s="1"/>
       <c r="AN79" s="2"/>
       <c r="AO79" s="1"/>
+      <c r="AP79"/>
       <c r="AQ79" s="1" t="s">
         <v>1</v>
       </c>
@@ -16883,6 +17398,7 @@
       <c r="AL80" s="1"/>
       <c r="AN80" s="2"/>
       <c r="AO80" s="1"/>
+      <c r="AP80"/>
       <c r="AQ80" s="1" t="s">
         <v>1</v>
       </c>
@@ -16982,6 +17498,7 @@
       </c>
       <c r="AN81" s="2"/>
       <c r="AO81" s="1"/>
+      <c r="AP81"/>
       <c r="AQ81" s="1" t="s">
         <v>1</v>
       </c>
@@ -17182,6 +17699,7 @@
         <v>66</v>
       </c>
       <c r="AO83" s="1"/>
+      <c r="AP83"/>
       <c r="AQ83" s="1" t="s">
         <v>1</v>
       </c>
@@ -17275,6 +17793,7 @@
       <c r="AL84" s="1"/>
       <c r="AN84" s="2"/>
       <c r="AO84" s="1"/>
+      <c r="AP84"/>
       <c r="AQ84" s="1" t="s">
         <v>1</v>
       </c>
@@ -17370,6 +17889,7 @@
       <c r="AL85" s="1"/>
       <c r="AN85" s="2"/>
       <c r="AO85" s="1"/>
+      <c r="AP85"/>
       <c r="AQ85" s="1" t="s">
         <v>1</v>
       </c>
@@ -17469,6 +17989,7 @@
       </c>
       <c r="AN86" s="2"/>
       <c r="AO86" s="1"/>
+      <c r="AP86"/>
       <c r="AQ86" s="1" t="s">
         <v>1</v>
       </c>
@@ -17563,6 +18084,7 @@
       <c r="AL87" s="1"/>
       <c r="AN87" s="2"/>
       <c r="AO87" s="1"/>
+      <c r="AP87"/>
       <c r="AQ87" s="1" t="s">
         <v>1</v>
       </c>
@@ -17662,6 +18184,7 @@
         <v>2336</v>
       </c>
       <c r="AO88" s="1"/>
+      <c r="AP88"/>
       <c r="AQ88" s="1" t="s">
         <v>1</v>
       </c>
@@ -17767,6 +18290,7 @@
         <v>705</v>
       </c>
       <c r="AO89" s="1"/>
+      <c r="AP89"/>
       <c r="AQ89" s="1" t="s">
         <v>1</v>
       </c>
@@ -17865,6 +18389,7 @@
       <c r="AL90" s="1"/>
       <c r="AN90" s="2"/>
       <c r="AO90" s="1"/>
+      <c r="AP90"/>
       <c r="AQ90" s="1" t="s">
         <v>1</v>
       </c>
@@ -17962,6 +18487,7 @@
       </c>
       <c r="AN91" s="2"/>
       <c r="AO91" s="1"/>
+      <c r="AP91"/>
       <c r="AQ91" s="1" t="s">
         <v>1</v>
       </c>
@@ -18061,6 +18587,7 @@
       </c>
       <c r="AN92" s="2"/>
       <c r="AO92" s="1"/>
+      <c r="AP92"/>
       <c r="AQ92" s="1" t="s">
         <v>1</v>
       </c>
@@ -18159,6 +18686,7 @@
       <c r="AL93" s="1"/>
       <c r="AN93" s="2"/>
       <c r="AO93" s="1"/>
+      <c r="AP93"/>
       <c r="AQ93" s="1" t="s">
         <v>1</v>
       </c>
@@ -18258,6 +18786,7 @@
         <v>2314</v>
       </c>
       <c r="AO94" s="1"/>
+      <c r="AP94"/>
       <c r="AQ94" s="1" t="s">
         <v>1</v>
       </c>
@@ -18353,6 +18882,7 @@
       <c r="AL95" s="1"/>
       <c r="AN95" s="2"/>
       <c r="AO95" s="1"/>
+      <c r="AP95"/>
       <c r="AQ95" s="1" t="s">
         <v>1</v>
       </c>
@@ -18449,6 +18979,7 @@
       <c r="AL96" s="1"/>
       <c r="AN96" s="2"/>
       <c r="AO96" s="1"/>
+      <c r="AP96"/>
       <c r="AQ96" s="1" t="s">
         <v>1</v>
       </c>
@@ -18536,6 +19067,7 @@
       <c r="AL97" s="1"/>
       <c r="AN97" s="2"/>
       <c r="AO97" s="1"/>
+      <c r="AP97"/>
       <c r="AQ97" s="1" t="s">
         <v>1</v>
       </c>
@@ -18625,6 +19157,7 @@
       <c r="AL98" s="1"/>
       <c r="AN98" s="2"/>
       <c r="AO98" s="1"/>
+      <c r="AP98"/>
       <c r="AQ98" s="1" t="s">
         <v>1</v>
       </c>
@@ -18714,6 +19247,7 @@
       <c r="AL99" s="1"/>
       <c r="AN99" s="2"/>
       <c r="AO99" s="1"/>
+      <c r="AP99"/>
       <c r="AQ99" s="1" t="s">
         <v>1</v>
       </c>
@@ -18801,6 +19335,7 @@
       <c r="AL100" s="1"/>
       <c r="AN100" s="2"/>
       <c r="AO100" s="1"/>
+      <c r="AP100"/>
       <c r="AQ100" s="1" t="s">
         <v>1</v>
       </c>
@@ -18890,6 +19425,7 @@
       <c r="AL101" s="1"/>
       <c r="AN101" s="2"/>
       <c r="AO101" s="1"/>
+      <c r="AP101"/>
       <c r="AQ101" s="1" t="s">
         <v>1</v>
       </c>
@@ -18977,6 +19513,7 @@
       <c r="AL102" s="1"/>
       <c r="AN102" s="2"/>
       <c r="AO102" s="1"/>
+      <c r="AP102"/>
       <c r="AQ102" s="1" t="s">
         <v>1</v>
       </c>
@@ -19066,6 +19603,7 @@
       <c r="AL103" s="1"/>
       <c r="AN103" s="2"/>
       <c r="AO103" s="1"/>
+      <c r="AP103"/>
       <c r="AQ103" s="1" t="s">
         <v>1</v>
       </c>
@@ -19161,6 +19699,7 @@
       <c r="AL104" s="1"/>
       <c r="AN104" s="2"/>
       <c r="AO104" s="1"/>
+      <c r="AP104"/>
       <c r="AQ104" s="1" t="s">
         <v>1</v>
       </c>
@@ -19264,7 +19803,7 @@
         <v>2294</v>
       </c>
       <c r="AO105" s="1"/>
-      <c r="AP105" s="14" t="s">
+      <c r="AP105" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ105" s="1" t="s">
@@ -19360,6 +19899,7 @@
       <c r="AL106" s="1"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="1"/>
+      <c r="AP106"/>
       <c r="AQ106" s="1" t="s">
         <v>1</v>
       </c>
@@ -19452,6 +19992,7 @@
       <c r="AL107" s="1"/>
       <c r="AN107" s="2"/>
       <c r="AO107" s="1"/>
+      <c r="AP107"/>
       <c r="AQ107" s="1" t="s">
         <v>1</v>
       </c>
@@ -19545,6 +20086,7 @@
       <c r="AL108" s="1"/>
       <c r="AN108" s="2"/>
       <c r="AO108" s="1"/>
+      <c r="AP108"/>
       <c r="AQ108" s="1" t="s">
         <v>1</v>
       </c>
@@ -19644,6 +20186,7 @@
       <c r="AL109" s="1"/>
       <c r="AN109" s="2"/>
       <c r="AO109" s="1"/>
+      <c r="AP109"/>
       <c r="AQ109" s="1" t="s">
         <v>1</v>
       </c>
@@ -19747,7 +20290,7 @@
         <v>2252</v>
       </c>
       <c r="AO110" s="1"/>
-      <c r="AP110" s="14" t="s">
+      <c r="AP110" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ110" s="1" t="s">
@@ -19842,6 +20385,7 @@
       <c r="AL111" s="1"/>
       <c r="AN111" s="2"/>
       <c r="AO111" s="1"/>
+      <c r="AP111"/>
       <c r="AQ111" s="1" t="s">
         <v>1</v>
       </c>
@@ -19934,6 +20478,7 @@
       <c r="AL112" s="1"/>
       <c r="AN112" s="2"/>
       <c r="AO112" s="1"/>
+      <c r="AP112"/>
       <c r="AQ112" s="1" t="s">
         <v>1</v>
       </c>
@@ -19941,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>2281</v>
       </c>
@@ -20033,7 +20578,7 @@
       </c>
       <c r="AN113" s="2"/>
       <c r="AO113" s="1"/>
-      <c r="AP113" s="14" t="s">
+      <c r="AP113" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ113" s="1" t="s">
@@ -20128,6 +20673,7 @@
       <c r="AL114" s="1"/>
       <c r="AN114" s="2"/>
       <c r="AO114" s="1"/>
+      <c r="AP114"/>
       <c r="AQ114" s="1" t="s">
         <v>1</v>
       </c>
@@ -20220,6 +20766,7 @@
       <c r="AL115" s="1"/>
       <c r="AN115" s="2"/>
       <c r="AO115" s="1"/>
+      <c r="AP115"/>
       <c r="AQ115" s="1" t="s">
         <v>1</v>
       </c>
@@ -20323,7 +20870,7 @@
         <v>2252</v>
       </c>
       <c r="AO116" s="1"/>
-      <c r="AP116" s="14" t="s">
+      <c r="AP116" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ116" s="1" t="s">
@@ -20418,6 +20965,7 @@
       <c r="AL117" s="1"/>
       <c r="AN117" s="2"/>
       <c r="AO117" s="1"/>
+      <c r="AP117"/>
       <c r="AQ117" s="1" t="s">
         <v>1</v>
       </c>
@@ -20521,7 +21069,7 @@
         <v>2252</v>
       </c>
       <c r="AO118" s="1"/>
-      <c r="AP118" s="14" t="s">
+      <c r="AP118" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ118" s="1" t="s">
@@ -20616,6 +21164,7 @@
       <c r="AL119" s="1"/>
       <c r="AN119" s="2"/>
       <c r="AO119" s="1"/>
+      <c r="AP119"/>
       <c r="AQ119" s="1" t="s">
         <v>1</v>
       </c>
@@ -20719,6 +21268,7 @@
       <c r="AL120" s="1"/>
       <c r="AN120" s="2"/>
       <c r="AO120" s="1"/>
+      <c r="AP120"/>
       <c r="AQ120" s="1" t="s">
         <v>1</v>
       </c>
@@ -20816,6 +21366,7 @@
       </c>
       <c r="AN121" s="2"/>
       <c r="AO121" s="1"/>
+      <c r="AP121"/>
       <c r="AQ121" s="1" t="s">
         <v>1</v>
       </c>
@@ -20919,7 +21470,7 @@
         <v>2252</v>
       </c>
       <c r="AO122" s="1"/>
-      <c r="AP122" s="14" t="s">
+      <c r="AP122" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ122" s="1" t="s">
@@ -21010,6 +21561,7 @@
       <c r="AL123" s="1"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="1"/>
+      <c r="AP123"/>
       <c r="AQ123" s="1" t="s">
         <v>1</v>
       </c>
@@ -21108,6 +21660,7 @@
       <c r="AL124" s="1"/>
       <c r="AN124" s="2"/>
       <c r="AO124" s="1"/>
+      <c r="AP124"/>
       <c r="AQ124" s="1" t="s">
         <v>1</v>
       </c>
@@ -21209,7 +21762,7 @@
         <v>2252</v>
       </c>
       <c r="AO125" s="1"/>
-      <c r="AP125" s="14" t="s">
+      <c r="AP125" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ125" s="1" t="s">
@@ -21313,7 +21866,7 @@
         <v>2252</v>
       </c>
       <c r="AO126" s="1"/>
-      <c r="AP126" s="14" t="s">
+      <c r="AP126" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ126" s="1" t="s">
@@ -21419,7 +21972,7 @@
         <v>2252</v>
       </c>
       <c r="AO127" s="1"/>
-      <c r="AP127" s="14" t="s">
+      <c r="AP127" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ127" s="1" t="s">
@@ -21514,6 +22067,7 @@
       <c r="AL128" s="1"/>
       <c r="AN128" s="2"/>
       <c r="AO128" s="1"/>
+      <c r="AP128"/>
       <c r="AQ128" s="1" t="s">
         <v>1</v>
       </c>
@@ -21617,7 +22171,7 @@
         <v>2247</v>
       </c>
       <c r="AO129" s="1"/>
-      <c r="AP129" s="14" t="s">
+      <c r="AP129" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="AQ129" s="1" t="s">
@@ -21712,6 +22266,7 @@
       <c r="AL130" s="1"/>
       <c r="AN130" s="2"/>
       <c r="AO130" s="1"/>
+      <c r="AP130"/>
       <c r="AQ130" s="1" t="s">
         <v>1</v>
       </c>
@@ -21806,6 +22361,7 @@
       <c r="AL131" s="1"/>
       <c r="AN131" s="2"/>
       <c r="AO131" s="1"/>
+      <c r="AP131"/>
       <c r="AQ131" s="1" t="s">
         <v>1</v>
       </c>
@@ -21901,6 +22457,7 @@
       <c r="AL132" s="1"/>
       <c r="AN132" s="2"/>
       <c r="AO132" s="1"/>
+      <c r="AP132"/>
       <c r="AQ132" s="1" t="s">
         <v>1</v>
       </c>
@@ -22017,7 +22574,7 @@
       </c>
       <c r="AN133" s="2"/>
       <c r="AO133" s="1"/>
-      <c r="AP133" s="14" t="s">
+      <c r="AP133" s="15" t="s">
         <v>2233</v>
       </c>
       <c r="AQ133" s="1" t="s">
@@ -22112,6 +22669,7 @@
       <c r="AL134" s="1"/>
       <c r="AN134" s="2"/>
       <c r="AO134" s="1"/>
+      <c r="AP134"/>
       <c r="AQ134" s="1" t="s">
         <v>1</v>
       </c>
@@ -22209,6 +22767,7 @@
       </c>
       <c r="AN135" s="2"/>
       <c r="AO135" s="1"/>
+      <c r="AP135"/>
       <c r="AQ135" s="1" t="s">
         <v>1</v>
       </c>
@@ -22299,6 +22858,7 @@
       <c r="AL136" s="1"/>
       <c r="AN136" s="2"/>
       <c r="AO136" s="1"/>
+      <c r="AP136"/>
       <c r="AQ136" s="1" t="s">
         <v>1</v>
       </c>
@@ -22404,7 +22964,7 @@
         <v>2221</v>
       </c>
       <c r="AO137" s="1"/>
-      <c r="AP137" s="14" t="s">
+      <c r="AP137" s="15" t="s">
         <v>2220</v>
       </c>
       <c r="AQ137" s="1" t="s">
@@ -22504,6 +23064,7 @@
       </c>
       <c r="AN138" s="2"/>
       <c r="AO138" s="1"/>
+      <c r="AP138"/>
       <c r="AQ138" s="1" t="s">
         <v>1</v>
       </c>
@@ -22612,6 +23173,7 @@
         <v>2211</v>
       </c>
       <c r="AO139" s="1"/>
+      <c r="AP139"/>
       <c r="AQ139" s="1" t="s">
         <v>1</v>
       </c>
@@ -22706,6 +23268,7 @@
       <c r="AL140" s="1"/>
       <c r="AN140" s="2"/>
       <c r="AO140" s="1"/>
+      <c r="AP140"/>
       <c r="AQ140" s="1" t="s">
         <v>1</v>
       </c>
@@ -22800,6 +23363,7 @@
       <c r="AL141" s="1"/>
       <c r="AN141" s="2"/>
       <c r="AO141" s="1"/>
+      <c r="AP141"/>
       <c r="AQ141" s="1" t="s">
         <v>1</v>
       </c>
@@ -22887,6 +23451,7 @@
       <c r="AL142" s="1"/>
       <c r="AN142" s="2"/>
       <c r="AO142" s="1"/>
+      <c r="AP142"/>
       <c r="AQ142" s="1" t="s">
         <v>1</v>
       </c>
@@ -22986,6 +23551,7 @@
       <c r="AL143" s="1"/>
       <c r="AN143" s="2"/>
       <c r="AO143" s="1"/>
+      <c r="AP143"/>
       <c r="AQ143" s="1" t="s">
         <v>1</v>
       </c>
@@ -23071,6 +23637,7 @@
       <c r="AL144" s="1"/>
       <c r="AN144" s="2"/>
       <c r="AO144" s="1"/>
+      <c r="AP144"/>
       <c r="AQ144" s="1" t="s">
         <v>1</v>
       </c>
@@ -23176,7 +23743,7 @@
         <v>2191</v>
       </c>
       <c r="AO145" s="1"/>
-      <c r="AP145" s="14" t="s">
+      <c r="AP145" s="15" t="s">
         <v>2190</v>
       </c>
       <c r="AQ145" s="1" t="s">
@@ -23275,6 +23842,7 @@
       <c r="AL146" s="1"/>
       <c r="AN146" s="2"/>
       <c r="AO146" s="1"/>
+      <c r="AP146"/>
       <c r="AQ146" s="1" t="s">
         <v>1</v>
       </c>
@@ -23372,6 +23940,7 @@
       </c>
       <c r="AN147" s="2"/>
       <c r="AO147" s="1"/>
+      <c r="AP147"/>
       <c r="AQ147" s="1" t="s">
         <v>1</v>
       </c>
@@ -23469,6 +24038,7 @@
       </c>
       <c r="AN148" s="2"/>
       <c r="AO148" s="1"/>
+      <c r="AP148"/>
       <c r="AQ148" s="1" t="s">
         <v>1</v>
       </c>
@@ -23568,6 +24138,7 @@
       </c>
       <c r="AN149" s="2"/>
       <c r="AO149" s="1"/>
+      <c r="AP149"/>
       <c r="AQ149" s="1" t="s">
         <v>1</v>
       </c>
@@ -23665,6 +24236,7 @@
       <c r="AL150" s="1"/>
       <c r="AN150" s="2"/>
       <c r="AO150" s="1"/>
+      <c r="AP150"/>
       <c r="AQ150" s="1" t="s">
         <v>1</v>
       </c>
@@ -23753,6 +24325,7 @@
       <c r="AL151" s="1"/>
       <c r="AN151" s="2"/>
       <c r="AO151" s="1"/>
+      <c r="AP151"/>
       <c r="AQ151" s="1" t="s">
         <v>1</v>
       </c>
@@ -23760,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>1074</v>
       </c>
@@ -23860,7 +24433,7 @@
       </c>
       <c r="AN152" s="2"/>
       <c r="AO152" s="1"/>
-      <c r="AP152" s="5" t="s">
+      <c r="AP152" s="17" t="s">
         <v>2168</v>
       </c>
       <c r="AQ152" s="1" t="s">
@@ -23948,6 +24521,7 @@
       <c r="AL153" s="1"/>
       <c r="AN153" s="2"/>
       <c r="AO153" s="1"/>
+      <c r="AP153"/>
       <c r="AQ153" s="1" t="s">
         <v>1</v>
       </c>
@@ -24033,6 +24607,7 @@
       <c r="AL154" s="1"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="1"/>
+      <c r="AP154"/>
       <c r="AQ154" s="1" t="s">
         <v>1</v>
       </c>
@@ -24118,6 +24693,7 @@
       <c r="AL155" s="1"/>
       <c r="AN155" s="2"/>
       <c r="AO155" s="1"/>
+      <c r="AP155"/>
       <c r="AQ155" s="1" t="s">
         <v>1</v>
       </c>
@@ -24225,6 +24801,7 @@
       <c r="AL156" s="1"/>
       <c r="AN156" s="2"/>
       <c r="AO156" s="1"/>
+      <c r="AP156"/>
       <c r="AQ156" s="1" t="s">
         <v>1</v>
       </c>
@@ -24320,6 +24897,7 @@
       <c r="AL157" s="1"/>
       <c r="AN157" s="2"/>
       <c r="AO157" s="1"/>
+      <c r="AP157"/>
       <c r="AQ157" s="1" t="s">
         <v>1</v>
       </c>
@@ -24424,6 +25002,7 @@
       <c r="AL158" s="1"/>
       <c r="AN158" s="2"/>
       <c r="AO158" s="1"/>
+      <c r="AP158"/>
       <c r="AQ158" s="1" t="s">
         <v>1</v>
       </c>
@@ -24519,6 +25098,7 @@
       <c r="AL159" s="1"/>
       <c r="AN159" s="2"/>
       <c r="AO159" s="1"/>
+      <c r="AP159"/>
       <c r="AQ159" s="1" t="s">
         <v>1</v>
       </c>
@@ -24616,6 +25196,7 @@
       </c>
       <c r="AN160" s="2"/>
       <c r="AO160" s="1"/>
+      <c r="AP160"/>
       <c r="AQ160" s="1" t="s">
         <v>1</v>
       </c>
@@ -24725,6 +25306,7 @@
       </c>
       <c r="AN161" s="2"/>
       <c r="AO161" s="1"/>
+      <c r="AP161"/>
       <c r="AQ161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24820,6 +25402,7 @@
       <c r="AL162" s="1"/>
       <c r="AN162" s="2"/>
       <c r="AO162" s="1"/>
+      <c r="AP162"/>
       <c r="AQ162" s="1" t="s">
         <v>1</v>
       </c>
@@ -24917,6 +25500,7 @@
       </c>
       <c r="AN163" s="2"/>
       <c r="AO163" s="1"/>
+      <c r="AP163"/>
       <c r="AQ163" s="1" t="s">
         <v>1</v>
       </c>
@@ -25133,6 +25717,7 @@
         <v>2126</v>
       </c>
       <c r="AO165" s="1"/>
+      <c r="AP165"/>
       <c r="AQ165" s="1" t="s">
         <v>1</v>
       </c>
@@ -25223,6 +25808,7 @@
       <c r="AL166" s="1"/>
       <c r="AN166" s="2"/>
       <c r="AO166" s="1"/>
+      <c r="AP166"/>
       <c r="AQ166" s="1" t="s">
         <v>1</v>
       </c>
@@ -25317,6 +25903,7 @@
       <c r="AL167" s="1"/>
       <c r="AN167" s="2"/>
       <c r="AO167" s="1"/>
+      <c r="AP167"/>
       <c r="AQ167" s="1" t="s">
         <v>1</v>
       </c>
@@ -25416,6 +26003,7 @@
       </c>
       <c r="AN168" s="2"/>
       <c r="AO168" s="1"/>
+      <c r="AP168"/>
       <c r="AQ168" s="1" t="s">
         <v>1</v>
       </c>
@@ -25504,6 +26092,7 @@
       <c r="AL169" s="1"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="1"/>
+      <c r="AP169"/>
       <c r="AQ169" s="1" t="s">
         <v>1</v>
       </c>
@@ -25603,6 +26192,7 @@
       <c r="AL170" s="1"/>
       <c r="AN170" s="2"/>
       <c r="AO170" s="1"/>
+      <c r="AP170"/>
       <c r="AQ170" s="1" t="s">
         <v>1</v>
       </c>
@@ -25704,6 +26294,7 @@
       </c>
       <c r="AN171" s="2"/>
       <c r="AO171" s="1"/>
+      <c r="AP171"/>
       <c r="AQ171" s="1" t="s">
         <v>1</v>
       </c>
@@ -25796,6 +26387,7 @@
       <c r="AL172" s="1"/>
       <c r="AN172" s="2"/>
       <c r="AO172" s="1"/>
+      <c r="AP172"/>
       <c r="AQ172" s="1" t="s">
         <v>1</v>
       </c>
@@ -25913,6 +26505,7 @@
       </c>
       <c r="AN173" s="2"/>
       <c r="AO173" s="1"/>
+      <c r="AP173"/>
       <c r="AQ173" s="1" t="s">
         <v>1</v>
       </c>
@@ -26005,6 +26598,7 @@
       <c r="AL174" s="1"/>
       <c r="AN174" s="2"/>
       <c r="AO174" s="1"/>
+      <c r="AP174"/>
       <c r="AQ174" s="1" t="s">
         <v>1</v>
       </c>
@@ -26106,6 +26700,7 @@
       </c>
       <c r="AN175" s="2"/>
       <c r="AO175" s="1"/>
+      <c r="AP175"/>
       <c r="AQ175" s="1" t="s">
         <v>1</v>
       </c>
@@ -26200,6 +26795,7 @@
       <c r="AL176" s="1"/>
       <c r="AN176" s="2"/>
       <c r="AO176" s="1"/>
+      <c r="AP176"/>
       <c r="AQ176" s="1" t="s">
         <v>1</v>
       </c>
@@ -26297,6 +26893,7 @@
       </c>
       <c r="AN177" s="2"/>
       <c r="AO177" s="1"/>
+      <c r="AP177"/>
       <c r="AQ177" s="1" t="s">
         <v>1</v>
       </c>
@@ -26403,6 +27000,7 @@
       </c>
       <c r="AN178" s="2"/>
       <c r="AO178" s="1"/>
+      <c r="AP178"/>
       <c r="AQ178" s="1" t="s">
         <v>1</v>
       </c>
@@ -26500,6 +27098,7 @@
       </c>
       <c r="AN179" s="2"/>
       <c r="AO179" s="1"/>
+      <c r="AP179"/>
       <c r="AQ179" s="1" t="s">
         <v>1</v>
       </c>
@@ -26597,6 +27196,7 @@
       </c>
       <c r="AN180" s="2"/>
       <c r="AO180" s="1"/>
+      <c r="AP180"/>
       <c r="AQ180" s="1" t="s">
         <v>1</v>
       </c>
@@ -26691,6 +27291,7 @@
       <c r="AL181" s="1"/>
       <c r="AN181" s="2"/>
       <c r="AO181" s="1"/>
+      <c r="AP181"/>
       <c r="AQ181" s="1" t="s">
         <v>1</v>
       </c>
@@ -26788,6 +27389,7 @@
       </c>
       <c r="AN182" s="2"/>
       <c r="AO182" s="1"/>
+      <c r="AP182"/>
       <c r="AQ182" s="1" t="s">
         <v>1</v>
       </c>
@@ -26881,6 +27483,7 @@
       <c r="AL183" s="1"/>
       <c r="AN183" s="2"/>
       <c r="AO183" s="1"/>
+      <c r="AP183"/>
       <c r="AQ183" s="1" t="s">
         <v>1</v>
       </c>
@@ -26983,6 +27586,7 @@
       </c>
       <c r="AN184" s="2"/>
       <c r="AO184" s="1"/>
+      <c r="AP184"/>
       <c r="AQ184" s="1" t="s">
         <v>1</v>
       </c>
@@ -27078,6 +27682,7 @@
       <c r="AL185" s="1"/>
       <c r="AN185" s="2"/>
       <c r="AO185" s="1"/>
+      <c r="AP185"/>
       <c r="AQ185" s="1" t="s">
         <v>1</v>
       </c>
@@ -27179,6 +27784,7 @@
         <v>28</v>
       </c>
       <c r="AO186" s="1"/>
+      <c r="AP186"/>
       <c r="AQ186" s="1" t="s">
         <v>1</v>
       </c>
@@ -27275,6 +27881,7 @@
       <c r="AL187" s="1"/>
       <c r="AN187" s="2"/>
       <c r="AO187" s="1"/>
+      <c r="AP187"/>
       <c r="AQ187" s="1" t="s">
         <v>1</v>
       </c>
@@ -27361,6 +27968,7 @@
       <c r="AL188" s="1"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="1"/>
+      <c r="AP188"/>
       <c r="AQ188" s="1" t="s">
         <v>1</v>
       </c>
@@ -27453,6 +28061,7 @@
       <c r="AL189" s="1"/>
       <c r="AN189" s="2"/>
       <c r="AO189" s="1"/>
+      <c r="AP189"/>
       <c r="AQ189" s="1" t="s">
         <v>1</v>
       </c>
@@ -27546,6 +28155,7 @@
       <c r="AL190" s="1"/>
       <c r="AN190" s="2"/>
       <c r="AO190" s="1"/>
+      <c r="AP190"/>
       <c r="AQ190" s="1" t="s">
         <v>1</v>
       </c>
@@ -27649,6 +28259,7 @@
       <c r="AL191" s="1"/>
       <c r="AN191" s="2"/>
       <c r="AO191" s="1"/>
+      <c r="AP191"/>
       <c r="AQ191" s="1" t="s">
         <v>1</v>
       </c>
@@ -27764,7 +28375,7 @@
       <c r="AO192" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="AP192" s="14" t="s">
+      <c r="AP192" s="15" t="s">
         <v>2017</v>
       </c>
       <c r="AQ192" s="1" t="s">
@@ -27867,7 +28478,7 @@
       <c r="AL193" s="1"/>
       <c r="AN193" s="2"/>
       <c r="AO193" s="1"/>
-      <c r="AP193" s="14" t="s">
+      <c r="AP193" s="15" t="s">
         <v>2017</v>
       </c>
       <c r="AQ193" s="1" t="s">
@@ -27970,7 +28581,7 @@
       <c r="AL194" s="1"/>
       <c r="AN194" s="2"/>
       <c r="AO194" s="1"/>
-      <c r="AP194" s="14" t="s">
+      <c r="AP194" s="15" t="s">
         <v>2017</v>
       </c>
       <c r="AQ194" s="1" t="s">
@@ -28077,6 +28688,7 @@
       <c r="AL195" s="1"/>
       <c r="AN195" s="2"/>
       <c r="AO195" s="1"/>
+      <c r="AP195"/>
       <c r="AQ195" s="1" t="s">
         <v>1</v>
       </c>
@@ -28179,6 +28791,7 @@
       <c r="AL196" s="1"/>
       <c r="AN196" s="2"/>
       <c r="AO196" s="1"/>
+      <c r="AP196"/>
       <c r="AQ196" s="1" t="s">
         <v>1</v>
       </c>
@@ -28284,7 +28897,7 @@
       </c>
       <c r="AN197" s="2"/>
       <c r="AO197" s="1"/>
-      <c r="AP197" s="14" t="s">
+      <c r="AP197" s="15" t="s">
         <v>2017</v>
       </c>
       <c r="AQ197" s="1" t="s">
@@ -28383,6 +28996,7 @@
       <c r="AL198" s="1"/>
       <c r="AN198" s="2"/>
       <c r="AO198" s="1"/>
+      <c r="AP198"/>
       <c r="AQ198" s="1" t="s">
         <v>1</v>
       </c>
@@ -28480,6 +29094,7 @@
       <c r="AL199" s="1"/>
       <c r="AN199" s="2"/>
       <c r="AO199" s="1"/>
+      <c r="AP199"/>
       <c r="AQ199" s="1" t="s">
         <v>1</v>
       </c>
@@ -28585,6 +29200,7 @@
         <v>2008</v>
       </c>
       <c r="AO200" s="1"/>
+      <c r="AP200"/>
       <c r="AQ200" s="1" t="s">
         <v>1</v>
       </c>
@@ -28684,6 +29300,7 @@
       <c r="AL201" s="1"/>
       <c r="AN201" s="2"/>
       <c r="AO201" s="1"/>
+      <c r="AP201"/>
       <c r="AQ201" s="1" t="s">
         <v>1</v>
       </c>
@@ -28785,6 +29402,7 @@
         <v>28</v>
       </c>
       <c r="AO202" s="1"/>
+      <c r="AP202"/>
       <c r="AQ202" s="1" t="s">
         <v>1</v>
       </c>
@@ -28880,6 +29498,7 @@
       <c r="AL203" s="1"/>
       <c r="AN203" s="2"/>
       <c r="AO203" s="1"/>
+      <c r="AP203"/>
       <c r="AQ203" s="1" t="s">
         <v>1</v>
       </c>
@@ -28981,6 +29600,7 @@
       <c r="AL204" s="1"/>
       <c r="AN204" s="2"/>
       <c r="AO204" s="1"/>
+      <c r="AP204"/>
       <c r="AQ204" s="1" t="s">
         <v>1</v>
       </c>
@@ -29074,6 +29694,7 @@
       <c r="AL205" s="1"/>
       <c r="AN205" s="2"/>
       <c r="AO205" s="1"/>
+      <c r="AP205"/>
       <c r="AQ205" s="1" t="s">
         <v>1</v>
       </c>
@@ -29181,6 +29802,7 @@
       <c r="AL206" s="1"/>
       <c r="AN206" s="2"/>
       <c r="AO206" s="1"/>
+      <c r="AP206"/>
       <c r="AQ206" s="1" t="s">
         <v>1</v>
       </c>
@@ -29274,6 +29896,7 @@
       <c r="AL207" s="1"/>
       <c r="AN207" s="2"/>
       <c r="AO207" s="1"/>
+      <c r="AP207"/>
       <c r="AQ207" s="1" t="s">
         <v>1</v>
       </c>
@@ -29371,6 +29994,7 @@
       </c>
       <c r="AN208" s="2"/>
       <c r="AO208" s="1"/>
+      <c r="AP208"/>
       <c r="AQ208" s="1" t="s">
         <v>1</v>
       </c>
@@ -29470,6 +30094,7 @@
       </c>
       <c r="AN209" s="2"/>
       <c r="AO209" s="1"/>
+      <c r="AP209"/>
       <c r="AQ209" s="1" t="s">
         <v>1</v>
       </c>
@@ -29571,6 +30196,7 @@
       </c>
       <c r="AN210" s="2"/>
       <c r="AO210" s="1"/>
+      <c r="AP210"/>
       <c r="AQ210" s="1" t="s">
         <v>1</v>
       </c>
@@ -29667,6 +30293,7 @@
       <c r="AL211" s="1"/>
       <c r="AN211" s="2"/>
       <c r="AO211" s="1"/>
+      <c r="AP211"/>
       <c r="AQ211" s="1" t="s">
         <v>1</v>
       </c>
@@ -29755,6 +30382,7 @@
       <c r="AL212" s="1"/>
       <c r="AN212" s="2"/>
       <c r="AO212" s="1"/>
+      <c r="AP212"/>
       <c r="AQ212" s="1" t="s">
         <v>1</v>
       </c>
@@ -29852,6 +30480,7 @@
       </c>
       <c r="AN213" s="2"/>
       <c r="AO213" s="1"/>
+      <c r="AP213"/>
       <c r="AQ213" s="1" t="s">
         <v>1</v>
       </c>
@@ -29945,6 +30574,7 @@
       <c r="AL214" s="1"/>
       <c r="AN214" s="2"/>
       <c r="AO214" s="1"/>
+      <c r="AP214"/>
       <c r="AQ214" s="1" t="s">
         <v>1</v>
       </c>
@@ -30055,6 +30685,7 @@
       <c r="AL215" s="1"/>
       <c r="AN215" s="2"/>
       <c r="AO215" s="1"/>
+      <c r="AP215"/>
       <c r="AQ215" s="1" t="s">
         <v>1</v>
       </c>
@@ -30150,6 +30781,7 @@
       <c r="AL216" s="1"/>
       <c r="AN216" s="2"/>
       <c r="AO216" s="1"/>
+      <c r="AP216"/>
       <c r="AQ216" s="1" t="s">
         <v>1</v>
       </c>
@@ -30242,6 +30874,7 @@
       <c r="AL217" s="1"/>
       <c r="AN217" s="2"/>
       <c r="AO217" s="1"/>
+      <c r="AP217"/>
       <c r="AQ217" s="1" t="s">
         <v>1</v>
       </c>
@@ -30335,6 +30968,7 @@
       <c r="AL218" s="1"/>
       <c r="AN218" s="2"/>
       <c r="AO218" s="1"/>
+      <c r="AP218"/>
       <c r="AQ218" s="1" t="s">
         <v>1</v>
       </c>
@@ -30428,6 +31062,7 @@
       <c r="AL219" s="1"/>
       <c r="AN219" s="2"/>
       <c r="AO219" s="1"/>
+      <c r="AP219"/>
       <c r="AQ219" s="1" t="s">
         <v>1</v>
       </c>
@@ -30515,6 +31150,7 @@
       <c r="AL220" s="1"/>
       <c r="AN220" s="2"/>
       <c r="AO220" s="1"/>
+      <c r="AP220"/>
       <c r="AQ220" s="1" t="s">
         <v>1</v>
       </c>
@@ -30610,6 +31246,7 @@
       <c r="AL221" s="1"/>
       <c r="AN221" s="2"/>
       <c r="AO221" s="1"/>
+      <c r="AP221"/>
       <c r="AQ221" s="1" t="s">
         <v>1</v>
       </c>
@@ -30701,6 +31338,7 @@
       </c>
       <c r="AN222" s="2"/>
       <c r="AO222" s="1"/>
+      <c r="AP222"/>
       <c r="AQ222" s="1" t="s">
         <v>1</v>
       </c>
@@ -30795,6 +31433,7 @@
       <c r="AL223" s="1"/>
       <c r="AN223" s="2"/>
       <c r="AO223" s="1"/>
+      <c r="AP223"/>
       <c r="AQ223" s="1" t="s">
         <v>1</v>
       </c>
@@ -30900,7 +31539,7 @@
         <v>1927</v>
       </c>
       <c r="AO224" s="1"/>
-      <c r="AP224" s="14" t="s">
+      <c r="AP224" s="15" t="s">
         <v>1926</v>
       </c>
       <c r="AQ224" s="1" t="s">
@@ -31000,6 +31639,7 @@
       <c r="AL225" s="1"/>
       <c r="AN225" s="2"/>
       <c r="AO225" s="1"/>
+      <c r="AP225"/>
       <c r="AQ225" s="1" t="s">
         <v>1</v>
       </c>
@@ -31097,6 +31737,7 @@
       <c r="AL226" s="1"/>
       <c r="AN226" s="2"/>
       <c r="AO226" s="1"/>
+      <c r="AP226"/>
       <c r="AQ226" s="1" t="s">
         <v>1</v>
       </c>
@@ -31198,6 +31839,7 @@
       <c r="AL227" s="1"/>
       <c r="AN227" s="2"/>
       <c r="AO227" s="1"/>
+      <c r="AP227"/>
       <c r="AQ227" s="1" t="s">
         <v>1</v>
       </c>
@@ -31294,6 +31936,7 @@
       <c r="AL228" s="1"/>
       <c r="AN228" s="2"/>
       <c r="AO228" s="1"/>
+      <c r="AP228"/>
       <c r="AQ228" s="1" t="s">
         <v>1</v>
       </c>
@@ -31384,6 +32027,7 @@
       <c r="AL229" s="1"/>
       <c r="AN229" s="2"/>
       <c r="AO229" s="1"/>
+      <c r="AP229"/>
       <c r="AQ229" s="1" t="s">
         <v>1</v>
       </c>
@@ -31481,6 +32125,7 @@
         <v>1909</v>
       </c>
       <c r="AO230" s="1"/>
+      <c r="AP230"/>
       <c r="AQ230" s="1" t="s">
         <v>1</v>
       </c>
@@ -31576,6 +32221,7 @@
       </c>
       <c r="AN231" s="2"/>
       <c r="AO231" s="1"/>
+      <c r="AP231"/>
       <c r="AQ231" s="1" t="s">
         <v>1</v>
       </c>
@@ -31673,6 +32319,7 @@
       <c r="AL232" s="1"/>
       <c r="AN232" s="2"/>
       <c r="AO232" s="1"/>
+      <c r="AP232"/>
       <c r="AQ232" s="1" t="s">
         <v>1</v>
       </c>
@@ -31764,6 +32411,7 @@
       <c r="AL233" s="1"/>
       <c r="AN233" s="2"/>
       <c r="AO233" s="1"/>
+      <c r="AP233"/>
       <c r="AQ233" s="1" t="s">
         <v>1</v>
       </c>
@@ -31857,6 +32505,7 @@
       <c r="AL234" s="1"/>
       <c r="AN234" s="2"/>
       <c r="AO234" s="1"/>
+      <c r="AP234"/>
       <c r="AQ234" s="1" t="s">
         <v>1</v>
       </c>
@@ -31948,6 +32597,7 @@
       <c r="AL235" s="1"/>
       <c r="AN235" s="2"/>
       <c r="AO235" s="1"/>
+      <c r="AP235"/>
       <c r="AQ235" s="1" t="s">
         <v>1</v>
       </c>
@@ -32051,6 +32701,7 @@
         <v>531</v>
       </c>
       <c r="AO236" s="1"/>
+      <c r="AP236"/>
       <c r="AQ236" s="1" t="s">
         <v>1</v>
       </c>
@@ -32159,6 +32810,7 @@
       <c r="AL237" s="1"/>
       <c r="AN237" s="2"/>
       <c r="AO237" s="1"/>
+      <c r="AP237"/>
       <c r="AQ237" s="1" t="s">
         <v>1</v>
       </c>
@@ -32254,6 +32906,7 @@
       <c r="AL238" s="1"/>
       <c r="AN238" s="2"/>
       <c r="AO238" s="1"/>
+      <c r="AP238"/>
       <c r="AQ238" s="1" t="s">
         <v>1</v>
       </c>
@@ -32349,6 +33002,7 @@
       <c r="AL239" s="1"/>
       <c r="AN239" s="2"/>
       <c r="AO239" s="1"/>
+      <c r="AP239"/>
       <c r="AQ239" s="1" t="s">
         <v>1</v>
       </c>
@@ -32448,6 +33102,7 @@
         <v>28</v>
       </c>
       <c r="AO240" s="1"/>
+      <c r="AP240"/>
       <c r="AQ240" s="1" t="s">
         <v>1</v>
       </c>
@@ -32542,6 +33197,7 @@
       <c r="AL241" s="1"/>
       <c r="AN241" s="2"/>
       <c r="AO241" s="1"/>
+      <c r="AP241"/>
       <c r="AQ241" s="1" t="s">
         <v>1</v>
       </c>
@@ -32632,6 +33288,7 @@
       <c r="AL242" s="1"/>
       <c r="AN242" s="2"/>
       <c r="AO242" s="1"/>
+      <c r="AP242"/>
       <c r="AQ242" s="1" t="s">
         <v>1</v>
       </c>
@@ -32744,6 +33401,7 @@
       <c r="AL243" s="1"/>
       <c r="AN243" s="2"/>
       <c r="AO243" s="1"/>
+      <c r="AP243"/>
       <c r="AQ243" s="1" t="s">
         <v>1</v>
       </c>
@@ -32840,6 +33498,7 @@
       <c r="AL244" s="1"/>
       <c r="AN244" s="2"/>
       <c r="AO244" s="1"/>
+      <c r="AP244"/>
       <c r="AQ244" s="1" t="s">
         <v>1</v>
       </c>
@@ -32935,6 +33594,7 @@
       <c r="AL245" s="1"/>
       <c r="AN245" s="2"/>
       <c r="AO245" s="1"/>
+      <c r="AP245"/>
       <c r="AQ245" s="1" t="s">
         <v>1</v>
       </c>
@@ -33034,6 +33694,7 @@
         <v>66</v>
       </c>
       <c r="AO246" s="1"/>
+      <c r="AP246"/>
       <c r="AQ246" s="1" t="s">
         <v>1</v>
       </c>
@@ -33133,6 +33794,7 @@
         <v>28</v>
       </c>
       <c r="AO247" s="1"/>
+      <c r="AP247"/>
       <c r="AQ247" s="1" t="s">
         <v>1</v>
       </c>
@@ -33231,6 +33893,7 @@
       <c r="AL248" s="1"/>
       <c r="AN248" s="2"/>
       <c r="AO248" s="1"/>
+      <c r="AP248"/>
       <c r="AQ248" s="1" t="s">
         <v>1</v>
       </c>
@@ -33327,6 +33990,7 @@
       <c r="AL249" s="1"/>
       <c r="AN249" s="2"/>
       <c r="AO249" s="1"/>
+      <c r="AP249"/>
       <c r="AQ249" s="1" t="s">
         <v>1</v>
       </c>
@@ -33417,6 +34081,7 @@
       <c r="AL250" s="1"/>
       <c r="AN250" s="2"/>
       <c r="AO250" s="1"/>
+      <c r="AP250"/>
       <c r="AQ250" s="1" t="s">
         <v>1</v>
       </c>
@@ -33518,6 +34183,7 @@
         <v>28</v>
       </c>
       <c r="AO251" s="1"/>
+      <c r="AP251"/>
       <c r="AQ251" s="1" t="s">
         <v>1</v>
       </c>
@@ -33612,6 +34278,7 @@
       <c r="AL252" s="1"/>
       <c r="AN252" s="2"/>
       <c r="AO252" s="1"/>
+      <c r="AP252"/>
       <c r="AQ252" s="1" t="s">
         <v>1</v>
       </c>
@@ -33715,6 +34382,7 @@
         <v>531</v>
       </c>
       <c r="AO253" s="1"/>
+      <c r="AP253"/>
       <c r="AQ253" s="1" t="s">
         <v>1</v>
       </c>
@@ -33809,6 +34477,7 @@
       <c r="AL254" s="1"/>
       <c r="AN254" s="2"/>
       <c r="AO254" s="1"/>
+      <c r="AP254"/>
       <c r="AQ254" s="1" t="s">
         <v>1</v>
       </c>
@@ -33897,6 +34566,7 @@
       <c r="AL255" s="1"/>
       <c r="AN255" s="2"/>
       <c r="AO255" s="1"/>
+      <c r="AP255"/>
       <c r="AQ255" s="1" t="s">
         <v>1</v>
       </c>
@@ -33997,6 +34667,7 @@
       <c r="AL256" s="1"/>
       <c r="AN256" s="2"/>
       <c r="AO256" s="1"/>
+      <c r="AP256"/>
       <c r="AQ256" s="1" t="s">
         <v>1</v>
       </c>
@@ -34100,6 +34771,7 @@
       <c r="AL257" s="1"/>
       <c r="AN257" s="2"/>
       <c r="AO257" s="1"/>
+      <c r="AP257"/>
       <c r="AQ257" s="1" t="s">
         <v>1</v>
       </c>
@@ -34200,6 +34872,7 @@
       <c r="AL258" s="1"/>
       <c r="AN258" s="2"/>
       <c r="AO258" s="1"/>
+      <c r="AP258"/>
       <c r="AQ258" s="1" t="s">
         <v>1</v>
       </c>
@@ -34293,6 +34966,7 @@
       <c r="AL259" s="1"/>
       <c r="AN259" s="2"/>
       <c r="AO259" s="1"/>
+      <c r="AP259"/>
       <c r="AQ259" s="1" t="s">
         <v>1</v>
       </c>
@@ -34394,6 +35068,7 @@
         <v>28</v>
       </c>
       <c r="AO260" s="1"/>
+      <c r="AP260"/>
       <c r="AQ260" s="1" t="s">
         <v>1</v>
       </c>
@@ -34485,6 +35160,7 @@
       <c r="AL261" s="1"/>
       <c r="AN261" s="2"/>
       <c r="AO261" s="1"/>
+      <c r="AP261"/>
       <c r="AQ261" s="1" t="s">
         <v>1</v>
       </c>
@@ -34574,6 +35250,7 @@
       <c r="AL262" s="1"/>
       <c r="AN262" s="2"/>
       <c r="AO262" s="1"/>
+      <c r="AP262"/>
       <c r="AQ262" s="1" t="s">
         <v>1</v>
       </c>
@@ -34663,6 +35340,7 @@
       <c r="AL263" s="1"/>
       <c r="AN263" s="2"/>
       <c r="AO263" s="1"/>
+      <c r="AP263"/>
       <c r="AQ263" s="1" t="s">
         <v>1</v>
       </c>
@@ -34755,6 +35433,7 @@
       <c r="AL264" s="1"/>
       <c r="AN264" s="2"/>
       <c r="AO264" s="1"/>
+      <c r="AP264"/>
       <c r="AQ264" s="1" t="s">
         <v>1</v>
       </c>
@@ -34848,6 +35527,7 @@
       <c r="AL265" s="1"/>
       <c r="AN265" s="2"/>
       <c r="AO265" s="1"/>
+      <c r="AP265"/>
       <c r="AQ265" s="1" t="s">
         <v>1</v>
       </c>
@@ -34941,6 +35621,7 @@
       <c r="AL266" s="1"/>
       <c r="AN266" s="2"/>
       <c r="AO266" s="1"/>
+      <c r="AP266"/>
       <c r="AQ266" s="1" t="s">
         <v>1</v>
       </c>
@@ -35034,6 +35715,7 @@
       <c r="AL267" s="1"/>
       <c r="AN267" s="2"/>
       <c r="AO267" s="1"/>
+      <c r="AP267"/>
       <c r="AQ267" s="1" t="s">
         <v>1</v>
       </c>
@@ -35127,6 +35809,7 @@
       <c r="AL268" s="1"/>
       <c r="AN268" s="2"/>
       <c r="AO268" s="1"/>
+      <c r="AP268"/>
       <c r="AQ268" s="1" t="s">
         <v>1</v>
       </c>
@@ -35224,6 +35907,7 @@
       <c r="AL269" s="1"/>
       <c r="AN269" s="2"/>
       <c r="AO269" s="1"/>
+      <c r="AP269"/>
       <c r="AQ269" s="1" t="s">
         <v>1</v>
       </c>
@@ -35321,6 +36005,7 @@
       <c r="AL270" s="1"/>
       <c r="AN270" s="2"/>
       <c r="AO270" s="1"/>
+      <c r="AP270"/>
       <c r="AQ270" s="1" t="s">
         <v>1</v>
       </c>
@@ -35425,6 +36110,7 @@
         <v>1793</v>
       </c>
       <c r="AO271" s="1"/>
+      <c r="AP271"/>
       <c r="AQ271" s="1" t="s">
         <v>1</v>
       </c>
@@ -35530,6 +36216,7 @@
       <c r="AL272" s="1"/>
       <c r="AN272" s="2"/>
       <c r="AO272" s="1"/>
+      <c r="AP272"/>
       <c r="AQ272" s="1" t="s">
         <v>1</v>
       </c>
@@ -35629,6 +36316,7 @@
       <c r="AL273" s="1"/>
       <c r="AN273" s="2"/>
       <c r="AO273" s="1"/>
+      <c r="AP273"/>
       <c r="AQ273" s="1" t="s">
         <v>1</v>
       </c>
@@ -35725,6 +36413,7 @@
       </c>
       <c r="AN274" s="2"/>
       <c r="AO274" s="1"/>
+      <c r="AP274"/>
       <c r="AQ274" s="1" t="s">
         <v>1</v>
       </c>
@@ -35824,6 +36513,7 @@
         <v>28</v>
       </c>
       <c r="AO275" s="1"/>
+      <c r="AP275"/>
       <c r="AQ275" s="1" t="s">
         <v>1</v>
       </c>
@@ -35918,6 +36608,7 @@
       <c r="AL276" s="1"/>
       <c r="AN276" s="2"/>
       <c r="AO276" s="1"/>
+      <c r="AP276"/>
       <c r="AQ276" s="1" t="s">
         <v>1</v>
       </c>
@@ -36017,6 +36708,7 @@
       <c r="AL277" s="1"/>
       <c r="AN277" s="2"/>
       <c r="AO277" s="1"/>
+      <c r="AP277"/>
       <c r="AQ277" s="1" t="s">
         <v>1</v>
       </c>
@@ -36110,6 +36802,7 @@
       <c r="AL278" s="1"/>
       <c r="AN278" s="2"/>
       <c r="AO278" s="1"/>
+      <c r="AP278"/>
       <c r="AQ278" s="1" t="s">
         <v>1</v>
       </c>
@@ -36213,6 +36906,7 @@
         <v>1763</v>
       </c>
       <c r="AO279" s="1"/>
+      <c r="AP279"/>
       <c r="AQ279" s="1" t="s">
         <v>1</v>
       </c>
@@ -36305,6 +36999,7 @@
       <c r="AL280" s="1"/>
       <c r="AN280" s="2"/>
       <c r="AO280" s="1"/>
+      <c r="AP280"/>
       <c r="AQ280" s="1" t="s">
         <v>1</v>
       </c>
@@ -36401,6 +37096,7 @@
       <c r="AL281" s="1"/>
       <c r="AN281" s="2"/>
       <c r="AO281" s="1"/>
+      <c r="AP281"/>
       <c r="AQ281" s="1" t="s">
         <v>1</v>
       </c>
@@ -36497,6 +37193,7 @@
       <c r="AL282" s="1"/>
       <c r="AN282" s="2"/>
       <c r="AO282" s="1"/>
+      <c r="AP282"/>
       <c r="AQ282" s="1" t="s">
         <v>1</v>
       </c>
@@ -36592,6 +37289,7 @@
       <c r="AL283" s="1"/>
       <c r="AN283" s="2"/>
       <c r="AO283" s="1"/>
+      <c r="AP283"/>
       <c r="AQ283" s="1" t="s">
         <v>1</v>
       </c>
@@ -36695,6 +37393,7 @@
         <v>28</v>
       </c>
       <c r="AO284" s="1"/>
+      <c r="AP284"/>
       <c r="AQ284" s="1" t="s">
         <v>1</v>
       </c>
@@ -36785,6 +37484,7 @@
       <c r="AL285" s="1"/>
       <c r="AN285" s="2"/>
       <c r="AO285" s="1"/>
+      <c r="AP285"/>
       <c r="AQ285" s="1" t="s">
         <v>1</v>
       </c>
@@ -36881,6 +37581,7 @@
       <c r="AL286" s="1"/>
       <c r="AN286" s="2"/>
       <c r="AO286" s="1"/>
+      <c r="AP286"/>
       <c r="AQ286" s="1" t="s">
         <v>1</v>
       </c>
@@ -36966,6 +37667,7 @@
       <c r="AL287" s="1"/>
       <c r="AN287" s="2"/>
       <c r="AO287" s="1"/>
+      <c r="AP287"/>
       <c r="AQ287" s="1" t="s">
         <v>1</v>
       </c>
@@ -37057,6 +37759,7 @@
       <c r="AL288" s="1"/>
       <c r="AN288" s="2"/>
       <c r="AO288" s="1"/>
+      <c r="AP288"/>
       <c r="AQ288" s="1" t="s">
         <v>1</v>
       </c>
@@ -37145,6 +37848,7 @@
       <c r="AL289" s="1"/>
       <c r="AN289" s="2"/>
       <c r="AO289" s="1"/>
+      <c r="AP289"/>
       <c r="AQ289" s="1" t="s">
         <v>1</v>
       </c>
@@ -37248,6 +37952,7 @@
         <v>28</v>
       </c>
       <c r="AO290" s="1"/>
+      <c r="AP290"/>
       <c r="AQ290" s="1" t="s">
         <v>1</v>
       </c>
@@ -37343,6 +38048,7 @@
       <c r="AL291" s="1"/>
       <c r="AN291" s="2"/>
       <c r="AO291" s="1"/>
+      <c r="AP291"/>
       <c r="AQ291" s="1" t="s">
         <v>1</v>
       </c>
@@ -37446,6 +38152,7 @@
         <v>28</v>
       </c>
       <c r="AO292" s="1"/>
+      <c r="AP292"/>
       <c r="AQ292" s="1" t="s">
         <v>1</v>
       </c>
@@ -37534,6 +38241,7 @@
       <c r="AL293" s="1"/>
       <c r="AN293" s="2"/>
       <c r="AO293" s="1"/>
+      <c r="AP293"/>
       <c r="AQ293" s="1" t="s">
         <v>1</v>
       </c>
@@ -37631,6 +38339,7 @@
       <c r="AL294" s="1"/>
       <c r="AN294" s="2"/>
       <c r="AO294" s="1"/>
+      <c r="AP294"/>
       <c r="AQ294" s="1" t="s">
         <v>1</v>
       </c>
@@ -37728,6 +38437,7 @@
       <c r="AL295" s="1"/>
       <c r="AN295" s="2"/>
       <c r="AO295" s="1"/>
+      <c r="AP295"/>
       <c r="AQ295" s="1" t="s">
         <v>1</v>
       </c>
@@ -37829,6 +38539,7 @@
         <v>28</v>
       </c>
       <c r="AO296" s="1"/>
+      <c r="AP296"/>
       <c r="AQ296" s="1" t="s">
         <v>1</v>
       </c>
@@ -37932,6 +38643,7 @@
         <v>28</v>
       </c>
       <c r="AO297" s="1"/>
+      <c r="AP297"/>
       <c r="AQ297" s="1" t="s">
         <v>1</v>
       </c>
@@ -38035,6 +38747,7 @@
         <v>28</v>
       </c>
       <c r="AO298" s="1"/>
+      <c r="AP298"/>
       <c r="AQ298" s="1" t="s">
         <v>1</v>
       </c>
@@ -38125,6 +38838,7 @@
       <c r="AL299" s="1"/>
       <c r="AN299" s="2"/>
       <c r="AO299" s="1"/>
+      <c r="AP299"/>
       <c r="AQ299" s="1" t="s">
         <v>1</v>
       </c>
@@ -38218,6 +38932,7 @@
       <c r="AL300" s="1"/>
       <c r="AN300" s="2"/>
       <c r="AO300" s="1"/>
+      <c r="AP300"/>
       <c r="AQ300" s="1" t="s">
         <v>1</v>
       </c>
@@ -38310,6 +39025,7 @@
       <c r="AL301" s="1"/>
       <c r="AN301" s="2"/>
       <c r="AO301" s="1"/>
+      <c r="AP301"/>
       <c r="AQ301" s="1" t="s">
         <v>1</v>
       </c>
@@ -38407,6 +39123,7 @@
       </c>
       <c r="AN302" s="2"/>
       <c r="AO302" s="1"/>
+      <c r="AP302"/>
       <c r="AQ302" s="1" t="s">
         <v>1</v>
       </c>
@@ -38501,6 +39218,7 @@
       <c r="AL303" s="1"/>
       <c r="AN303" s="2"/>
       <c r="AO303" s="1"/>
+      <c r="AP303"/>
       <c r="AQ303" s="1" t="s">
         <v>1</v>
       </c>
@@ -38604,6 +39322,7 @@
         <v>28</v>
       </c>
       <c r="AO304" s="1"/>
+      <c r="AP304"/>
       <c r="AQ304" s="1" t="s">
         <v>1</v>
       </c>
@@ -38689,6 +39408,7 @@
       <c r="AL305" s="1"/>
       <c r="AN305" s="2"/>
       <c r="AO305" s="1"/>
+      <c r="AP305"/>
       <c r="AQ305" s="1" t="s">
         <v>1</v>
       </c>
@@ -38778,6 +39498,7 @@
       <c r="AL306" s="1"/>
       <c r="AN306" s="2"/>
       <c r="AO306" s="1"/>
+      <c r="AP306"/>
       <c r="AQ306" s="1" t="s">
         <v>1</v>
       </c>
@@ -38867,6 +39588,7 @@
       <c r="AL307" s="1"/>
       <c r="AN307" s="2"/>
       <c r="AO307" s="1"/>
+      <c r="AP307"/>
       <c r="AQ307" s="1" t="s">
         <v>1</v>
       </c>
@@ -38960,6 +39682,7 @@
       <c r="AL308" s="1"/>
       <c r="AN308" s="2"/>
       <c r="AO308" s="1"/>
+      <c r="AP308"/>
       <c r="AQ308" s="1" t="s">
         <v>1</v>
       </c>
@@ -39059,6 +39782,7 @@
       <c r="AL309" s="1"/>
       <c r="AN309" s="2"/>
       <c r="AO309" s="1"/>
+      <c r="AP309"/>
       <c r="AQ309" s="1" t="s">
         <v>1</v>
       </c>
@@ -39152,6 +39876,7 @@
       <c r="AL310" s="1"/>
       <c r="AN310" s="2"/>
       <c r="AO310" s="1"/>
+      <c r="AP310"/>
       <c r="AQ310" s="1" t="s">
         <v>1</v>
       </c>
@@ -39252,6 +39977,7 @@
       </c>
       <c r="AN311" s="2"/>
       <c r="AO311" s="1"/>
+      <c r="AP311"/>
       <c r="AQ311" s="1" t="s">
         <v>1</v>
       </c>
@@ -39342,6 +40068,7 @@
       <c r="AL312" s="1"/>
       <c r="AN312" s="2"/>
       <c r="AO312" s="1"/>
+      <c r="AP312"/>
       <c r="AQ312" s="1" t="s">
         <v>1</v>
       </c>
@@ -39444,6 +40171,7 @@
       <c r="AL313" s="1"/>
       <c r="AN313" s="2"/>
       <c r="AO313" s="1"/>
+      <c r="AP313"/>
       <c r="AQ313" s="1" t="s">
         <v>1</v>
       </c>
@@ -39543,6 +40271,7 @@
         <v>28</v>
       </c>
       <c r="AO314" s="1"/>
+      <c r="AP314"/>
       <c r="AQ314" s="1" t="s">
         <v>1</v>
       </c>
@@ -39640,6 +40369,7 @@
         <v>28</v>
       </c>
       <c r="AO315" s="1"/>
+      <c r="AP315"/>
       <c r="AQ315" s="1" t="s">
         <v>1</v>
       </c>
@@ -39733,6 +40463,7 @@
       <c r="AL316" s="1"/>
       <c r="AN316" s="2"/>
       <c r="AO316" s="1"/>
+      <c r="AP316"/>
       <c r="AQ316" s="1" t="s">
         <v>1</v>
       </c>
@@ -39827,6 +40558,7 @@
       <c r="AL317" s="1"/>
       <c r="AN317" s="2"/>
       <c r="AO317" s="1"/>
+      <c r="AP317"/>
       <c r="AQ317" s="1" t="s">
         <v>1</v>
       </c>
@@ -39924,6 +40656,7 @@
       <c r="AL318" s="1"/>
       <c r="AN318" s="2"/>
       <c r="AO318" s="1"/>
+      <c r="AP318"/>
       <c r="AQ318" s="1" t="s">
         <v>1</v>
       </c>
@@ -40023,6 +40756,7 @@
         <v>531</v>
       </c>
       <c r="AO319" s="1"/>
+      <c r="AP319"/>
       <c r="AQ319" s="1" t="s">
         <v>1</v>
       </c>
@@ -40122,6 +40856,7 @@
         <v>28</v>
       </c>
       <c r="AO320" s="1"/>
+      <c r="AP320"/>
       <c r="AQ320" s="1" t="s">
         <v>1</v>
       </c>
@@ -40220,6 +40955,7 @@
       <c r="AL321" s="1"/>
       <c r="AN321" s="2"/>
       <c r="AO321" s="1"/>
+      <c r="AP321"/>
       <c r="AQ321" s="1" t="s">
         <v>1</v>
       </c>
@@ -40322,6 +41058,7 @@
       <c r="AL322" s="1"/>
       <c r="AN322" s="2"/>
       <c r="AO322" s="1"/>
+      <c r="AP322"/>
       <c r="AQ322" s="1" t="s">
         <v>1</v>
       </c>
@@ -40423,6 +41160,7 @@
       <c r="AL323" s="1"/>
       <c r="AN323" s="2"/>
       <c r="AO323" s="1"/>
+      <c r="AP323"/>
       <c r="AQ323" s="1" t="s">
         <v>1</v>
       </c>
@@ -40511,6 +41249,7 @@
       <c r="AL324" s="1"/>
       <c r="AN324" s="2"/>
       <c r="AO324" s="1"/>
+      <c r="AP324"/>
       <c r="AQ324" s="1" t="s">
         <v>1</v>
       </c>
@@ -40607,6 +41346,7 @@
       <c r="AL325" s="1"/>
       <c r="AN325" s="2"/>
       <c r="AO325" s="1"/>
+      <c r="AP325"/>
       <c r="AQ325" s="1" t="s">
         <v>1</v>
       </c>
@@ -40706,6 +41446,7 @@
       <c r="AL326" s="1"/>
       <c r="AN326" s="2"/>
       <c r="AO326" s="1"/>
+      <c r="AP326"/>
       <c r="AQ326" s="1" t="s">
         <v>1</v>
       </c>
@@ -40807,6 +41548,7 @@
         <v>28</v>
       </c>
       <c r="AO327" s="1"/>
+      <c r="AP327"/>
       <c r="AQ327" s="1" t="s">
         <v>1</v>
       </c>
@@ -40915,6 +41657,7 @@
         <v>28</v>
       </c>
       <c r="AO328" s="1"/>
+      <c r="AP328"/>
       <c r="AQ328" s="1" t="s">
         <v>1</v>
       </c>
@@ -41020,7 +41763,7 @@
       <c r="AL329" s="1"/>
       <c r="AN329" s="2"/>
       <c r="AO329" s="1"/>
-      <c r="AP329" s="14" t="s">
+      <c r="AP329" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="AQ329" s="1" t="s">
@@ -41123,6 +41866,7 @@
         <v>28</v>
       </c>
       <c r="AO330" s="1"/>
+      <c r="AP330"/>
       <c r="AQ330" s="1" t="s">
         <v>1</v>
       </c>
@@ -41217,6 +41961,7 @@
       </c>
       <c r="AN331" s="2"/>
       <c r="AO331" s="1"/>
+      <c r="AP331"/>
       <c r="AQ331" s="1" t="s">
         <v>1</v>
       </c>
@@ -41314,6 +42059,7 @@
       <c r="AL332" s="1"/>
       <c r="AN332" s="2"/>
       <c r="AO332" s="1"/>
+      <c r="AP332"/>
       <c r="AQ332" s="1" t="s">
         <v>1</v>
       </c>
@@ -41416,6 +42162,7 @@
       <c r="AL333" s="1"/>
       <c r="AN333" s="2"/>
       <c r="AO333" s="1"/>
+      <c r="AP333"/>
       <c r="AQ333" s="1" t="s">
         <v>1</v>
       </c>
@@ -41626,6 +42373,7 @@
         <v>443</v>
       </c>
       <c r="AO335" s="1"/>
+      <c r="AP335"/>
       <c r="AQ335" s="1" t="s">
         <v>1</v>
       </c>
@@ -41718,6 +42466,7 @@
       <c r="AL336" s="1"/>
       <c r="AN336" s="2"/>
       <c r="AO336" s="1"/>
+      <c r="AP336"/>
       <c r="AQ336" s="1" t="s">
         <v>1</v>
       </c>
@@ -41825,6 +42574,7 @@
       <c r="AL337" s="1"/>
       <c r="AN337" s="2"/>
       <c r="AO337" s="1"/>
+      <c r="AP337"/>
       <c r="AQ337" s="1" t="s">
         <v>1</v>
       </c>
@@ -41914,6 +42664,7 @@
       <c r="AL338" s="1"/>
       <c r="AN338" s="2"/>
       <c r="AO338" s="1"/>
+      <c r="AP338"/>
       <c r="AQ338" s="1" t="s">
         <v>1</v>
       </c>
@@ -42009,6 +42760,7 @@
       <c r="AL339" s="1"/>
       <c r="AN339" s="2"/>
       <c r="AO339" s="1"/>
+      <c r="AP339"/>
       <c r="AQ339" s="1" t="s">
         <v>1</v>
       </c>
@@ -42212,6 +42964,7 @@
       <c r="AL341" s="1"/>
       <c r="AN341" s="2"/>
       <c r="AO341" s="1"/>
+      <c r="AP341"/>
       <c r="AQ341" s="1" t="s">
         <v>1</v>
       </c>
@@ -42306,6 +43059,7 @@
       <c r="AL342" s="1"/>
       <c r="AN342" s="2"/>
       <c r="AO342" s="1"/>
+      <c r="AP342"/>
       <c r="AQ342" s="1" t="s">
         <v>1</v>
       </c>
@@ -42400,6 +43154,7 @@
       <c r="AL343" s="1"/>
       <c r="AN343" s="2"/>
       <c r="AO343" s="1"/>
+      <c r="AP343"/>
       <c r="AQ343" s="1" t="s">
         <v>1</v>
       </c>
@@ -42501,6 +43256,7 @@
       </c>
       <c r="AN344" s="2"/>
       <c r="AO344" s="1"/>
+      <c r="AP344"/>
       <c r="AQ344" s="1" t="s">
         <v>1</v>
       </c>
@@ -42593,6 +43349,7 @@
       <c r="AL345" s="1"/>
       <c r="AN345" s="2"/>
       <c r="AO345" s="1"/>
+      <c r="AP345"/>
       <c r="AQ345" s="1" t="s">
         <v>1</v>
       </c>
@@ -42689,6 +43446,7 @@
       <c r="AL346" s="1"/>
       <c r="AN346" s="2"/>
       <c r="AO346" s="1"/>
+      <c r="AP346"/>
       <c r="AQ346" s="1" t="s">
         <v>1</v>
       </c>
@@ -42785,6 +43543,7 @@
       <c r="AL347" s="1"/>
       <c r="AN347" s="2"/>
       <c r="AO347" s="1"/>
+      <c r="AP347"/>
       <c r="AQ347" s="1" t="s">
         <v>1</v>
       </c>
@@ -42895,6 +43654,7 @@
         <v>28</v>
       </c>
       <c r="AO348" s="1"/>
+      <c r="AP348"/>
       <c r="AQ348" s="1" t="s">
         <v>1</v>
       </c>
@@ -42988,6 +43748,7 @@
       <c r="AL349" s="1"/>
       <c r="AN349" s="2"/>
       <c r="AO349" s="1"/>
+      <c r="AP349"/>
       <c r="AQ349" s="1" t="s">
         <v>1</v>
       </c>
@@ -43080,6 +43841,7 @@
       <c r="AL350" s="1"/>
       <c r="AN350" s="2"/>
       <c r="AO350" s="1"/>
+      <c r="AP350"/>
       <c r="AQ350" s="1" t="s">
         <v>1</v>
       </c>
@@ -43170,6 +43932,7 @@
       <c r="AL351" s="1"/>
       <c r="AN351" s="2"/>
       <c r="AO351" s="1"/>
+      <c r="AP351"/>
       <c r="AQ351" s="1" t="s">
         <v>1</v>
       </c>
@@ -43260,6 +44023,7 @@
       <c r="AL352" s="1"/>
       <c r="AN352" s="2"/>
       <c r="AO352" s="1"/>
+      <c r="AP352"/>
       <c r="AQ352" s="1" t="s">
         <v>1</v>
       </c>
@@ -43363,6 +44127,7 @@
         <v>1555</v>
       </c>
       <c r="AO353" s="1"/>
+      <c r="AP353"/>
       <c r="AQ353" s="1" t="s">
         <v>1</v>
       </c>
@@ -43462,6 +44227,7 @@
         <v>28</v>
       </c>
       <c r="AO354" s="1"/>
+      <c r="AP354"/>
       <c r="AQ354" s="1" t="s">
         <v>1</v>
       </c>
@@ -43551,6 +44317,7 @@
       <c r="AL355" s="1"/>
       <c r="AN355" s="2"/>
       <c r="AO355" s="1"/>
+      <c r="AP355"/>
       <c r="AQ355" s="1" t="s">
         <v>1</v>
       </c>
@@ -43641,6 +44408,7 @@
       <c r="AL356" s="1"/>
       <c r="AN356" s="2"/>
       <c r="AO356" s="1"/>
+      <c r="AP356"/>
       <c r="AQ356" s="1" t="s">
         <v>1</v>
       </c>
@@ -43735,6 +44503,7 @@
       <c r="AL357" s="1"/>
       <c r="AN357" s="2"/>
       <c r="AO357" s="1"/>
+      <c r="AP357"/>
       <c r="AQ357" s="1" t="s">
         <v>1</v>
       </c>
@@ -43829,6 +44598,7 @@
       <c r="AL358" s="1"/>
       <c r="AN358" s="2"/>
       <c r="AO358" s="1"/>
+      <c r="AP358"/>
       <c r="AQ358" s="1" t="s">
         <v>1</v>
       </c>
@@ -43923,6 +44693,7 @@
       <c r="AL359" s="1"/>
       <c r="AN359" s="2"/>
       <c r="AO359" s="1"/>
+      <c r="AP359"/>
       <c r="AQ359" s="1" t="s">
         <v>1</v>
       </c>
@@ -44034,6 +44805,7 @@
       <c r="AL360" s="1"/>
       <c r="AN360" s="2"/>
       <c r="AO360" s="1"/>
+      <c r="AP360"/>
       <c r="AQ360" s="1" t="s">
         <v>1</v>
       </c>
@@ -44121,6 +44893,7 @@
       <c r="AL361" s="1"/>
       <c r="AN361" s="2"/>
       <c r="AO361" s="1"/>
+      <c r="AP361"/>
       <c r="AQ361" s="1" t="s">
         <v>1</v>
       </c>
@@ -44216,6 +44989,7 @@
       <c r="AL362" s="1"/>
       <c r="AN362" s="2"/>
       <c r="AO362" s="1"/>
+      <c r="AP362"/>
       <c r="AQ362" s="1" t="s">
         <v>1</v>
       </c>
@@ -44317,6 +45091,7 @@
         <v>1530</v>
       </c>
       <c r="AO363" s="1"/>
+      <c r="AP363"/>
       <c r="AQ363" s="1" t="s">
         <v>1</v>
       </c>
@@ -44411,6 +45186,7 @@
       <c r="AL364" s="1"/>
       <c r="AN364" s="2"/>
       <c r="AO364" s="1"/>
+      <c r="AP364"/>
       <c r="AQ364" s="1" t="s">
         <v>1</v>
       </c>
@@ -44498,6 +45274,7 @@
       <c r="AL365" s="1"/>
       <c r="AN365" s="2"/>
       <c r="AO365" s="1"/>
+      <c r="AP365"/>
       <c r="AQ365" s="1" t="s">
         <v>1</v>
       </c>
@@ -44580,6 +45357,7 @@
       <c r="AL366" s="1"/>
       <c r="AN366" s="2"/>
       <c r="AO366" s="1"/>
+      <c r="AP366"/>
       <c r="AQ366" s="1" t="s">
         <v>1</v>
       </c>
@@ -44667,6 +45445,7 @@
       <c r="AL367" s="1"/>
       <c r="AN367" s="2"/>
       <c r="AO367" s="1"/>
+      <c r="AP367"/>
       <c r="AQ367" s="1" t="s">
         <v>1</v>
       </c>
@@ -44759,6 +45538,7 @@
       <c r="AL368" s="1"/>
       <c r="AN368" s="2"/>
       <c r="AO368" s="1"/>
+      <c r="AP368"/>
       <c r="AQ368" s="1" t="s">
         <v>1</v>
       </c>
@@ -44847,6 +45627,7 @@
       <c r="AL369" s="1"/>
       <c r="AN369" s="2"/>
       <c r="AO369" s="1"/>
+      <c r="AP369"/>
       <c r="AQ369" s="1" t="s">
         <v>1</v>
       </c>
@@ -44939,6 +45720,7 @@
       <c r="AL370" s="1"/>
       <c r="AN370" s="2"/>
       <c r="AO370" s="1"/>
+      <c r="AP370"/>
       <c r="AQ370" s="1" t="s">
         <v>1</v>
       </c>
@@ -45034,6 +45816,7 @@
       <c r="AL371" s="1"/>
       <c r="AN371" s="2"/>
       <c r="AO371" s="1"/>
+      <c r="AP371"/>
       <c r="AQ371" s="1" t="s">
         <v>1</v>
       </c>
@@ -45131,6 +45914,7 @@
       <c r="AL372" s="1"/>
       <c r="AN372" s="2"/>
       <c r="AO372" s="1"/>
+      <c r="AP372"/>
       <c r="AQ372" s="1" t="s">
         <v>1</v>
       </c>
@@ -45213,6 +45997,7 @@
       <c r="AL373" s="1"/>
       <c r="AN373" s="2"/>
       <c r="AO373" s="1"/>
+      <c r="AP373"/>
       <c r="AQ373" s="1" t="s">
         <v>1</v>
       </c>
@@ -45300,6 +46085,7 @@
       <c r="AL374" s="1"/>
       <c r="AN374" s="2"/>
       <c r="AO374" s="1"/>
+      <c r="AP374"/>
       <c r="AQ374" s="1" t="s">
         <v>1</v>
       </c>
@@ -45387,6 +46173,7 @@
       <c r="AL375" s="1"/>
       <c r="AN375" s="2"/>
       <c r="AO375" s="1"/>
+      <c r="AP375"/>
       <c r="AQ375" s="1" t="s">
         <v>1</v>
       </c>
@@ -45480,6 +46267,7 @@
       <c r="AL376" s="1"/>
       <c r="AN376" s="2"/>
       <c r="AO376" s="1"/>
+      <c r="AP376"/>
       <c r="AQ376" s="1" t="s">
         <v>1</v>
       </c>
@@ -45573,6 +46361,7 @@
       <c r="AL377" s="1"/>
       <c r="AN377" s="2"/>
       <c r="AO377" s="1"/>
+      <c r="AP377"/>
       <c r="AQ377" s="1" t="s">
         <v>1</v>
       </c>
@@ -45668,6 +46457,7 @@
       <c r="AL378" s="1"/>
       <c r="AN378" s="2"/>
       <c r="AO378" s="1"/>
+      <c r="AP378"/>
       <c r="AQ378" s="1" t="s">
         <v>1</v>
       </c>
@@ -45767,6 +46557,7 @@
         <v>28</v>
       </c>
       <c r="AO379" s="1"/>
+      <c r="AP379"/>
       <c r="AQ379" s="1" t="s">
         <v>1</v>
       </c>
@@ -45859,6 +46650,7 @@
       <c r="AL380" s="1"/>
       <c r="AN380" s="2"/>
       <c r="AO380" s="1"/>
+      <c r="AP380"/>
       <c r="AQ380" s="1" t="s">
         <v>1</v>
       </c>
@@ -45951,6 +46743,7 @@
       <c r="AL381" s="1"/>
       <c r="AN381" s="2"/>
       <c r="AO381" s="1"/>
+      <c r="AP381"/>
       <c r="AQ381" s="1" t="s">
         <v>1</v>
       </c>
@@ -46046,6 +46839,7 @@
       <c r="AL382" s="1"/>
       <c r="AN382" s="2"/>
       <c r="AO382" s="1"/>
+      <c r="AP382"/>
       <c r="AQ382" s="1" t="s">
         <v>1</v>
       </c>
@@ -46149,6 +46943,7 @@
         <v>1491</v>
       </c>
       <c r="AO383" s="1"/>
+      <c r="AP383"/>
       <c r="AQ383" s="1" t="s">
         <v>1</v>
       </c>
@@ -46248,6 +47043,7 @@
       <c r="AL384" s="1"/>
       <c r="AN384" s="2"/>
       <c r="AO384" s="1"/>
+      <c r="AP384"/>
       <c r="AQ384" s="1" t="s">
         <v>1</v>
       </c>
@@ -46343,6 +47139,7 @@
       <c r="AL385" s="1"/>
       <c r="AN385" s="2"/>
       <c r="AO385" s="1"/>
+      <c r="AP385"/>
       <c r="AQ385" s="1" t="s">
         <v>1</v>
       </c>
@@ -46444,6 +47241,7 @@
         <v>28</v>
       </c>
       <c r="AO386" s="1"/>
+      <c r="AP386"/>
       <c r="AQ386" s="1" t="s">
         <v>1</v>
       </c>
@@ -46536,6 +47334,7 @@
       <c r="AL387" s="1"/>
       <c r="AN387" s="2"/>
       <c r="AO387" s="1"/>
+      <c r="AP387"/>
       <c r="AQ387" s="1" t="s">
         <v>1</v>
       </c>
@@ -46633,6 +47432,7 @@
         <v>28</v>
       </c>
       <c r="AO388" s="1"/>
+      <c r="AP388"/>
       <c r="AQ388" s="1" t="s">
         <v>1</v>
       </c>
@@ -46727,6 +47527,7 @@
       <c r="AL389" s="1"/>
       <c r="AN389" s="2"/>
       <c r="AO389" s="1"/>
+      <c r="AP389"/>
       <c r="AQ389" s="1" t="s">
         <v>1</v>
       </c>
@@ -46831,6 +47632,7 @@
         <v>28</v>
       </c>
       <c r="AO390" s="1"/>
+      <c r="AP390"/>
       <c r="AQ390" s="1" t="s">
         <v>1</v>
       </c>
@@ -46930,6 +47732,7 @@
       </c>
       <c r="AN391" s="2"/>
       <c r="AO391" s="1"/>
+      <c r="AP391"/>
       <c r="AQ391" s="1" t="s">
         <v>1</v>
       </c>
@@ -47025,6 +47828,7 @@
       <c r="AL392" s="1"/>
       <c r="AN392" s="2"/>
       <c r="AO392" s="1"/>
+      <c r="AP392"/>
       <c r="AQ392" s="1" t="s">
         <v>1</v>
       </c>
@@ -47112,6 +47916,7 @@
       <c r="AL393" s="1"/>
       <c r="AN393" s="2"/>
       <c r="AO393" s="1"/>
+      <c r="AP393"/>
       <c r="AQ393" s="1" t="s">
         <v>1</v>
       </c>
@@ -47204,6 +48009,7 @@
       <c r="AL394" s="1"/>
       <c r="AN394" s="2"/>
       <c r="AO394" s="1"/>
+      <c r="AP394"/>
       <c r="AQ394" s="1" t="s">
         <v>1</v>
       </c>
@@ -47296,6 +48102,7 @@
       <c r="AL395" s="1"/>
       <c r="AN395" s="2"/>
       <c r="AO395" s="1"/>
+      <c r="AP395"/>
       <c r="AQ395" s="1" t="s">
         <v>1</v>
       </c>
@@ -47380,6 +48187,7 @@
       <c r="AL396" s="1"/>
       <c r="AN396" s="2"/>
       <c r="AO396" s="1"/>
+      <c r="AP396"/>
       <c r="AQ396" s="1" t="s">
         <v>1</v>
       </c>
@@ -47473,6 +48281,7 @@
       <c r="AL397" s="1"/>
       <c r="AN397" s="2"/>
       <c r="AO397" s="1"/>
+      <c r="AP397"/>
       <c r="AQ397" s="1" t="s">
         <v>1</v>
       </c>
@@ -47568,6 +48377,7 @@
       <c r="AL398" s="1"/>
       <c r="AN398" s="2"/>
       <c r="AO398" s="1"/>
+      <c r="AP398"/>
       <c r="AQ398" s="1" t="s">
         <v>1</v>
       </c>
@@ -47667,6 +48477,7 @@
       </c>
       <c r="AN399" s="2"/>
       <c r="AO399" s="1"/>
+      <c r="AP399"/>
       <c r="AQ399" s="1" t="s">
         <v>1</v>
       </c>
@@ -47759,6 +48570,7 @@
       <c r="AL400" s="1"/>
       <c r="AN400" s="2"/>
       <c r="AO400" s="1"/>
+      <c r="AP400"/>
       <c r="AQ400" s="1" t="s">
         <v>1</v>
       </c>
@@ -47858,6 +48670,7 @@
       </c>
       <c r="AN401" s="2"/>
       <c r="AO401" s="1"/>
+      <c r="AP401"/>
       <c r="AQ401" s="1" t="s">
         <v>1</v>
       </c>
@@ -47950,6 +48763,7 @@
       <c r="AL402" s="1"/>
       <c r="AN402" s="2"/>
       <c r="AO402" s="1"/>
+      <c r="AP402"/>
       <c r="AQ402" s="1" t="s">
         <v>1</v>
       </c>
@@ -48049,6 +48863,7 @@
       </c>
       <c r="AN403" s="2"/>
       <c r="AO403" s="1"/>
+      <c r="AP403"/>
       <c r="AQ403" s="1" t="s">
         <v>1</v>
       </c>
@@ -48141,6 +48956,7 @@
       <c r="AL404" s="1"/>
       <c r="AN404" s="2"/>
       <c r="AO404" s="1"/>
+      <c r="AP404"/>
       <c r="AQ404" s="1" t="s">
         <v>1</v>
       </c>
@@ -48240,6 +49056,7 @@
       </c>
       <c r="AN405" s="2"/>
       <c r="AO405" s="1"/>
+      <c r="AP405"/>
       <c r="AQ405" s="1" t="s">
         <v>1</v>
       </c>
@@ -48332,6 +49149,7 @@
       <c r="AL406" s="1"/>
       <c r="AN406" s="2"/>
       <c r="AO406" s="1"/>
+      <c r="AP406"/>
       <c r="AQ406" s="1" t="s">
         <v>1</v>
       </c>
@@ -48431,6 +49249,7 @@
       </c>
       <c r="AN407" s="2"/>
       <c r="AO407" s="1"/>
+      <c r="AP407"/>
       <c r="AQ407" s="1" t="s">
         <v>1</v>
       </c>
@@ -48530,6 +49349,7 @@
       </c>
       <c r="AN408" s="2"/>
       <c r="AO408" s="1"/>
+      <c r="AP408"/>
       <c r="AQ408" s="1" t="s">
         <v>1</v>
       </c>
@@ -48622,6 +49442,7 @@
       <c r="AL409" s="1"/>
       <c r="AN409" s="2"/>
       <c r="AO409" s="1"/>
+      <c r="AP409"/>
       <c r="AQ409" s="1" t="s">
         <v>1</v>
       </c>
@@ -48721,6 +49542,7 @@
       </c>
       <c r="AN410" s="2"/>
       <c r="AO410" s="1"/>
+      <c r="AP410"/>
       <c r="AQ410" s="1" t="s">
         <v>1</v>
       </c>
@@ -48813,6 +49635,7 @@
       <c r="AL411" s="1"/>
       <c r="AN411" s="2"/>
       <c r="AO411" s="1"/>
+      <c r="AP411"/>
       <c r="AQ411" s="1" t="s">
         <v>1</v>
       </c>
@@ -48912,6 +49735,7 @@
       </c>
       <c r="AN412" s="2"/>
       <c r="AO412" s="1"/>
+      <c r="AP412"/>
       <c r="AQ412" s="1" t="s">
         <v>1</v>
       </c>
@@ -49004,6 +49828,7 @@
       <c r="AL413" s="1"/>
       <c r="AN413" s="2"/>
       <c r="AO413" s="1"/>
+      <c r="AP413"/>
       <c r="AQ413" s="1" t="s">
         <v>1</v>
       </c>
@@ -49103,6 +49928,7 @@
       </c>
       <c r="AN414" s="2"/>
       <c r="AO414" s="1"/>
+      <c r="AP414"/>
       <c r="AQ414" s="1" t="s">
         <v>1</v>
       </c>
@@ -49195,6 +50021,7 @@
       <c r="AL415" s="1"/>
       <c r="AN415" s="2"/>
       <c r="AO415" s="1"/>
+      <c r="AP415"/>
       <c r="AQ415" s="1" t="s">
         <v>1</v>
       </c>
@@ -49288,6 +50115,7 @@
       <c r="AL416" s="1"/>
       <c r="AN416" s="2"/>
       <c r="AO416" s="1"/>
+      <c r="AP416"/>
       <c r="AQ416" s="1" t="s">
         <v>1</v>
       </c>
@@ -49379,6 +50207,7 @@
       <c r="AL417" s="1"/>
       <c r="AN417" s="2"/>
       <c r="AO417" s="1"/>
+      <c r="AP417"/>
       <c r="AQ417" s="1" t="s">
         <v>1</v>
       </c>
@@ -49472,6 +50301,7 @@
       <c r="AL418" s="1"/>
       <c r="AN418" s="2"/>
       <c r="AO418" s="1"/>
+      <c r="AP418"/>
       <c r="AQ418" s="1" t="s">
         <v>1</v>
       </c>
@@ -49571,6 +50401,7 @@
       </c>
       <c r="AN419" s="2"/>
       <c r="AO419" s="1"/>
+      <c r="AP419"/>
       <c r="AQ419" s="1" t="s">
         <v>1</v>
       </c>
@@ -49663,6 +50494,7 @@
       <c r="AL420" s="1"/>
       <c r="AN420" s="2"/>
       <c r="AO420" s="1"/>
+      <c r="AP420"/>
       <c r="AQ420" s="1" t="s">
         <v>1</v>
       </c>
@@ -49762,6 +50594,7 @@
       </c>
       <c r="AN421" s="2"/>
       <c r="AO421" s="1"/>
+      <c r="AP421"/>
       <c r="AQ421" s="1" t="s">
         <v>1</v>
       </c>
@@ -49854,6 +50687,7 @@
       <c r="AL422" s="1"/>
       <c r="AN422" s="2"/>
       <c r="AO422" s="1"/>
+      <c r="AP422"/>
       <c r="AQ422" s="1" t="s">
         <v>1</v>
       </c>
@@ -49950,6 +50784,7 @@
       <c r="AL423" s="1"/>
       <c r="AN423" s="2"/>
       <c r="AO423" s="1"/>
+      <c r="AP423"/>
       <c r="AQ423" s="1" t="s">
         <v>1</v>
       </c>
@@ -50048,7 +50883,7 @@
         <v>1420</v>
       </c>
       <c r="AO424" s="1"/>
-      <c r="AP424" s="14" t="s">
+      <c r="AP424" s="15" t="s">
         <v>2638</v>
       </c>
       <c r="AQ424" s="1" t="s">
@@ -50154,6 +50989,7 @@
         <v>28</v>
       </c>
       <c r="AO425" s="1"/>
+      <c r="AP425"/>
       <c r="AQ425" s="1" t="s">
         <v>1</v>
       </c>
@@ -50251,6 +51087,7 @@
       <c r="AL426" s="1"/>
       <c r="AN426" s="2"/>
       <c r="AO426" s="1"/>
+      <c r="AP426"/>
       <c r="AQ426" s="1" t="s">
         <v>1</v>
       </c>
@@ -50352,6 +51189,7 @@
         <v>28</v>
       </c>
       <c r="AO427" s="1"/>
+      <c r="AP427"/>
       <c r="AQ427" s="1" t="s">
         <v>1</v>
       </c>
@@ -50455,6 +51293,7 @@
         <v>28</v>
       </c>
       <c r="AO428" s="1"/>
+      <c r="AP428"/>
       <c r="AQ428" s="1" t="s">
         <v>1</v>
       </c>
@@ -50548,6 +51387,7 @@
       <c r="AL429" s="1"/>
       <c r="AN429" s="2"/>
       <c r="AO429" s="1"/>
+      <c r="AP429"/>
       <c r="AQ429" s="1" t="s">
         <v>1</v>
       </c>
@@ -50647,6 +51487,7 @@
       <c r="AL430" s="1"/>
       <c r="AN430" s="2"/>
       <c r="AO430" s="1"/>
+      <c r="AP430"/>
       <c r="AQ430" s="1" t="s">
         <v>1</v>
       </c>
@@ -50739,6 +51580,7 @@
       <c r="AL431" s="1"/>
       <c r="AN431" s="2"/>
       <c r="AO431" s="1"/>
+      <c r="AP431"/>
       <c r="AQ431" s="1" t="s">
         <v>1</v>
       </c>
@@ -50829,6 +51671,7 @@
       <c r="AL432" s="1"/>
       <c r="AN432" s="2"/>
       <c r="AO432" s="1"/>
+      <c r="AP432"/>
       <c r="AQ432" s="1" t="s">
         <v>1</v>
       </c>
@@ -50926,6 +51769,7 @@
       <c r="AL433" s="1"/>
       <c r="AN433" s="2"/>
       <c r="AO433" s="1"/>
+      <c r="AP433"/>
       <c r="AQ433" s="1" t="s">
         <v>1</v>
       </c>
@@ -51027,6 +51871,7 @@
         <v>28</v>
       </c>
       <c r="AO434" s="1"/>
+      <c r="AP434"/>
       <c r="AQ434" s="1" t="s">
         <v>1</v>
       </c>
@@ -51128,6 +51973,7 @@
         <v>28</v>
       </c>
       <c r="AO435" s="1"/>
+      <c r="AP435"/>
       <c r="AQ435" s="1" t="s">
         <v>1</v>
       </c>
@@ -51225,6 +52071,7 @@
         <v>28</v>
       </c>
       <c r="AO436" s="1"/>
+      <c r="AP436"/>
       <c r="AQ436" s="1" t="s">
         <v>1</v>
       </c>
@@ -51324,7 +52171,7 @@
       </c>
       <c r="AN437" s="2"/>
       <c r="AO437" s="1"/>
-      <c r="AP437" s="14" t="s">
+      <c r="AP437" s="15" t="s">
         <v>1381</v>
       </c>
       <c r="AQ437" s="1" t="s">
@@ -51421,6 +52268,7 @@
       <c r="AL438" s="1"/>
       <c r="AN438" s="2"/>
       <c r="AO438" s="1"/>
+      <c r="AP438"/>
       <c r="AQ438" s="1" t="s">
         <v>1</v>
       </c>
@@ -51524,6 +52372,7 @@
         <v>28</v>
       </c>
       <c r="AO439" s="1"/>
+      <c r="AP439"/>
       <c r="AQ439" s="1" t="s">
         <v>1</v>
       </c>
@@ -51623,6 +52472,7 @@
       <c r="AL440" s="1"/>
       <c r="AN440" s="2"/>
       <c r="AO440" s="1"/>
+      <c r="AP440"/>
       <c r="AQ440" s="1" t="s">
         <v>1</v>
       </c>
@@ -51717,6 +52567,7 @@
       <c r="AL441" s="1"/>
       <c r="AN441" s="2"/>
       <c r="AO441" s="1"/>
+      <c r="AP441"/>
       <c r="AQ441" s="1" t="s">
         <v>1</v>
       </c>
@@ -51804,6 +52655,7 @@
       <c r="AL442" s="1"/>
       <c r="AN442" s="2"/>
       <c r="AO442" s="1"/>
+      <c r="AP442"/>
       <c r="AQ442" s="1" t="s">
         <v>1</v>
       </c>
@@ -52002,6 +52854,7 @@
         <v>28</v>
       </c>
       <c r="AO444" s="1"/>
+      <c r="AP444"/>
       <c r="AQ444" s="1" t="s">
         <v>1</v>
       </c>
@@ -52196,6 +53049,7 @@
       <c r="AL446" s="1"/>
       <c r="AN446" s="2"/>
       <c r="AO446" s="1"/>
+      <c r="AP446"/>
       <c r="AQ446" s="1" t="s">
         <v>1</v>
       </c>
@@ -52295,6 +53149,7 @@
       <c r="AL447" s="1"/>
       <c r="AN447" s="2"/>
       <c r="AO447" s="1"/>
+      <c r="AP447"/>
       <c r="AQ447" s="1" t="s">
         <v>1</v>
       </c>
@@ -52402,6 +53257,7 @@
       <c r="AL448" s="1"/>
       <c r="AN448" s="2"/>
       <c r="AO448" s="1"/>
+      <c r="AP448"/>
       <c r="AQ448" s="1" t="s">
         <v>1</v>
       </c>
@@ -52489,6 +53345,7 @@
       <c r="AL449" s="1"/>
       <c r="AN449" s="2"/>
       <c r="AO449" s="1"/>
+      <c r="AP449"/>
       <c r="AQ449" s="1" t="s">
         <v>1</v>
       </c>
@@ -52582,6 +53439,7 @@
       <c r="AL450" s="1"/>
       <c r="AN450" s="2"/>
       <c r="AO450" s="1"/>
+      <c r="AP450"/>
       <c r="AQ450" s="1" t="s">
         <v>1</v>
       </c>
@@ -52671,6 +53529,7 @@
       <c r="AL451" s="1"/>
       <c r="AN451" s="2"/>
       <c r="AO451" s="1"/>
+      <c r="AP451"/>
       <c r="AQ451" s="1" t="s">
         <v>1</v>
       </c>
@@ -52763,6 +53622,7 @@
       <c r="AL452" s="1"/>
       <c r="AN452" s="2"/>
       <c r="AO452" s="1"/>
+      <c r="AP452"/>
       <c r="AQ452" s="1" t="s">
         <v>1</v>
       </c>
@@ -52860,6 +53720,7 @@
         <v>1342</v>
       </c>
       <c r="AO453" s="1"/>
+      <c r="AP453"/>
       <c r="AQ453" s="1" t="s">
         <v>1</v>
       </c>
@@ -52957,6 +53818,7 @@
       <c r="AL454" s="1"/>
       <c r="AN454" s="2"/>
       <c r="AO454" s="1"/>
+      <c r="AP454"/>
       <c r="AQ454" s="1" t="s">
         <v>1</v>
       </c>
@@ -53060,6 +53922,7 @@
       <c r="AL455" s="1"/>
       <c r="AN455" s="2"/>
       <c r="AO455" s="1"/>
+      <c r="AP455"/>
       <c r="AQ455" s="1" t="s">
         <v>1</v>
       </c>
@@ -53150,6 +54013,7 @@
       <c r="AL456" s="1"/>
       <c r="AN456" s="2"/>
       <c r="AO456" s="1"/>
+      <c r="AP456"/>
       <c r="AQ456" s="1" t="s">
         <v>1</v>
       </c>
@@ -53253,6 +54117,7 @@
         <v>1271</v>
       </c>
       <c r="AO457" s="1"/>
+      <c r="AP457"/>
       <c r="AQ457" s="1" t="s">
         <v>1</v>
       </c>
@@ -53348,6 +54213,7 @@
       <c r="AL458" s="1"/>
       <c r="AN458" s="2"/>
       <c r="AO458" s="1"/>
+      <c r="AP458"/>
       <c r="AQ458" s="1" t="s">
         <v>1</v>
       </c>
@@ -53445,6 +54311,7 @@
       <c r="AL459" s="1"/>
       <c r="AN459" s="2"/>
       <c r="AO459" s="1"/>
+      <c r="AP459"/>
       <c r="AQ459" s="1" t="s">
         <v>1</v>
       </c>
@@ -53538,6 +54405,7 @@
       <c r="AL460" s="1"/>
       <c r="AN460" s="2"/>
       <c r="AO460" s="1"/>
+      <c r="AP460"/>
       <c r="AQ460" s="1" t="s">
         <v>1</v>
       </c>
@@ -53635,6 +54503,7 @@
       </c>
       <c r="AN461" s="2"/>
       <c r="AO461" s="1"/>
+      <c r="AP461"/>
       <c r="AQ461" s="1" t="s">
         <v>1</v>
       </c>
@@ -53729,6 +54598,7 @@
       <c r="AL462" s="1"/>
       <c r="AN462" s="2"/>
       <c r="AO462" s="1"/>
+      <c r="AP462"/>
       <c r="AQ462" s="1" t="s">
         <v>1</v>
       </c>
@@ -53844,6 +54714,7 @@
         <v>1307</v>
       </c>
       <c r="AO463" s="1"/>
+      <c r="AP463"/>
       <c r="AQ463" s="1" t="s">
         <v>1</v>
       </c>
@@ -53937,6 +54808,7 @@
       <c r="AL464" s="1"/>
       <c r="AN464" s="2"/>
       <c r="AO464" s="1"/>
+      <c r="AP464"/>
       <c r="AQ464" s="1" t="s">
         <v>1</v>
       </c>
@@ -54036,6 +54908,7 @@
         <v>28</v>
       </c>
       <c r="AO465" s="1"/>
+      <c r="AP465"/>
       <c r="AQ465" s="1" t="s">
         <v>1</v>
       </c>
@@ -54132,6 +55005,7 @@
       <c r="AO466" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="AP466"/>
       <c r="AQ466" s="1" t="s">
         <v>1</v>
       </c>
@@ -54226,6 +55100,7 @@
       <c r="AL467" s="1"/>
       <c r="AN467" s="2"/>
       <c r="AO467" s="1"/>
+      <c r="AP467"/>
       <c r="AQ467" s="1" t="s">
         <v>1</v>
       </c>
@@ -54319,6 +55194,7 @@
       </c>
       <c r="AN468" s="2"/>
       <c r="AO468" s="1"/>
+      <c r="AP468"/>
       <c r="AQ468" s="1" t="s">
         <v>1</v>
       </c>
@@ -54415,6 +55291,7 @@
       <c r="AL469" s="1"/>
       <c r="AN469" s="2"/>
       <c r="AO469" s="1"/>
+      <c r="AP469"/>
       <c r="AQ469" s="1" t="s">
         <v>1</v>
       </c>
@@ -54507,6 +55384,7 @@
       <c r="AL470" s="1"/>
       <c r="AN470" s="2"/>
       <c r="AO470" s="1"/>
+      <c r="AP470"/>
       <c r="AQ470" s="1" t="s">
         <v>1</v>
       </c>
@@ -54606,6 +55484,7 @@
       </c>
       <c r="AN471" s="2"/>
       <c r="AO471" s="1"/>
+      <c r="AP471"/>
       <c r="AQ471" s="1" t="s">
         <v>1</v>
       </c>
@@ -54702,6 +55581,7 @@
       <c r="AL472" s="1"/>
       <c r="AN472" s="2"/>
       <c r="AO472" s="1"/>
+      <c r="AP472"/>
       <c r="AQ472" s="1" t="s">
         <v>1</v>
       </c>
@@ -54796,6 +55676,7 @@
       <c r="AL473" s="1"/>
       <c r="AN473" s="2"/>
       <c r="AO473" s="1"/>
+      <c r="AP473"/>
       <c r="AQ473" s="1" t="s">
         <v>1</v>
       </c>
@@ -54886,6 +55767,7 @@
       <c r="AL474" s="1"/>
       <c r="AN474" s="2"/>
       <c r="AO474" s="1"/>
+      <c r="AP474"/>
       <c r="AQ474" s="1" t="s">
         <v>1</v>
       </c>
@@ -54980,6 +55862,7 @@
       <c r="AL475" s="1"/>
       <c r="AN475" s="2"/>
       <c r="AO475" s="1"/>
+      <c r="AP475"/>
       <c r="AQ475" s="1" t="s">
         <v>1</v>
       </c>
@@ -55075,6 +55958,7 @@
       <c r="AL476" s="1"/>
       <c r="AN476" s="2"/>
       <c r="AO476" s="1"/>
+      <c r="AP476"/>
       <c r="AQ476" s="1" t="s">
         <v>1</v>
       </c>
@@ -55176,6 +56060,7 @@
       <c r="AL477" s="1"/>
       <c r="AN477" s="2"/>
       <c r="AO477" s="1"/>
+      <c r="AP477"/>
       <c r="AQ477" s="1" t="s">
         <v>1</v>
       </c>
@@ -55268,6 +56153,7 @@
       <c r="AL478" s="1"/>
       <c r="AN478" s="2"/>
       <c r="AO478" s="1"/>
+      <c r="AP478"/>
       <c r="AQ478" s="1" t="s">
         <v>1</v>
       </c>
@@ -55362,6 +56248,7 @@
       <c r="AL479" s="1"/>
       <c r="AN479" s="2"/>
       <c r="AO479" s="1"/>
+      <c r="AP479"/>
       <c r="AQ479" s="1" t="s">
         <v>1</v>
       </c>
@@ -55458,6 +56345,7 @@
       <c r="AL480" s="1"/>
       <c r="AN480" s="2"/>
       <c r="AO480" s="1"/>
+      <c r="AP480"/>
       <c r="AQ480" s="1" t="s">
         <v>1</v>
       </c>
@@ -55559,6 +56447,7 @@
         <v>1271</v>
       </c>
       <c r="AO481" s="1"/>
+      <c r="AP481"/>
       <c r="AQ481" s="1" t="s">
         <v>1</v>
       </c>
@@ -55662,6 +56551,7 @@
         <v>1266</v>
       </c>
       <c r="AO482" s="1"/>
+      <c r="AP482"/>
       <c r="AQ482" s="1" t="s">
         <v>1</v>
       </c>
@@ -55754,6 +56644,7 @@
       <c r="AL483" s="1"/>
       <c r="AN483" s="2"/>
       <c r="AO483" s="1"/>
+      <c r="AP483"/>
       <c r="AQ483" s="1" t="s">
         <v>1</v>
       </c>
@@ -55855,6 +56746,7 @@
         <v>28</v>
       </c>
       <c r="AO484" s="1"/>
+      <c r="AP484"/>
       <c r="AQ484" s="1" t="s">
         <v>1</v>
       </c>
@@ -55943,6 +56835,7 @@
       <c r="AL485" s="1"/>
       <c r="AN485" s="2"/>
       <c r="AO485" s="1"/>
+      <c r="AP485"/>
       <c r="AQ485" s="1" t="s">
         <v>1</v>
       </c>
@@ -56031,6 +56924,7 @@
       <c r="AL486" s="1"/>
       <c r="AN486" s="2"/>
       <c r="AO486" s="1"/>
+      <c r="AP486"/>
       <c r="AQ486" s="1" t="s">
         <v>1</v>
       </c>
@@ -56130,6 +57024,7 @@
       <c r="AL487" s="1"/>
       <c r="AN487" s="2"/>
       <c r="AO487" s="1"/>
+      <c r="AP487"/>
       <c r="AQ487" s="1" t="s">
         <v>1</v>
       </c>
@@ -56231,6 +57126,7 @@
         <v>28</v>
       </c>
       <c r="AO488" s="1"/>
+      <c r="AP488"/>
       <c r="AQ488" s="1" t="s">
         <v>1</v>
       </c>
@@ -56342,6 +57238,7 @@
       <c r="AL489" s="1"/>
       <c r="AN489" s="2"/>
       <c r="AO489" s="1"/>
+      <c r="AP489"/>
       <c r="AQ489" s="1" t="s">
         <v>1</v>
       </c>
@@ -56434,6 +57331,7 @@
       <c r="AL490" s="1"/>
       <c r="AN490" s="2"/>
       <c r="AO490" s="1"/>
+      <c r="AP490"/>
       <c r="AQ490" s="1" t="s">
         <v>1</v>
       </c>
@@ -56539,6 +57437,7 @@
       <c r="AL491" s="1"/>
       <c r="AN491" s="2"/>
       <c r="AO491" s="1"/>
+      <c r="AP491"/>
       <c r="AQ491" s="1" t="s">
         <v>1</v>
       </c>
@@ -56631,6 +57530,7 @@
       <c r="AL492" s="1"/>
       <c r="AN492" s="2"/>
       <c r="AO492" s="1"/>
+      <c r="AP492"/>
       <c r="AQ492" s="1" t="s">
         <v>1</v>
       </c>
@@ -56728,6 +57628,7 @@
       <c r="AL493" s="1"/>
       <c r="AN493" s="2"/>
       <c r="AO493" s="1"/>
+      <c r="AP493"/>
       <c r="AQ493" s="1" t="s">
         <v>1</v>
       </c>
@@ -56831,6 +57732,7 @@
       </c>
       <c r="AN494" s="2"/>
       <c r="AO494" s="1"/>
+      <c r="AP494"/>
       <c r="AQ494" s="1" t="s">
         <v>1</v>
       </c>
@@ -56930,6 +57832,7 @@
       <c r="AL495" s="1"/>
       <c r="AN495" s="2"/>
       <c r="AO495" s="1"/>
+      <c r="AP495"/>
       <c r="AQ495" s="1" t="s">
         <v>1</v>
       </c>
@@ -57027,6 +57930,7 @@
       </c>
       <c r="AN496" s="2"/>
       <c r="AO496" s="1"/>
+      <c r="AP496"/>
       <c r="AQ496" s="1" t="s">
         <v>1</v>
       </c>
@@ -57130,6 +58034,7 @@
       </c>
       <c r="AN497" s="2"/>
       <c r="AO497" s="1"/>
+      <c r="AP497"/>
       <c r="AQ497" s="1" t="s">
         <v>1</v>
       </c>
@@ -57224,6 +58129,7 @@
       <c r="AL498" s="1"/>
       <c r="AN498" s="2"/>
       <c r="AO498" s="1"/>
+      <c r="AP498"/>
       <c r="AQ498" s="1" t="s">
         <v>1</v>
       </c>
@@ -57325,6 +58231,7 @@
         <v>28</v>
       </c>
       <c r="AO499" s="1"/>
+      <c r="AP499"/>
       <c r="AQ499" s="1" t="s">
         <v>1</v>
       </c>
@@ -57426,6 +58333,7 @@
         <v>28</v>
       </c>
       <c r="AO500" s="1"/>
+      <c r="AP500"/>
       <c r="AQ500" s="1" t="s">
         <v>1</v>
       </c>
@@ -57521,6 +58429,7 @@
       <c r="AL501" s="1"/>
       <c r="AN501" s="2"/>
       <c r="AO501" s="1"/>
+      <c r="AP501"/>
       <c r="AQ501" s="1" t="s">
         <v>1</v>
       </c>
@@ -57629,6 +58538,7 @@
       <c r="AL502" s="1"/>
       <c r="AN502" s="2"/>
       <c r="AO502" s="1"/>
+      <c r="AP502"/>
       <c r="AQ502" s="1" t="s">
         <v>1</v>
       </c>
@@ -57716,6 +58626,7 @@
       <c r="AL503" s="1"/>
       <c r="AN503" s="2"/>
       <c r="AO503" s="1"/>
+      <c r="AP503"/>
       <c r="AQ503" s="1" t="s">
         <v>1</v>
       </c>
@@ -57821,6 +58732,7 @@
       <c r="AL504" s="1"/>
       <c r="AN504" s="2"/>
       <c r="AO504" s="1"/>
+      <c r="AP504"/>
       <c r="AQ504" s="1" t="s">
         <v>1</v>
       </c>
@@ -57914,6 +58826,7 @@
       <c r="AL505" s="1"/>
       <c r="AN505" s="2"/>
       <c r="AO505" s="1"/>
+      <c r="AP505"/>
       <c r="AQ505" s="1" t="s">
         <v>1</v>
       </c>
@@ -58017,6 +58930,7 @@
         <v>28</v>
       </c>
       <c r="AO506" s="1"/>
+      <c r="AP506"/>
       <c r="AQ506" s="1" t="s">
         <v>1</v>
       </c>
@@ -58104,6 +59018,7 @@
       <c r="AL507" s="1"/>
       <c r="AN507" s="2"/>
       <c r="AO507" s="1"/>
+      <c r="AP507"/>
       <c r="AQ507" s="1" t="s">
         <v>1</v>
       </c>
@@ -58197,6 +59112,7 @@
       <c r="AL508" s="1"/>
       <c r="AN508" s="2"/>
       <c r="AO508" s="1"/>
+      <c r="AP508"/>
       <c r="AQ508" s="1" t="s">
         <v>1</v>
       </c>
@@ -58290,6 +59206,7 @@
       <c r="AL509" s="1"/>
       <c r="AN509" s="2"/>
       <c r="AO509" s="1"/>
+      <c r="AP509"/>
       <c r="AQ509" s="1" t="s">
         <v>1</v>
       </c>
@@ -58391,6 +59308,7 @@
         <v>28</v>
       </c>
       <c r="AO510" s="1"/>
+      <c r="AP510"/>
       <c r="AQ510" s="1" t="s">
         <v>1</v>
       </c>
@@ -58486,6 +59404,7 @@
       <c r="AL511" s="1"/>
       <c r="AN511" s="2"/>
       <c r="AO511" s="1"/>
+      <c r="AP511"/>
       <c r="AQ511" s="1" t="s">
         <v>1</v>
       </c>
@@ -58591,6 +59510,7 @@
       <c r="AL512" s="1"/>
       <c r="AN512" s="2"/>
       <c r="AO512" s="1"/>
+      <c r="AP512"/>
       <c r="AQ512" s="1" t="s">
         <v>1</v>
       </c>
@@ -58681,6 +59601,7 @@
       <c r="AL513" s="1"/>
       <c r="AN513" s="2"/>
       <c r="AO513" s="1"/>
+      <c r="AP513"/>
       <c r="AQ513" s="1" t="s">
         <v>1</v>
       </c>
@@ -58782,6 +59703,7 @@
         <v>28</v>
       </c>
       <c r="AO514" s="1"/>
+      <c r="AP514"/>
       <c r="AQ514" s="1" t="s">
         <v>1</v>
       </c>
@@ -58881,6 +59803,7 @@
         <v>28</v>
       </c>
       <c r="AO515" s="1"/>
+      <c r="AP515"/>
       <c r="AQ515" s="1" t="s">
         <v>1</v>
       </c>
@@ -58982,6 +59905,7 @@
         <v>28</v>
       </c>
       <c r="AO516" s="1"/>
+      <c r="AP516"/>
       <c r="AQ516" s="1" t="s">
         <v>1</v>
       </c>
@@ -59074,6 +59998,7 @@
       <c r="AL517" s="1"/>
       <c r="AN517" s="2"/>
       <c r="AO517" s="1"/>
+      <c r="AP517"/>
       <c r="AQ517" s="1" t="s">
         <v>1</v>
       </c>
@@ -59166,6 +60091,7 @@
       <c r="AL518" s="1"/>
       <c r="AN518" s="2"/>
       <c r="AO518" s="1"/>
+      <c r="AP518"/>
       <c r="AQ518" s="1" t="s">
         <v>1</v>
       </c>
@@ -59256,6 +60182,7 @@
       <c r="AL519" s="1"/>
       <c r="AN519" s="2"/>
       <c r="AO519" s="1"/>
+      <c r="AP519"/>
       <c r="AQ519" s="1" t="s">
         <v>1</v>
       </c>
@@ -59346,6 +60273,7 @@
       <c r="AL520" s="1"/>
       <c r="AN520" s="2"/>
       <c r="AO520" s="1"/>
+      <c r="AP520"/>
       <c r="AQ520" s="1" t="s">
         <v>1</v>
       </c>
@@ -59444,6 +60372,7 @@
       </c>
       <c r="AN521" s="2"/>
       <c r="AO521" s="1"/>
+      <c r="AP521"/>
       <c r="AQ521" s="1" t="s">
         <v>1</v>
       </c>
@@ -59533,6 +60462,7 @@
       <c r="AL522" s="1"/>
       <c r="AN522" s="2"/>
       <c r="AO522" s="1"/>
+      <c r="AP522"/>
       <c r="AQ522" s="1" t="s">
         <v>1</v>
       </c>
@@ -59620,6 +60550,7 @@
       <c r="AL523" s="1"/>
       <c r="AN523" s="2"/>
       <c r="AO523" s="1"/>
+      <c r="AP523"/>
       <c r="AQ523" s="1" t="s">
         <v>1</v>
       </c>
@@ -59715,6 +60646,7 @@
       <c r="AL524" s="1"/>
       <c r="AN524" s="2"/>
       <c r="AO524" s="1"/>
+      <c r="AP524"/>
       <c r="AQ524" s="1" t="s">
         <v>1</v>
       </c>
@@ -59806,6 +60738,7 @@
       <c r="AL525" s="1"/>
       <c r="AN525" s="2"/>
       <c r="AO525" s="1"/>
+      <c r="AP525"/>
       <c r="AQ525" s="1" t="s">
         <v>1</v>
       </c>
@@ -59893,6 +60826,7 @@
       <c r="AL526" s="1"/>
       <c r="AN526" s="2"/>
       <c r="AO526" s="1"/>
+      <c r="AP526"/>
       <c r="AQ526" s="1" t="s">
         <v>1</v>
       </c>
@@ -59980,6 +60914,7 @@
       <c r="AL527" s="1"/>
       <c r="AN527" s="2"/>
       <c r="AO527" s="1"/>
+      <c r="AP527"/>
       <c r="AQ527" s="1" t="s">
         <v>1</v>
       </c>
@@ -60077,6 +61012,7 @@
       <c r="AL528" s="1"/>
       <c r="AN528" s="2"/>
       <c r="AO528" s="1"/>
+      <c r="AP528"/>
       <c r="AQ528" s="1" t="s">
         <v>1</v>
       </c>
@@ -60170,6 +61106,7 @@
       <c r="AL529" s="1"/>
       <c r="AN529" s="2"/>
       <c r="AO529" s="1"/>
+      <c r="AP529"/>
       <c r="AQ529" s="1" t="s">
         <v>1</v>
       </c>
@@ -60257,6 +61194,7 @@
       <c r="AL530" s="1"/>
       <c r="AN530" s="2"/>
       <c r="AO530" s="1"/>
+      <c r="AP530"/>
       <c r="AQ530" s="1" t="s">
         <v>1</v>
       </c>
@@ -60344,6 +61282,7 @@
       <c r="AL531" s="1"/>
       <c r="AN531" s="2"/>
       <c r="AO531" s="1"/>
+      <c r="AP531"/>
       <c r="AQ531" s="1" t="s">
         <v>1</v>
       </c>
@@ -60436,6 +61375,7 @@
       <c r="AL532" s="1"/>
       <c r="AN532" s="2"/>
       <c r="AO532" s="1"/>
+      <c r="AP532"/>
       <c r="AQ532" s="1" t="s">
         <v>1</v>
       </c>
@@ -60543,6 +61483,7 @@
       <c r="AL533" s="1"/>
       <c r="AN533" s="2"/>
       <c r="AO533" s="1"/>
+      <c r="AP533"/>
       <c r="AQ533" s="1" t="s">
         <v>1</v>
       </c>
@@ -60644,6 +61585,7 @@
       <c r="AL534" s="1"/>
       <c r="AN534" s="2"/>
       <c r="AO534" s="1"/>
+      <c r="AP534"/>
       <c r="AQ534" s="1" t="s">
         <v>1</v>
       </c>
@@ -60737,6 +61679,7 @@
       <c r="AL535" s="1"/>
       <c r="AN535" s="2"/>
       <c r="AO535" s="1"/>
+      <c r="AP535"/>
       <c r="AQ535" s="1" t="s">
         <v>1</v>
       </c>
@@ -60830,6 +61773,7 @@
       <c r="AL536" s="1"/>
       <c r="AN536" s="2"/>
       <c r="AO536" s="1"/>
+      <c r="AP536"/>
       <c r="AQ536" s="1" t="s">
         <v>1</v>
       </c>
@@ -60926,6 +61870,7 @@
       <c r="AL537" s="1"/>
       <c r="AN537" s="2"/>
       <c r="AO537" s="1"/>
+      <c r="AP537"/>
       <c r="AQ537" s="1" t="s">
         <v>1</v>
       </c>
@@ -61021,6 +61966,7 @@
         <v>28</v>
       </c>
       <c r="AO538" s="1"/>
+      <c r="AP538"/>
       <c r="AQ538" s="1" t="s">
         <v>1</v>
       </c>
@@ -61116,6 +62062,7 @@
       <c r="AL539" s="1"/>
       <c r="AN539" s="2"/>
       <c r="AO539" s="1"/>
+      <c r="AP539"/>
       <c r="AQ539" s="1" t="s">
         <v>1</v>
       </c>
@@ -61219,6 +62166,7 @@
         <v>531</v>
       </c>
       <c r="AO540" s="1"/>
+      <c r="AP540"/>
       <c r="AQ540" s="1" t="s">
         <v>1</v>
       </c>
@@ -61309,6 +62257,7 @@
       <c r="AL541" s="1"/>
       <c r="AN541" s="2"/>
       <c r="AO541" s="1"/>
+      <c r="AP541"/>
       <c r="AQ541" s="1" t="s">
         <v>1</v>
       </c>
@@ -61410,6 +62359,7 @@
         <v>28</v>
       </c>
       <c r="AO542" s="1"/>
+      <c r="AP542"/>
       <c r="AQ542" s="1" t="s">
         <v>1</v>
       </c>
@@ -61511,6 +62461,7 @@
         <v>28</v>
       </c>
       <c r="AO543" s="1"/>
+      <c r="AP543"/>
       <c r="AQ543" s="1" t="s">
         <v>1</v>
       </c>
@@ -61720,6 +62671,7 @@
       <c r="AL545" s="1"/>
       <c r="AN545" s="2"/>
       <c r="AO545" s="1"/>
+      <c r="AP545"/>
       <c r="AQ545" s="1" t="s">
         <v>1</v>
       </c>
@@ -61807,6 +62759,7 @@
       <c r="AL546" s="1"/>
       <c r="AN546" s="2"/>
       <c r="AO546" s="1"/>
+      <c r="AP546"/>
       <c r="AQ546" s="1" t="s">
         <v>1</v>
       </c>
@@ -61899,6 +62852,7 @@
       <c r="AL547" s="1"/>
       <c r="AN547" s="2"/>
       <c r="AO547" s="1"/>
+      <c r="AP547"/>
       <c r="AQ547" s="1" t="s">
         <v>1</v>
       </c>
@@ -61991,6 +62945,7 @@
       <c r="AL548" s="1"/>
       <c r="AN548" s="2"/>
       <c r="AO548" s="1"/>
+      <c r="AP548"/>
       <c r="AQ548" s="1" t="s">
         <v>1</v>
       </c>
@@ -62108,6 +63063,7 @@
       </c>
       <c r="AN549" s="2"/>
       <c r="AO549" s="1"/>
+      <c r="AP549"/>
       <c r="AQ549" s="1" t="s">
         <v>1</v>
       </c>
@@ -62216,6 +63172,7 @@
       <c r="AL550" s="1"/>
       <c r="AN550" s="2"/>
       <c r="AO550" s="1"/>
+      <c r="AP550"/>
       <c r="AQ550" s="1" t="s">
         <v>1</v>
       </c>
@@ -62317,6 +63274,7 @@
         <v>28</v>
       </c>
       <c r="AO551" s="1"/>
+      <c r="AP551"/>
       <c r="AQ551" s="1" t="s">
         <v>1</v>
       </c>
@@ -62405,6 +63363,7 @@
       <c r="AL552" s="1"/>
       <c r="AN552" s="2"/>
       <c r="AO552" s="1"/>
+      <c r="AP552"/>
       <c r="AQ552" s="1" t="s">
         <v>1</v>
       </c>
@@ -62493,6 +63452,7 @@
       <c r="AL553" s="1"/>
       <c r="AN553" s="2"/>
       <c r="AO553" s="1"/>
+      <c r="AP553"/>
       <c r="AQ553" s="1" t="s">
         <v>1</v>
       </c>
@@ -62702,6 +63662,7 @@
         <v>66</v>
       </c>
       <c r="AO555" s="1"/>
+      <c r="AP555"/>
       <c r="AQ555" s="1" t="s">
         <v>1</v>
       </c>
@@ -62795,6 +63756,7 @@
       <c r="AL556" s="1"/>
       <c r="AN556" s="2"/>
       <c r="AO556" s="1"/>
+      <c r="AP556"/>
       <c r="AQ556" s="1" t="s">
         <v>1</v>
       </c>
@@ -62892,6 +63854,7 @@
       </c>
       <c r="AN557" s="2"/>
       <c r="AO557" s="1"/>
+      <c r="AP557"/>
       <c r="AQ557" s="1" t="s">
         <v>1</v>
       </c>
@@ -62986,6 +63949,7 @@
       <c r="AL558" s="1"/>
       <c r="AN558" s="2"/>
       <c r="AO558" s="1"/>
+      <c r="AP558"/>
       <c r="AQ558" s="1" t="s">
         <v>1</v>
       </c>
@@ -63089,6 +64053,7 @@
         <v>28</v>
       </c>
       <c r="AO559" s="1"/>
+      <c r="AP559"/>
       <c r="AQ559" s="1" t="s">
         <v>1</v>
       </c>
@@ -63184,6 +64149,7 @@
       <c r="AL560" s="1"/>
       <c r="AN560" s="2"/>
       <c r="AO560" s="1"/>
+      <c r="AP560"/>
       <c r="AQ560" s="1" t="s">
         <v>1</v>
       </c>
@@ -63283,6 +64249,7 @@
       <c r="AL561" s="1"/>
       <c r="AN561" s="2"/>
       <c r="AO561" s="1"/>
+      <c r="AP561"/>
       <c r="AQ561" s="1" t="s">
         <v>1</v>
       </c>
@@ -63375,6 +64342,7 @@
       <c r="AL562" s="1"/>
       <c r="AN562" s="2"/>
       <c r="AO562" s="1"/>
+      <c r="AP562"/>
       <c r="AQ562" s="1" t="s">
         <v>1</v>
       </c>
@@ -63469,6 +64437,7 @@
       <c r="AL563" s="1"/>
       <c r="AN563" s="2"/>
       <c r="AO563" s="1"/>
+      <c r="AP563"/>
       <c r="AQ563" s="1" t="s">
         <v>1</v>
       </c>
@@ -63570,6 +64539,7 @@
       <c r="AL564" s="1"/>
       <c r="AN564" s="2"/>
       <c r="AO564" s="1"/>
+      <c r="AP564"/>
       <c r="AQ564" s="1" t="s">
         <v>1</v>
       </c>
@@ -63671,6 +64641,7 @@
         <v>28</v>
       </c>
       <c r="AO565" s="1"/>
+      <c r="AP565"/>
       <c r="AQ565" s="1" t="s">
         <v>1</v>
       </c>
@@ -63767,6 +64738,7 @@
       <c r="AL566" s="1"/>
       <c r="AN566" s="2"/>
       <c r="AO566" s="1"/>
+      <c r="AP566"/>
       <c r="AQ566" s="1" t="s">
         <v>1</v>
       </c>
@@ -63864,6 +64836,7 @@
       </c>
       <c r="AN567" s="2"/>
       <c r="AO567" s="1"/>
+      <c r="AP567"/>
       <c r="AQ567" s="1" t="s">
         <v>1</v>
       </c>
@@ -63971,6 +64944,7 @@
         <v>996</v>
       </c>
       <c r="AO568" s="1"/>
+      <c r="AP568"/>
       <c r="AQ568" s="1" t="s">
         <v>1</v>
       </c>
@@ -64072,6 +65046,7 @@
       <c r="AL569" s="1"/>
       <c r="AN569" s="2"/>
       <c r="AO569" s="1"/>
+      <c r="AP569"/>
       <c r="AQ569" s="1" t="s">
         <v>1</v>
       </c>
@@ -64171,6 +65146,7 @@
         <v>28</v>
       </c>
       <c r="AO570" s="1"/>
+      <c r="AP570"/>
       <c r="AQ570" s="1" t="s">
         <v>1</v>
       </c>
@@ -64267,6 +65243,7 @@
       <c r="AL571" s="1"/>
       <c r="AN571" s="2"/>
       <c r="AO571" s="1"/>
+      <c r="AP571"/>
       <c r="AQ571" s="1" t="s">
         <v>1</v>
       </c>
@@ -64359,6 +65336,7 @@
       <c r="AL572" s="1"/>
       <c r="AN572" s="2"/>
       <c r="AO572" s="1"/>
+      <c r="AP572"/>
       <c r="AQ572" s="1" t="s">
         <v>1</v>
       </c>
@@ -64451,6 +65429,7 @@
       <c r="AL573" s="1"/>
       <c r="AN573" s="2"/>
       <c r="AO573" s="1"/>
+      <c r="AP573"/>
       <c r="AQ573" s="1" t="s">
         <v>1</v>
       </c>
@@ -64561,6 +65540,7 @@
         <v>972</v>
       </c>
       <c r="AO574" s="1"/>
+      <c r="AP574"/>
       <c r="AQ574" s="1" t="s">
         <v>1</v>
       </c>
@@ -64660,6 +65640,7 @@
         <v>968</v>
       </c>
       <c r="AO575" s="1"/>
+      <c r="AP575"/>
       <c r="AQ575" s="1" t="s">
         <v>1</v>
       </c>
@@ -64753,6 +65734,7 @@
       <c r="AL576" s="1"/>
       <c r="AN576" s="2"/>
       <c r="AO576" s="1"/>
+      <c r="AP576"/>
       <c r="AQ576" s="1" t="s">
         <v>1</v>
       </c>
@@ -64847,6 +65829,7 @@
       <c r="AL577" s="1"/>
       <c r="AN577" s="2"/>
       <c r="AO577" s="1"/>
+      <c r="AP577"/>
       <c r="AQ577" s="1" t="s">
         <v>1</v>
       </c>
@@ -64943,6 +65926,7 @@
       <c r="AL578" s="1"/>
       <c r="AN578" s="2"/>
       <c r="AO578" s="1"/>
+      <c r="AP578"/>
       <c r="AQ578" s="1" t="s">
         <v>1</v>
       </c>
@@ -65035,6 +66019,7 @@
       <c r="AL579" s="1"/>
       <c r="AN579" s="2"/>
       <c r="AO579" s="1"/>
+      <c r="AP579"/>
       <c r="AQ579" s="1" t="s">
         <v>1</v>
       </c>
@@ -65146,6 +66131,7 @@
       <c r="AO580" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="AP580"/>
       <c r="AQ580" s="1" t="s">
         <v>1</v>
       </c>
@@ -65231,6 +66217,7 @@
       <c r="AL581" s="1"/>
       <c r="AN581" s="2"/>
       <c r="AO581" s="1"/>
+      <c r="AP581"/>
       <c r="AQ581" s="1" t="s">
         <v>1</v>
       </c>
@@ -65316,6 +66303,7 @@
       <c r="AL582" s="1"/>
       <c r="AN582" s="2"/>
       <c r="AO582" s="1"/>
+      <c r="AP582"/>
       <c r="AQ582" s="1" t="s">
         <v>1</v>
       </c>
@@ -65407,6 +66395,7 @@
       <c r="AL583" s="1"/>
       <c r="AN583" s="2"/>
       <c r="AO583" s="1"/>
+      <c r="AP583"/>
       <c r="AQ583" s="1" t="s">
         <v>1</v>
       </c>
@@ -65504,6 +66493,7 @@
       <c r="AL584" s="1"/>
       <c r="AN584" s="2"/>
       <c r="AO584" s="1"/>
+      <c r="AP584"/>
       <c r="AQ584" s="1" t="s">
         <v>1</v>
       </c>
@@ -65600,6 +66590,7 @@
       <c r="AL585" s="1"/>
       <c r="AN585" s="2"/>
       <c r="AO585" s="1"/>
+      <c r="AP585"/>
       <c r="AQ585" s="1" t="s">
         <v>1</v>
       </c>
@@ -65693,6 +66684,7 @@
       <c r="AL586" s="1"/>
       <c r="AN586" s="2"/>
       <c r="AO586" s="1"/>
+      <c r="AP586"/>
       <c r="AQ586" s="1" t="s">
         <v>1</v>
       </c>
@@ -65786,6 +66778,7 @@
       <c r="AL587" s="1"/>
       <c r="AN587" s="2"/>
       <c r="AO587" s="1"/>
+      <c r="AP587"/>
       <c r="AQ587" s="1" t="s">
         <v>1</v>
       </c>
@@ -65889,6 +66882,7 @@
         <v>531</v>
       </c>
       <c r="AO588" s="1"/>
+      <c r="AP588"/>
       <c r="AQ588" s="1" t="s">
         <v>1</v>
       </c>
@@ -65988,6 +66982,7 @@
       <c r="AL589" s="1"/>
       <c r="AN589" s="2"/>
       <c r="AO589" s="1"/>
+      <c r="AP589"/>
       <c r="AQ589" s="1" t="s">
         <v>1</v>
       </c>
@@ -66096,6 +67091,7 @@
         <v>531</v>
       </c>
       <c r="AO590" s="1"/>
+      <c r="AP590"/>
       <c r="AQ590" s="1" t="s">
         <v>1</v>
       </c>
@@ -66197,6 +67193,7 @@
       <c r="AL591" s="1"/>
       <c r="AN591" s="2"/>
       <c r="AO591" s="1"/>
+      <c r="AP591"/>
       <c r="AQ591" s="1" t="s">
         <v>1</v>
       </c>
@@ -66300,6 +67297,7 @@
         <v>915</v>
       </c>
       <c r="AO592" s="1"/>
+      <c r="AP592"/>
       <c r="AQ592" s="1" t="s">
         <v>1</v>
       </c>
@@ -66403,6 +67401,7 @@
         <v>911</v>
       </c>
       <c r="AO593" s="1"/>
+      <c r="AP593"/>
       <c r="AQ593" s="1" t="s">
         <v>1</v>
       </c>
@@ -66495,6 +67494,7 @@
       <c r="AL594" s="1"/>
       <c r="AN594" s="2"/>
       <c r="AO594" s="1"/>
+      <c r="AP594"/>
       <c r="AQ594" s="1" t="s">
         <v>1</v>
       </c>
@@ -66591,6 +67591,7 @@
       <c r="AL595" s="1"/>
       <c r="AN595" s="2"/>
       <c r="AO595" s="1"/>
+      <c r="AP595"/>
       <c r="AQ595" s="1" t="s">
         <v>1</v>
       </c>
@@ -66696,6 +67697,7 @@
       <c r="AL596" s="1"/>
       <c r="AN596" s="2"/>
       <c r="AO596" s="1"/>
+      <c r="AP596"/>
       <c r="AQ596" s="1" t="s">
         <v>1</v>
       </c>
@@ -66788,6 +67790,7 @@
       <c r="AL597" s="1"/>
       <c r="AN597" s="2"/>
       <c r="AO597" s="1"/>
+      <c r="AP597"/>
       <c r="AQ597" s="1" t="s">
         <v>1</v>
       </c>
@@ -66892,6 +67895,7 @@
         <v>893</v>
       </c>
       <c r="AO598" s="1"/>
+      <c r="AP598"/>
       <c r="AQ598" s="1" t="s">
         <v>1</v>
       </c>
@@ -66993,6 +67997,7 @@
         <v>28</v>
       </c>
       <c r="AO599" s="1"/>
+      <c r="AP599"/>
       <c r="AQ599" s="1" t="s">
         <v>1</v>
       </c>
@@ -67088,6 +68093,7 @@
       <c r="AL600" s="1"/>
       <c r="AN600" s="2"/>
       <c r="AO600" s="1"/>
+      <c r="AP600"/>
       <c r="AQ600" s="1" t="s">
         <v>1</v>
       </c>
@@ -67181,6 +68187,7 @@
       <c r="AL601" s="1"/>
       <c r="AN601" s="2"/>
       <c r="AO601" s="1"/>
+      <c r="AP601"/>
       <c r="AQ601" s="1" t="s">
         <v>1</v>
       </c>
@@ -67282,6 +68289,7 @@
         <v>28</v>
       </c>
       <c r="AO602" s="1"/>
+      <c r="AP602"/>
       <c r="AQ602" s="1" t="s">
         <v>1</v>
       </c>
@@ -67374,6 +68382,7 @@
       <c r="AL603" s="1"/>
       <c r="AN603" s="2"/>
       <c r="AO603" s="1"/>
+      <c r="AP603"/>
       <c r="AQ603" s="1" t="s">
         <v>1</v>
       </c>
@@ -67578,6 +68587,7 @@
         <v>28</v>
       </c>
       <c r="AO605" s="1"/>
+      <c r="AP605"/>
       <c r="AQ605" s="1" t="s">
         <v>1</v>
       </c>
@@ -67663,6 +68673,7 @@
       <c r="AL606" s="1"/>
       <c r="AN606" s="2"/>
       <c r="AO606" s="1"/>
+      <c r="AP606"/>
       <c r="AQ606" s="1" t="s">
         <v>1</v>
       </c>
@@ -67751,6 +68762,7 @@
       <c r="AL607" s="1"/>
       <c r="AN607" s="2"/>
       <c r="AO607" s="1"/>
+      <c r="AP607"/>
       <c r="AQ607" s="1" t="s">
         <v>1</v>
       </c>
@@ -67833,6 +68845,7 @@
       <c r="AL608" s="1"/>
       <c r="AN608" s="2"/>
       <c r="AO608" s="1"/>
+      <c r="AP608"/>
       <c r="AQ608" s="1" t="s">
         <v>1</v>
       </c>
@@ -67930,6 +68943,7 @@
       <c r="AL609" s="1"/>
       <c r="AN609" s="2"/>
       <c r="AO609" s="1"/>
+      <c r="AP609"/>
       <c r="AQ609" s="1" t="s">
         <v>1</v>
       </c>
@@ -68033,6 +69047,7 @@
         <v>28</v>
       </c>
       <c r="AO610" s="1"/>
+      <c r="AP610"/>
       <c r="AQ610" s="1" t="s">
         <v>1</v>
       </c>
@@ -68128,6 +69143,7 @@
       <c r="AL611" s="1"/>
       <c r="AN611" s="2"/>
       <c r="AO611" s="1"/>
+      <c r="AP611"/>
       <c r="AQ611" s="1" t="s">
         <v>1</v>
       </c>
@@ -68225,6 +69241,7 @@
       </c>
       <c r="AN612" s="2"/>
       <c r="AO612" s="1"/>
+      <c r="AP612"/>
       <c r="AQ612" s="1" t="s">
         <v>1</v>
       </c>
@@ -68324,7 +69341,7 @@
         <v>28</v>
       </c>
       <c r="AO613" s="1"/>
-      <c r="AP613" s="14" t="s">
+      <c r="AP613" s="15" t="s">
         <v>848</v>
       </c>
       <c r="AQ613" s="1" t="s">
@@ -68424,6 +69441,7 @@
       <c r="AL614" s="1"/>
       <c r="AN614" s="2"/>
       <c r="AO614" s="1"/>
+      <c r="AP614"/>
       <c r="AQ614" s="1" t="s">
         <v>1</v>
       </c>
@@ -68511,6 +69529,7 @@
       <c r="AL615" s="1"/>
       <c r="AN615" s="2"/>
       <c r="AO615" s="1"/>
+      <c r="AP615"/>
       <c r="AQ615" s="1" t="s">
         <v>1</v>
       </c>
@@ -68604,6 +69623,7 @@
       <c r="AL616" s="1"/>
       <c r="AN616" s="2"/>
       <c r="AO616" s="1"/>
+      <c r="AP616"/>
       <c r="AQ616" s="1" t="s">
         <v>1</v>
       </c>
@@ -68697,6 +69717,7 @@
       <c r="AL617" s="1"/>
       <c r="AN617" s="2"/>
       <c r="AO617" s="1"/>
+      <c r="AP617"/>
       <c r="AQ617" s="1" t="s">
         <v>1</v>
       </c>
@@ -68800,6 +69821,7 @@
         <v>28</v>
       </c>
       <c r="AO618" s="1"/>
+      <c r="AP618"/>
       <c r="AQ618" s="1" t="s">
         <v>1</v>
       </c>
@@ -68899,6 +69921,7 @@
         <v>66</v>
       </c>
       <c r="AO619" s="1"/>
+      <c r="AP619"/>
       <c r="AQ619" s="1" t="s">
         <v>1</v>
       </c>
@@ -69005,6 +70028,7 @@
         <v>28</v>
       </c>
       <c r="AO620" s="1"/>
+      <c r="AP620"/>
       <c r="AQ620" s="1" t="s">
         <v>1</v>
       </c>
@@ -69097,6 +70121,7 @@
       <c r="AL621" s="1"/>
       <c r="AN621" s="2"/>
       <c r="AO621" s="1"/>
+      <c r="AP621"/>
       <c r="AQ621" s="1" t="s">
         <v>1</v>
       </c>
@@ -69190,6 +70215,7 @@
       <c r="AL622" s="1"/>
       <c r="AN622" s="2"/>
       <c r="AO622" s="1"/>
+      <c r="AP622"/>
       <c r="AQ622" s="1" t="s">
         <v>1</v>
       </c>
@@ -69285,6 +70311,7 @@
       <c r="AL623" s="1"/>
       <c r="AN623" s="2"/>
       <c r="AO623" s="1"/>
+      <c r="AP623"/>
       <c r="AQ623" s="1" t="s">
         <v>1</v>
       </c>
@@ -69397,6 +70424,7 @@
         <v>807</v>
       </c>
       <c r="AO624" s="1"/>
+      <c r="AP624"/>
       <c r="AQ624" s="1" t="s">
         <v>1</v>
       </c>
@@ -69496,6 +70524,7 @@
       </c>
       <c r="AN625" s="2"/>
       <c r="AO625" s="1"/>
+      <c r="AP625"/>
       <c r="AQ625" s="1" t="s">
         <v>1</v>
       </c>
@@ -69598,6 +70627,7 @@
       </c>
       <c r="AN626" s="2"/>
       <c r="AO626" s="1"/>
+      <c r="AP626"/>
       <c r="AQ626" s="1" t="s">
         <v>1</v>
       </c>
@@ -69693,6 +70723,7 @@
       <c r="AL627" s="1"/>
       <c r="AN627" s="2"/>
       <c r="AO627" s="1"/>
+      <c r="AP627"/>
       <c r="AQ627" s="1" t="s">
         <v>1</v>
       </c>
@@ -69788,6 +70819,7 @@
       </c>
       <c r="AN628" s="2"/>
       <c r="AO628" s="1"/>
+      <c r="AP628"/>
       <c r="AQ628" s="1" t="s">
         <v>1</v>
       </c>
@@ -69885,6 +70917,7 @@
       <c r="AL629" s="1"/>
       <c r="AN629" s="2"/>
       <c r="AO629" s="1"/>
+      <c r="AP629"/>
       <c r="AQ629" s="1" t="s">
         <v>1</v>
       </c>
@@ -69979,6 +71012,7 @@
       <c r="AL630" s="1"/>
       <c r="AN630" s="2"/>
       <c r="AO630" s="1"/>
+      <c r="AP630"/>
       <c r="AQ630" s="1" t="s">
         <v>1</v>
       </c>
@@ -70084,6 +71118,7 @@
         <v>775</v>
       </c>
       <c r="AO631" s="1"/>
+      <c r="AP631"/>
       <c r="AQ631" s="1" t="s">
         <v>1</v>
       </c>
@@ -70183,6 +71218,7 @@
         <v>773</v>
       </c>
       <c r="AO632" s="1"/>
+      <c r="AP632"/>
       <c r="AQ632" s="1" t="s">
         <v>1</v>
       </c>
@@ -70282,6 +71318,7 @@
         <v>770</v>
       </c>
       <c r="AO633" s="1"/>
+      <c r="AP633"/>
       <c r="AQ633" s="1" t="s">
         <v>1</v>
       </c>
@@ -70381,6 +71418,7 @@
       <c r="AL634" s="1"/>
       <c r="AN634" s="2"/>
       <c r="AO634" s="1"/>
+      <c r="AP634"/>
       <c r="AQ634" s="1" t="s">
         <v>1</v>
       </c>
@@ -70495,7 +71533,7 @@
       </c>
       <c r="AN635" s="2"/>
       <c r="AO635" s="1"/>
-      <c r="AP635" s="14" t="s">
+      <c r="AP635" s="15" t="s">
         <v>759</v>
       </c>
       <c r="AQ635" s="1" t="s">
@@ -70610,6 +71648,7 @@
         <v>751</v>
       </c>
       <c r="AO636" s="1"/>
+      <c r="AP636"/>
       <c r="AQ636" s="1" t="s">
         <v>1</v>
       </c>
@@ -70701,6 +71740,7 @@
       <c r="AL637" s="1"/>
       <c r="AN637" s="2"/>
       <c r="AO637" s="1"/>
+      <c r="AP637"/>
       <c r="AQ637" s="1" t="s">
         <v>1</v>
       </c>
@@ -70794,6 +71834,7 @@
       <c r="AL638" s="1"/>
       <c r="AN638" s="2"/>
       <c r="AO638" s="1"/>
+      <c r="AP638"/>
       <c r="AQ638" s="1" t="s">
         <v>1</v>
       </c>
@@ -70891,6 +71932,7 @@
       <c r="AL639" s="1"/>
       <c r="AN639" s="2"/>
       <c r="AO639" s="1"/>
+      <c r="AP639"/>
       <c r="AQ639" s="1" t="s">
         <v>1</v>
       </c>
@@ -70984,6 +72026,7 @@
       <c r="AL640" s="1"/>
       <c r="AN640" s="2"/>
       <c r="AO640" s="1"/>
+      <c r="AP640"/>
       <c r="AQ640" s="1" t="s">
         <v>1</v>
       </c>
@@ -71077,6 +72120,7 @@
       <c r="AL641" s="1"/>
       <c r="AN641" s="2"/>
       <c r="AO641" s="1"/>
+      <c r="AP641"/>
       <c r="AQ641" s="1" t="s">
         <v>1</v>
       </c>
@@ -71176,6 +72220,7 @@
       </c>
       <c r="AN642" s="2"/>
       <c r="AO642" s="1"/>
+      <c r="AP642"/>
       <c r="AQ642" s="1" t="s">
         <v>1</v>
       </c>
@@ -71270,6 +72315,7 @@
       <c r="AL643" s="1"/>
       <c r="AN643" s="2"/>
       <c r="AO643" s="1"/>
+      <c r="AP643"/>
       <c r="AQ643" s="1" t="s">
         <v>1</v>
       </c>
@@ -71369,6 +72415,7 @@
       <c r="AL644" s="1"/>
       <c r="AN644" s="2"/>
       <c r="AO644" s="1"/>
+      <c r="AP644"/>
       <c r="AQ644" s="1" t="s">
         <v>1</v>
       </c>
@@ -71465,6 +72512,7 @@
       </c>
       <c r="AN645" s="2"/>
       <c r="AO645" s="1"/>
+      <c r="AP645"/>
       <c r="AQ645" s="1" t="s">
         <v>1</v>
       </c>
@@ -71553,6 +72601,7 @@
       <c r="AL646" s="1"/>
       <c r="AN646" s="2"/>
       <c r="AO646" s="1"/>
+      <c r="AP646"/>
       <c r="AQ646" s="1" t="s">
         <v>1</v>
       </c>
@@ -71654,6 +72703,7 @@
         <v>28</v>
       </c>
       <c r="AO647" s="1"/>
+      <c r="AP647"/>
       <c r="AQ647" s="1" t="s">
         <v>1</v>
       </c>
@@ -71749,6 +72799,7 @@
       <c r="AL648" s="1"/>
       <c r="AN648" s="2"/>
       <c r="AO648" s="1"/>
+      <c r="AP648"/>
       <c r="AQ648" s="1" t="s">
         <v>1</v>
       </c>
@@ -71836,6 +72887,7 @@
       <c r="AL649" s="1"/>
       <c r="AN649" s="2"/>
       <c r="AO649" s="1"/>
+      <c r="AP649"/>
       <c r="AQ649" s="1" t="s">
         <v>1</v>
       </c>
@@ -71929,6 +72981,7 @@
       <c r="AL650" s="1"/>
       <c r="AN650" s="2"/>
       <c r="AO650" s="1"/>
+      <c r="AP650"/>
       <c r="AQ650" s="1" t="s">
         <v>1</v>
       </c>
@@ -72030,6 +73083,7 @@
       <c r="AL651" s="1"/>
       <c r="AN651" s="2"/>
       <c r="AO651" s="1"/>
+      <c r="AP651"/>
       <c r="AQ651" s="1" t="s">
         <v>1</v>
       </c>
@@ -72127,6 +73181,7 @@
       <c r="AL652" s="1"/>
       <c r="AN652" s="2"/>
       <c r="AO652" s="1"/>
+      <c r="AP652"/>
       <c r="AQ652" s="1" t="s">
         <v>1</v>
       </c>
@@ -72230,6 +73285,7 @@
         <v>531</v>
       </c>
       <c r="AO653" s="1"/>
+      <c r="AP653"/>
       <c r="AQ653" s="1" t="s">
         <v>1</v>
       </c>
@@ -72321,6 +73377,7 @@
       <c r="AL654" s="1"/>
       <c r="AN654" s="2"/>
       <c r="AO654" s="1"/>
+      <c r="AP654"/>
       <c r="AQ654" s="1" t="s">
         <v>1</v>
       </c>
@@ -72418,6 +73475,7 @@
       <c r="AL655" s="1"/>
       <c r="AN655" s="2"/>
       <c r="AO655" s="1"/>
+      <c r="AP655"/>
       <c r="AQ655" s="1" t="s">
         <v>1</v>
       </c>
@@ -72626,6 +73684,7 @@
       <c r="AL657" s="1"/>
       <c r="AN657" s="2"/>
       <c r="AO657" s="1"/>
+      <c r="AP657"/>
       <c r="AQ657" s="1" t="s">
         <v>1</v>
       </c>
@@ -72723,6 +73782,7 @@
       <c r="AL658" s="1"/>
       <c r="AN658" s="2"/>
       <c r="AO658" s="1"/>
+      <c r="AP658"/>
       <c r="AQ658" s="1" t="s">
         <v>1</v>
       </c>
@@ -72830,6 +73890,7 @@
       <c r="AL659" s="1"/>
       <c r="AN659" s="2"/>
       <c r="AO659" s="1"/>
+      <c r="AP659"/>
       <c r="AQ659" s="1" t="s">
         <v>1</v>
       </c>
@@ -72931,6 +73992,7 @@
         <v>28</v>
       </c>
       <c r="AO660" s="1"/>
+      <c r="AP660"/>
       <c r="AQ660" s="1" t="s">
         <v>1</v>
       </c>
@@ -73028,6 +74090,7 @@
         <v>661</v>
       </c>
       <c r="AO661" s="1"/>
+      <c r="AP661"/>
       <c r="AQ661" s="1" t="s">
         <v>1</v>
       </c>
@@ -73122,6 +74185,7 @@
       <c r="AL662" s="1"/>
       <c r="AN662" s="2"/>
       <c r="AO662" s="1"/>
+      <c r="AP662"/>
       <c r="AQ662" s="1" t="s">
         <v>1</v>
       </c>
@@ -73210,6 +74274,7 @@
       <c r="AL663" s="1"/>
       <c r="AN663" s="2"/>
       <c r="AO663" s="1"/>
+      <c r="AP663"/>
       <c r="AQ663" s="1" t="s">
         <v>1</v>
       </c>
@@ -73309,6 +74374,7 @@
       <c r="AL664" s="1"/>
       <c r="AN664" s="2"/>
       <c r="AO664" s="1"/>
+      <c r="AP664"/>
       <c r="AQ664" s="1" t="s">
         <v>1</v>
       </c>
@@ -73406,6 +74472,7 @@
       <c r="AL665" s="1"/>
       <c r="AN665" s="2"/>
       <c r="AO665" s="1"/>
+      <c r="AP665"/>
       <c r="AQ665" s="1" t="s">
         <v>1</v>
       </c>
@@ -73511,6 +74578,7 @@
       <c r="AL666" s="1"/>
       <c r="AN666" s="2"/>
       <c r="AO666" s="1"/>
+      <c r="AP666"/>
       <c r="AQ666" s="1" t="s">
         <v>1</v>
       </c>
@@ -73603,6 +74671,7 @@
       <c r="AL667" s="1"/>
       <c r="AN667" s="2"/>
       <c r="AO667" s="1"/>
+      <c r="AP667"/>
       <c r="AQ667" s="1" t="s">
         <v>1</v>
       </c>
@@ -73715,7 +74784,7 @@
         <v>640</v>
       </c>
       <c r="AO668" s="1"/>
-      <c r="AP668" s="14" t="s">
+      <c r="AP668" s="15" t="s">
         <v>2630</v>
       </c>
       <c r="AQ668" s="1" t="s">
@@ -73725,7 +74794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="10" t="s">
         <v>639</v>
       </c>
@@ -73821,7 +74890,7 @@
       </c>
       <c r="AN669" s="2"/>
       <c r="AO669" s="1"/>
-      <c r="AP669" s="14" t="s">
+      <c r="AP669" s="15" t="s">
         <v>2630</v>
       </c>
       <c r="AQ669" s="1" t="s">
@@ -73916,6 +74985,7 @@
       <c r="AL670" s="1"/>
       <c r="AN670" s="2"/>
       <c r="AO670" s="1"/>
+      <c r="AP670"/>
       <c r="AQ670" s="1" t="s">
         <v>1</v>
       </c>
@@ -74113,6 +75183,7 @@
       <c r="AL672" s="1"/>
       <c r="AN672" s="2"/>
       <c r="AO672" s="1"/>
+      <c r="AP672"/>
       <c r="AQ672" s="1" t="s">
         <v>1</v>
       </c>
@@ -74203,6 +75274,7 @@
       <c r="AL673" s="1"/>
       <c r="AN673" s="2"/>
       <c r="AO673" s="1"/>
+      <c r="AP673"/>
       <c r="AQ673" s="1" t="s">
         <v>1</v>
       </c>
@@ -74293,6 +75365,7 @@
       <c r="AL674" s="1"/>
       <c r="AN674" s="2"/>
       <c r="AO674" s="1"/>
+      <c r="AP674"/>
       <c r="AQ674" s="1" t="s">
         <v>1</v>
       </c>
@@ -74390,6 +75463,7 @@
       </c>
       <c r="AN675" s="2"/>
       <c r="AO675" s="1"/>
+      <c r="AP675"/>
       <c r="AQ675" s="1" t="s">
         <v>1</v>
       </c>
@@ -74489,6 +75563,7 @@
         <v>28</v>
       </c>
       <c r="AO676" s="1"/>
+      <c r="AP676"/>
       <c r="AQ676" s="1" t="s">
         <v>1</v>
       </c>
@@ -74586,6 +75661,7 @@
       </c>
       <c r="AN677" s="2"/>
       <c r="AO677" s="1"/>
+      <c r="AP677"/>
       <c r="AQ677" s="1" t="s">
         <v>1</v>
       </c>
@@ -74683,6 +75759,7 @@
       </c>
       <c r="AN678" s="2"/>
       <c r="AO678" s="1"/>
+      <c r="AP678"/>
       <c r="AQ678" s="1" t="s">
         <v>1</v>
       </c>
@@ -74777,6 +75854,7 @@
       <c r="AL679" s="1"/>
       <c r="AN679" s="2"/>
       <c r="AO679" s="1"/>
+      <c r="AP679"/>
       <c r="AQ679" s="1" t="s">
         <v>1</v>
       </c>
@@ -74877,6 +75955,7 @@
       <c r="AL680" s="1"/>
       <c r="AN680" s="2"/>
       <c r="AO680" s="1"/>
+      <c r="AP680"/>
       <c r="AQ680" s="1" t="s">
         <v>1</v>
       </c>
@@ -74972,6 +76051,7 @@
       <c r="AL681" s="1"/>
       <c r="AN681" s="2"/>
       <c r="AO681" s="1"/>
+      <c r="AP681"/>
       <c r="AQ681" s="1" t="s">
         <v>1</v>
       </c>
@@ -75065,6 +76145,7 @@
       <c r="AL682" s="1"/>
       <c r="AN682" s="2"/>
       <c r="AO682" s="1"/>
+      <c r="AP682"/>
       <c r="AQ682" s="1" t="s">
         <v>1</v>
       </c>
@@ -75163,6 +76244,7 @@
       <c r="AL683" s="1"/>
       <c r="AN683" s="2"/>
       <c r="AO683" s="1"/>
+      <c r="AP683"/>
       <c r="AQ683" s="1" t="s">
         <v>1</v>
       </c>
@@ -75255,6 +76337,7 @@
       <c r="AL684" s="1"/>
       <c r="AN684" s="2"/>
       <c r="AO684" s="1"/>
+      <c r="AP684"/>
       <c r="AQ684" s="1" t="s">
         <v>1</v>
       </c>
@@ -75365,7 +76448,7 @@
       <c r="AL685" s="1"/>
       <c r="AN685" s="2"/>
       <c r="AO685" s="1"/>
-      <c r="AP685" s="14" t="s">
+      <c r="AP685" s="15" t="s">
         <v>2631</v>
       </c>
       <c r="AQ685" s="1" t="s">
@@ -75460,6 +76543,7 @@
       <c r="AL686" s="1"/>
       <c r="AN686" s="2"/>
       <c r="AO686" s="1"/>
+      <c r="AP686"/>
       <c r="AQ686" s="1" t="s">
         <v>1</v>
       </c>
@@ -75552,6 +76636,7 @@
       <c r="AL687" s="1"/>
       <c r="AN687" s="2"/>
       <c r="AO687" s="1"/>
+      <c r="AP687"/>
       <c r="AQ687" s="1" t="s">
         <v>1</v>
       </c>
@@ -75662,6 +76747,7 @@
         <v>580</v>
       </c>
       <c r="AO688" s="1"/>
+      <c r="AP688"/>
       <c r="AQ688" s="1" t="s">
         <v>1</v>
       </c>
@@ -75763,7 +76849,7 @@
         <v>547</v>
       </c>
       <c r="AO689" s="1"/>
-      <c r="AP689" s="14" t="s">
+      <c r="AP689" s="15" t="s">
         <v>2631</v>
       </c>
       <c r="AQ689" s="1" t="s">
@@ -75885,7 +76971,7 @@
         <v>547</v>
       </c>
       <c r="AO690" s="1"/>
-      <c r="AP690" s="14" t="s">
+      <c r="AP690" s="15" t="s">
         <v>2631</v>
       </c>
       <c r="AQ690" s="1" t="s">
@@ -76003,7 +77089,7 @@
         <v>547</v>
       </c>
       <c r="AO691" s="1"/>
-      <c r="AP691" s="14" t="s">
+      <c r="AP691" s="15" t="s">
         <v>2631</v>
       </c>
       <c r="AQ691" s="1" t="s">
@@ -76122,6 +77208,7 @@
       <c r="AL692" s="1"/>
       <c r="AN692" s="2"/>
       <c r="AO692" s="1"/>
+      <c r="AP692"/>
       <c r="AQ692" s="1" t="s">
         <v>1</v>
       </c>
@@ -76236,6 +77323,7 @@
       <c r="AL693" s="1"/>
       <c r="AN693" s="2"/>
       <c r="AO693" s="1"/>
+      <c r="AP693"/>
       <c r="AQ693" s="1" t="s">
         <v>1</v>
       </c>
@@ -76324,6 +77412,7 @@
       <c r="AL694" s="1"/>
       <c r="AN694" s="2"/>
       <c r="AO694" s="1"/>
+      <c r="AP694"/>
       <c r="AQ694" s="1" t="s">
         <v>1</v>
       </c>
@@ -76433,6 +77522,7 @@
         <v>547</v>
       </c>
       <c r="AO695" s="1"/>
+      <c r="AP695"/>
       <c r="AQ695" s="1" t="s">
         <v>1</v>
       </c>
@@ -76530,6 +77620,7 @@
       </c>
       <c r="AN696" s="2"/>
       <c r="AO696" s="1"/>
+      <c r="AP696"/>
       <c r="AQ696" s="1" t="s">
         <v>1</v>
       </c>
@@ -76627,6 +77718,7 @@
       </c>
       <c r="AN697" s="2"/>
       <c r="AO697" s="1"/>
+      <c r="AP697"/>
       <c r="AQ697" s="1" t="s">
         <v>1</v>
       </c>
@@ -76720,6 +77812,7 @@
       <c r="AL698" s="1"/>
       <c r="AN698" s="2"/>
       <c r="AO698" s="1"/>
+      <c r="AP698"/>
       <c r="AQ698" s="1" t="s">
         <v>1</v>
       </c>
@@ -76811,6 +77904,7 @@
       <c r="AL699" s="1"/>
       <c r="AN699" s="2"/>
       <c r="AO699" s="1"/>
+      <c r="AP699"/>
       <c r="AQ699" s="1" t="s">
         <v>1</v>
       </c>
@@ -76919,7 +78013,7 @@
         <v>531</v>
       </c>
       <c r="AO700" s="1"/>
-      <c r="AP700" s="14" t="s">
+      <c r="AP700" s="15" t="s">
         <v>2632</v>
       </c>
       <c r="AQ700" s="1" t="s">
@@ -77019,6 +78113,7 @@
       </c>
       <c r="AN701" s="2"/>
       <c r="AO701" s="1"/>
+      <c r="AP701"/>
       <c r="AQ701" s="1" t="s">
         <v>1</v>
       </c>
@@ -77120,6 +78215,7 @@
         <v>28</v>
       </c>
       <c r="AO702" s="1"/>
+      <c r="AP702"/>
       <c r="AQ702" s="1" t="s">
         <v>1</v>
       </c>
@@ -77209,6 +78305,7 @@
       <c r="AL703" s="1"/>
       <c r="AN703" s="2"/>
       <c r="AO703" s="1"/>
+      <c r="AP703"/>
       <c r="AQ703" s="1" t="s">
         <v>1</v>
       </c>
@@ -77302,6 +78399,7 @@
       <c r="AL704" s="1"/>
       <c r="AN704" s="2"/>
       <c r="AO704" s="1"/>
+      <c r="AP704"/>
       <c r="AQ704" s="1" t="s">
         <v>1</v>
       </c>
@@ -77400,6 +78498,7 @@
       </c>
       <c r="AN705" s="2"/>
       <c r="AO705" s="1"/>
+      <c r="AP705"/>
       <c r="AQ705" s="1" t="s">
         <v>1</v>
       </c>
@@ -77493,6 +78592,7 @@
       <c r="AL706" s="1"/>
       <c r="AN706" s="2"/>
       <c r="AO706" s="1"/>
+      <c r="AP706"/>
       <c r="AQ706" s="1" t="s">
         <v>1</v>
       </c>
@@ -77587,6 +78687,7 @@
       <c r="AL707" s="1"/>
       <c r="AN707" s="2"/>
       <c r="AO707" s="1"/>
+      <c r="AP707"/>
       <c r="AQ707" s="1" t="s">
         <v>1</v>
       </c>
@@ -77693,6 +78794,7 @@
         <v>66</v>
       </c>
       <c r="AO708" s="1"/>
+      <c r="AP708"/>
       <c r="AQ708" s="1" t="s">
         <v>1</v>
       </c>
@@ -77794,6 +78896,7 @@
         <v>28</v>
       </c>
       <c r="AO709" s="1"/>
+      <c r="AP709"/>
       <c r="AQ709" s="1" t="s">
         <v>1</v>
       </c>
@@ -77900,6 +79003,7 @@
         <v>66</v>
       </c>
       <c r="AO710" s="1"/>
+      <c r="AP710"/>
       <c r="AQ710" s="1" t="s">
         <v>1</v>
       </c>
@@ -78001,7 +79105,7 @@
         <v>490</v>
       </c>
       <c r="AO711" s="1"/>
-      <c r="AP711" s="14" t="s">
+      <c r="AP711" s="15" t="s">
         <v>2633</v>
       </c>
       <c r="AQ711" s="1" t="s">
@@ -78107,6 +79211,7 @@
         <v>484</v>
       </c>
       <c r="AO712" s="1"/>
+      <c r="AP712"/>
       <c r="AQ712" s="1" t="s">
         <v>1</v>
       </c>
@@ -78199,6 +79304,7 @@
       <c r="AL713" s="1"/>
       <c r="AN713" s="2"/>
       <c r="AO713" s="1"/>
+      <c r="AP713"/>
       <c r="AQ713" s="1" t="s">
         <v>1</v>
       </c>
@@ -78312,6 +79418,7 @@
         <v>474</v>
       </c>
       <c r="AO714" s="1"/>
+      <c r="AP714"/>
       <c r="AQ714" s="1" t="s">
         <v>1</v>
       </c>
@@ -78407,6 +79514,7 @@
       <c r="AL715" s="1"/>
       <c r="AN715" s="2"/>
       <c r="AO715" s="1"/>
+      <c r="AP715"/>
       <c r="AQ715" s="1" t="s">
         <v>1</v>
       </c>
@@ -78512,6 +79620,7 @@
       <c r="AL716" s="1"/>
       <c r="AN716" s="2"/>
       <c r="AO716" s="1"/>
+      <c r="AP716"/>
       <c r="AQ716" s="1" t="s">
         <v>1</v>
       </c>
@@ -78624,7 +79733,7 @@
         <v>443</v>
       </c>
       <c r="AO717" s="1"/>
-      <c r="AP717" s="14" t="s">
+      <c r="AP717" s="15" t="s">
         <v>2634</v>
       </c>
       <c r="AQ717" s="1" t="s">
@@ -78741,7 +79850,7 @@
         <v>443</v>
       </c>
       <c r="AO718" s="1"/>
-      <c r="AP718" s="14" t="s">
+      <c r="AP718" s="15" t="s">
         <v>2634</v>
       </c>
       <c r="AQ718" s="1" t="s">
@@ -78849,6 +79958,7 @@
       <c r="AL719" s="1"/>
       <c r="AN719" s="2"/>
       <c r="AO719" s="1"/>
+      <c r="AP719"/>
       <c r="AQ719" s="1" t="s">
         <v>1</v>
       </c>
@@ -78945,6 +80055,7 @@
       <c r="AL720" s="1"/>
       <c r="AN720" s="2"/>
       <c r="AO720" s="1"/>
+      <c r="AP720"/>
       <c r="AQ720" s="1" t="s">
         <v>1</v>
       </c>
@@ -79154,6 +80265,7 @@
       <c r="AL722" s="1"/>
       <c r="AN722" s="2"/>
       <c r="AO722" s="1"/>
+      <c r="AP722"/>
       <c r="AQ722" s="1" t="s">
         <v>1</v>
       </c>
@@ -79250,6 +80362,7 @@
       <c r="AL723" s="1"/>
       <c r="AN723" s="2"/>
       <c r="AO723" s="1"/>
+      <c r="AP723"/>
       <c r="AQ723" s="1" t="s">
         <v>1</v>
       </c>
@@ -79348,6 +80461,7 @@
       <c r="AL724" s="1"/>
       <c r="AN724" s="2"/>
       <c r="AO724" s="1"/>
+      <c r="AP724"/>
       <c r="AQ724" s="1" t="s">
         <v>1</v>
       </c>
@@ -79447,6 +80561,7 @@
       <c r="AL725" s="1"/>
       <c r="AN725" s="2"/>
       <c r="AO725" s="1"/>
+      <c r="AP725"/>
       <c r="AQ725" s="1" t="s">
         <v>1</v>
       </c>
@@ -79550,6 +80665,7 @@
       <c r="AL726" s="1"/>
       <c r="AN726" s="2"/>
       <c r="AO726" s="1"/>
+      <c r="AP726"/>
       <c r="AQ726" s="1" t="s">
         <v>1</v>
       </c>
@@ -79643,6 +80759,7 @@
       <c r="AL727" s="1"/>
       <c r="AN727" s="2"/>
       <c r="AO727" s="1"/>
+      <c r="AP727"/>
       <c r="AQ727" s="1" t="s">
         <v>1</v>
       </c>
@@ -79737,6 +80854,7 @@
       <c r="AL728" s="1"/>
       <c r="AN728" s="2"/>
       <c r="AO728" s="1"/>
+      <c r="AP728"/>
       <c r="AQ728" s="1" t="s">
         <v>1</v>
       </c>
@@ -79830,6 +80948,7 @@
       <c r="AL729" s="1"/>
       <c r="AN729" s="2"/>
       <c r="AO729" s="1"/>
+      <c r="AP729"/>
       <c r="AQ729" s="1" t="s">
         <v>1</v>
       </c>
@@ -79939,6 +81058,7 @@
       <c r="AL730" s="1"/>
       <c r="AN730" s="2"/>
       <c r="AO730" s="1"/>
+      <c r="AP730"/>
       <c r="AQ730" s="1" t="s">
         <v>1</v>
       </c>
@@ -80038,6 +81158,7 @@
         <v>66</v>
       </c>
       <c r="AO731" s="1"/>
+      <c r="AP731"/>
       <c r="AQ731" s="1" t="s">
         <v>1</v>
       </c>
@@ -80126,6 +81247,7 @@
       <c r="AL732" s="1"/>
       <c r="AN732" s="2"/>
       <c r="AO732" s="1"/>
+      <c r="AP732"/>
       <c r="AQ732" s="1" t="s">
         <v>1</v>
       </c>
@@ -80227,6 +81349,7 @@
         <v>66</v>
       </c>
       <c r="AO733" s="1"/>
+      <c r="AP733"/>
       <c r="AQ733" s="1" t="s">
         <v>1</v>
       </c>
@@ -80330,6 +81453,7 @@
         <v>374</v>
       </c>
       <c r="AO734" s="1"/>
+      <c r="AP734"/>
       <c r="AQ734" s="1" t="s">
         <v>1</v>
       </c>
@@ -80419,6 +81543,7 @@
       <c r="AL735" s="1"/>
       <c r="AN735" s="2"/>
       <c r="AO735" s="1"/>
+      <c r="AP735"/>
       <c r="AQ735" s="1" t="s">
         <v>1</v>
       </c>
@@ -80524,6 +81649,7 @@
       <c r="AL736" s="1"/>
       <c r="AN736" s="2"/>
       <c r="AO736" s="1"/>
+      <c r="AP736"/>
       <c r="AQ736" s="1" t="s">
         <v>1</v>
       </c>
@@ -80609,6 +81735,7 @@
       <c r="AL737" s="1"/>
       <c r="AN737" s="2"/>
       <c r="AO737" s="1"/>
+      <c r="AP737"/>
       <c r="AQ737" s="1" t="s">
         <v>1</v>
       </c>
@@ -80711,6 +81838,7 @@
         <v>66</v>
       </c>
       <c r="AO738" s="1"/>
+      <c r="AP738"/>
       <c r="AQ738" s="1" t="s">
         <v>1</v>
       </c>
@@ -80812,6 +81940,7 @@
         <v>66</v>
       </c>
       <c r="AO739" s="1"/>
+      <c r="AP739"/>
       <c r="AQ739" s="1" t="s">
         <v>1</v>
       </c>
@@ -80908,6 +82037,7 @@
       <c r="AL740" s="1"/>
       <c r="AN740" s="2"/>
       <c r="AO740" s="1"/>
+      <c r="AP740"/>
       <c r="AQ740" s="1" t="s">
         <v>1</v>
       </c>
@@ -81015,6 +82145,7 @@
       <c r="AL741" s="1"/>
       <c r="AN741" s="2"/>
       <c r="AO741" s="1"/>
+      <c r="AP741"/>
       <c r="AQ741" s="1" t="s">
         <v>1</v>
       </c>
@@ -81107,6 +82238,7 @@
       <c r="AL742" s="1"/>
       <c r="AN742" s="2"/>
       <c r="AO742" s="1"/>
+      <c r="AP742"/>
       <c r="AQ742" s="1" t="s">
         <v>1</v>
       </c>
@@ -81201,6 +82333,7 @@
       <c r="AL743" s="1"/>
       <c r="AN743" s="2"/>
       <c r="AO743" s="1"/>
+      <c r="AP743"/>
       <c r="AQ743" s="1" t="s">
         <v>1</v>
       </c>
@@ -81296,6 +82429,7 @@
       <c r="AL744" s="1"/>
       <c r="AN744" s="2"/>
       <c r="AO744" s="1"/>
+      <c r="AP744"/>
       <c r="AQ744" s="1" t="s">
         <v>1</v>
       </c>
@@ -81392,6 +82526,7 @@
       <c r="AL745" s="1"/>
       <c r="AN745" s="2"/>
       <c r="AO745" s="1"/>
+      <c r="AP745"/>
       <c r="AQ745" s="1" t="s">
         <v>1</v>
       </c>
@@ -81489,6 +82624,7 @@
       </c>
       <c r="AN746" s="2"/>
       <c r="AO746" s="1"/>
+      <c r="AP746"/>
       <c r="AQ746" s="1" t="s">
         <v>1</v>
       </c>
@@ -81594,6 +82730,7 @@
       <c r="AL747" s="1"/>
       <c r="AN747" s="2"/>
       <c r="AO747" s="1"/>
+      <c r="AP747"/>
       <c r="AQ747" s="1" t="s">
         <v>1</v>
       </c>
@@ -81695,7 +82832,7 @@
         <v>28</v>
       </c>
       <c r="AO748" s="1"/>
-      <c r="AP748" s="14" t="s">
+      <c r="AP748" s="15" t="s">
         <v>2635</v>
       </c>
       <c r="AQ748" s="1" t="s">
@@ -81783,6 +82920,7 @@
       <c r="AL749" s="1"/>
       <c r="AN749" s="2"/>
       <c r="AO749" s="1"/>
+      <c r="AP749"/>
       <c r="AQ749" s="1" t="s">
         <v>1</v>
       </c>
@@ -81878,6 +83016,7 @@
       <c r="AL750" s="1"/>
       <c r="AN750" s="2"/>
       <c r="AO750" s="1"/>
+      <c r="AP750"/>
       <c r="AQ750" s="1" t="s">
         <v>1</v>
       </c>
@@ -81966,6 +83105,7 @@
       <c r="AL751" s="1"/>
       <c r="AN751" s="2"/>
       <c r="AO751" s="1"/>
+      <c r="AP751"/>
       <c r="AQ751" s="1" t="s">
         <v>1</v>
       </c>
@@ -82058,6 +83198,7 @@
       <c r="AL752" s="1"/>
       <c r="AN752" s="2"/>
       <c r="AO752" s="1"/>
+      <c r="AP752"/>
       <c r="AQ752" s="1" t="s">
         <v>1</v>
       </c>
@@ -82157,6 +83298,7 @@
       <c r="AL753" s="1"/>
       <c r="AN753" s="2"/>
       <c r="AO753" s="1"/>
+      <c r="AP753"/>
       <c r="AQ753" s="1" t="s">
         <v>1</v>
       </c>
@@ -82242,6 +83384,7 @@
       <c r="AL754" s="1"/>
       <c r="AN754" s="2"/>
       <c r="AO754" s="1"/>
+      <c r="AP754"/>
       <c r="AQ754" s="1" t="s">
         <v>1</v>
       </c>
@@ -82341,6 +83484,7 @@
         <v>66</v>
       </c>
       <c r="AO755" s="1"/>
+      <c r="AP755"/>
       <c r="AQ755" s="1" t="s">
         <v>1</v>
       </c>
@@ -82433,6 +83577,7 @@
       <c r="AL756" s="1"/>
       <c r="AN756" s="2"/>
       <c r="AO756" s="1"/>
+      <c r="AP756"/>
       <c r="AQ756" s="1" t="s">
         <v>1</v>
       </c>
@@ -82528,6 +83673,7 @@
       <c r="AL757" s="1"/>
       <c r="AN757" s="2"/>
       <c r="AO757" s="1"/>
+      <c r="AP757"/>
       <c r="AQ757" s="1" t="s">
         <v>1</v>
       </c>
@@ -82629,7 +83775,7 @@
         <v>283</v>
       </c>
       <c r="AO758" s="1"/>
-      <c r="AP758" s="14" t="s">
+      <c r="AP758" s="15" t="s">
         <v>2636</v>
       </c>
       <c r="AQ758" s="1" t="s">
@@ -82739,6 +83885,7 @@
       <c r="AL759" s="1"/>
       <c r="AN759" s="2"/>
       <c r="AO759" s="1"/>
+      <c r="AP759"/>
       <c r="AQ759" s="1" t="s">
         <v>1</v>
       </c>
@@ -82833,6 +83980,7 @@
       <c r="AL760" s="1"/>
       <c r="AN760" s="2"/>
       <c r="AO760" s="1"/>
+      <c r="AP760"/>
       <c r="AQ760" s="1" t="s">
         <v>1</v>
       </c>
@@ -82926,6 +84074,7 @@
       <c r="AL761" s="1"/>
       <c r="AN761" s="2"/>
       <c r="AO761" s="1"/>
+      <c r="AP761"/>
       <c r="AQ761" s="1" t="s">
         <v>1</v>
       </c>
@@ -83013,6 +84162,7 @@
       <c r="AL762" s="1"/>
       <c r="AN762" s="2"/>
       <c r="AO762" s="1"/>
+      <c r="AP762"/>
       <c r="AQ762" s="1" t="s">
         <v>1</v>
       </c>
@@ -83117,6 +84267,7 @@
         <v>256</v>
       </c>
       <c r="AO763" s="1"/>
+      <c r="AP763"/>
       <c r="AQ763" s="1" t="s">
         <v>1</v>
       </c>
@@ -83208,6 +84359,7 @@
       <c r="AL764" s="1"/>
       <c r="AN764" s="2"/>
       <c r="AO764" s="1"/>
+      <c r="AP764"/>
       <c r="AQ764" s="1" t="s">
         <v>1</v>
       </c>
@@ -83298,6 +84450,7 @@
       <c r="AL765" s="1"/>
       <c r="AN765" s="2"/>
       <c r="AO765" s="1"/>
+      <c r="AP765"/>
       <c r="AQ765" s="1" t="s">
         <v>1</v>
       </c>
@@ -83393,6 +84546,7 @@
       <c r="AL766" s="1"/>
       <c r="AN766" s="2"/>
       <c r="AO766" s="1"/>
+      <c r="AP766"/>
       <c r="AQ766" s="1" t="s">
         <v>1</v>
       </c>
@@ -83478,6 +84632,7 @@
       <c r="AL767" s="1"/>
       <c r="AN767" s="2"/>
       <c r="AO767" s="1"/>
+      <c r="AP767"/>
       <c r="AQ767" s="1" t="s">
         <v>1</v>
       </c>
@@ -83574,6 +84729,7 @@
       <c r="AL768" s="1"/>
       <c r="AN768" s="2"/>
       <c r="AO768" s="1"/>
+      <c r="AP768"/>
       <c r="AQ768" s="1" t="s">
         <v>1</v>
       </c>
@@ -83671,6 +84827,7 @@
         <v>28</v>
       </c>
       <c r="AO769" s="1"/>
+      <c r="AP769"/>
       <c r="AQ769" s="1" t="s">
         <v>1</v>
       </c>
@@ -83776,6 +84933,7 @@
         <v>231</v>
       </c>
       <c r="AO770" s="1"/>
+      <c r="AP770"/>
       <c r="AQ770" s="1" t="s">
         <v>1</v>
       </c>
@@ -83873,6 +85031,7 @@
       </c>
       <c r="AN771" s="2"/>
       <c r="AO771" s="1"/>
+      <c r="AP771"/>
       <c r="AQ771" s="1" t="s">
         <v>1</v>
       </c>
@@ -83970,6 +85129,7 @@
       <c r="AL772" s="1"/>
       <c r="AN772" s="2"/>
       <c r="AO772" s="1"/>
+      <c r="AP772"/>
       <c r="AQ772" s="1" t="s">
         <v>1</v>
       </c>
@@ -84057,6 +85217,7 @@
       <c r="AL773" s="1"/>
       <c r="AN773" s="2"/>
       <c r="AO773" s="1"/>
+      <c r="AP773"/>
       <c r="AQ773" s="1" t="s">
         <v>1</v>
       </c>
@@ -84152,6 +85313,7 @@
       <c r="AL774" s="1"/>
       <c r="AN774" s="2"/>
       <c r="AO774" s="1"/>
+      <c r="AP774"/>
       <c r="AQ774" s="1" t="s">
         <v>1</v>
       </c>
@@ -84251,6 +85413,7 @@
         <v>217</v>
       </c>
       <c r="AO775" s="1"/>
+      <c r="AP775"/>
       <c r="AQ775" s="1" t="s">
         <v>1</v>
       </c>
@@ -84345,6 +85508,7 @@
       <c r="AL776" s="1"/>
       <c r="AN776" s="2"/>
       <c r="AO776" s="1"/>
+      <c r="AP776"/>
       <c r="AQ776" s="1" t="s">
         <v>1</v>
       </c>
@@ -84449,6 +85613,7 @@
       </c>
       <c r="AN777" s="2"/>
       <c r="AO777" s="1"/>
+      <c r="AP777"/>
       <c r="AQ777" s="1" t="s">
         <v>1</v>
       </c>
@@ -84541,6 +85706,7 @@
       <c r="AL778" s="1"/>
       <c r="AN778" s="2"/>
       <c r="AO778" s="1"/>
+      <c r="AP778"/>
       <c r="AQ778" s="1" t="s">
         <v>1</v>
       </c>
@@ -84635,6 +85801,7 @@
       <c r="AL779" s="1"/>
       <c r="AN779" s="2"/>
       <c r="AO779" s="1"/>
+      <c r="AP779"/>
       <c r="AQ779" s="1" t="s">
         <v>1</v>
       </c>
@@ -84835,6 +86002,7 @@
       <c r="AL781" s="1"/>
       <c r="AN781" s="2"/>
       <c r="AO781" s="1"/>
+      <c r="AP781"/>
       <c r="AQ781" s="1" t="s">
         <v>1</v>
       </c>
@@ -84936,6 +86104,7 @@
         <v>189</v>
       </c>
       <c r="AO782" s="1"/>
+      <c r="AP782"/>
       <c r="AQ782" s="1" t="s">
         <v>1</v>
       </c>
@@ -85032,6 +86201,7 @@
       <c r="AL783" s="1"/>
       <c r="AN783" s="2"/>
       <c r="AO783" s="1"/>
+      <c r="AP783"/>
       <c r="AQ783" s="1" t="s">
         <v>1</v>
       </c>
@@ -85121,6 +86291,7 @@
       <c r="AL784" s="1"/>
       <c r="AN784" s="2"/>
       <c r="AO784" s="1"/>
+      <c r="AP784"/>
       <c r="AQ784" s="1" t="s">
         <v>1</v>
       </c>
@@ -85213,6 +86384,7 @@
       <c r="AL785" s="1"/>
       <c r="AN785" s="2"/>
       <c r="AO785" s="1"/>
+      <c r="AP785"/>
       <c r="AQ785" s="1" t="s">
         <v>1</v>
       </c>
@@ -85305,6 +86477,7 @@
       <c r="AL786" s="1"/>
       <c r="AN786" s="2"/>
       <c r="AO786" s="1"/>
+      <c r="AP786"/>
       <c r="AQ786" s="1" t="s">
         <v>1</v>
       </c>
@@ -85397,6 +86570,7 @@
       <c r="AL787" s="1"/>
       <c r="AN787" s="2"/>
       <c r="AO787" s="1"/>
+      <c r="AP787"/>
       <c r="AQ787" s="1" t="s">
         <v>1</v>
       </c>
@@ -85496,6 +86670,7 @@
       <c r="AL788" s="1"/>
       <c r="AN788" s="2"/>
       <c r="AO788" s="1"/>
+      <c r="AP788"/>
       <c r="AQ788" s="1" t="s">
         <v>1</v>
       </c>
@@ -85597,6 +86772,7 @@
         <v>28</v>
       </c>
       <c r="AO789" s="1"/>
+      <c r="AP789"/>
       <c r="AQ789" s="1" t="s">
         <v>1</v>
       </c>
@@ -85696,6 +86872,7 @@
       <c r="AL790" s="1"/>
       <c r="AN790" s="2"/>
       <c r="AO790" s="1"/>
+      <c r="AP790"/>
       <c r="AQ790" s="1" t="s">
         <v>1</v>
       </c>
@@ -85793,6 +86970,7 @@
       <c r="AL791" s="1"/>
       <c r="AN791" s="2"/>
       <c r="AO791" s="1"/>
+      <c r="AP791"/>
       <c r="AQ791" s="1" t="s">
         <v>1</v>
       </c>
@@ -85882,6 +87060,7 @@
       <c r="AL792" s="1"/>
       <c r="AN792" s="2"/>
       <c r="AO792" s="1"/>
+      <c r="AP792"/>
       <c r="AQ792" s="1" t="s">
         <v>1</v>
       </c>
@@ -85980,6 +87159,7 @@
       <c r="AL793" s="1"/>
       <c r="AN793" s="2"/>
       <c r="AO793" s="1"/>
+      <c r="AP793"/>
       <c r="AQ793" s="1" t="s">
         <v>1</v>
       </c>
@@ -86070,6 +87250,7 @@
       <c r="AL794" s="1"/>
       <c r="AN794" s="2"/>
       <c r="AO794" s="1"/>
+      <c r="AP794"/>
       <c r="AQ794" s="1" t="s">
         <v>1</v>
       </c>
@@ -86184,6 +87365,7 @@
       <c r="AL795" s="1"/>
       <c r="AN795" s="2"/>
       <c r="AO795" s="1"/>
+      <c r="AP795"/>
       <c r="AQ795" s="1" t="s">
         <v>1</v>
       </c>
@@ -86290,6 +87472,7 @@
         <v>127</v>
       </c>
       <c r="AO796" s="1"/>
+      <c r="AP796"/>
       <c r="AQ796" s="1" t="s">
         <v>1</v>
       </c>
@@ -86384,6 +87567,7 @@
       <c r="AL797" s="1"/>
       <c r="AN797" s="2"/>
       <c r="AO797" s="1"/>
+      <c r="AP797"/>
       <c r="AQ797" s="1" t="s">
         <v>1</v>
       </c>
@@ -86487,6 +87671,7 @@
         <v>28</v>
       </c>
       <c r="AO798" s="1"/>
+      <c r="AP798"/>
       <c r="AQ798" s="1" t="s">
         <v>1</v>
       </c>
@@ -86577,6 +87762,7 @@
       <c r="AL799" s="1"/>
       <c r="AN799" s="2"/>
       <c r="AO799" s="1"/>
+      <c r="AP799"/>
       <c r="AQ799" s="1" t="s">
         <v>1</v>
       </c>
@@ -86679,6 +87865,7 @@
       <c r="AL800" s="1"/>
       <c r="AN800" s="2"/>
       <c r="AO800" s="1"/>
+      <c r="AP800"/>
       <c r="AQ800" s="1" t="s">
         <v>1</v>
       </c>
@@ -86780,6 +87967,7 @@
         <v>28</v>
       </c>
       <c r="AO801" s="1"/>
+      <c r="AP801"/>
       <c r="AQ801" s="1" t="s">
         <v>1</v>
       </c>
@@ -86881,6 +88069,7 @@
         <v>28</v>
       </c>
       <c r="AO802" s="1"/>
+      <c r="AP802"/>
       <c r="AQ802" s="1" t="s">
         <v>1</v>
       </c>
@@ -86984,6 +88173,7 @@
         <v>28</v>
       </c>
       <c r="AO803" s="1"/>
+      <c r="AP803"/>
       <c r="AQ803" s="1" t="s">
         <v>1</v>
       </c>
@@ -87081,6 +88271,7 @@
       <c r="AL804" s="1"/>
       <c r="AN804" s="2"/>
       <c r="AO804" s="1"/>
+      <c r="AP804"/>
       <c r="AQ804" s="1" t="s">
         <v>1</v>
       </c>
@@ -87172,6 +88363,7 @@
       <c r="AL805" s="1"/>
       <c r="AN805" s="2"/>
       <c r="AO805" s="1"/>
+      <c r="AP805"/>
       <c r="AQ805" s="1" t="s">
         <v>1</v>
       </c>
@@ -87275,6 +88467,7 @@
         <v>28</v>
       </c>
       <c r="AO806" s="1"/>
+      <c r="AP806"/>
       <c r="AQ806" s="1" t="s">
         <v>1</v>
       </c>
@@ -87370,6 +88563,7 @@
       <c r="AL807" s="1"/>
       <c r="AN807" s="2"/>
       <c r="AO807" s="1"/>
+      <c r="AP807"/>
       <c r="AQ807" s="1" t="s">
         <v>1</v>
       </c>
@@ -87464,6 +88658,7 @@
       <c r="AL808" s="1"/>
       <c r="AN808" s="2"/>
       <c r="AO808" s="1"/>
+      <c r="AP808"/>
       <c r="AQ808" s="1" t="s">
         <v>1</v>
       </c>
@@ -87558,6 +88753,7 @@
       <c r="AL809" s="1"/>
       <c r="AN809" s="2"/>
       <c r="AO809" s="1"/>
+      <c r="AP809"/>
       <c r="AQ809" s="1" t="s">
         <v>1</v>
       </c>
@@ -87664,6 +88860,7 @@
         <v>66</v>
       </c>
       <c r="AO810" s="1"/>
+      <c r="AP810"/>
       <c r="AQ810" s="1" t="s">
         <v>1</v>
       </c>
@@ -87759,6 +88956,7 @@
       <c r="AL811" s="1"/>
       <c r="AN811" s="2"/>
       <c r="AO811" s="1"/>
+      <c r="AP811"/>
       <c r="AQ811" s="1" t="s">
         <v>1</v>
       </c>
@@ -87856,6 +89054,7 @@
       <c r="AL812" s="1"/>
       <c r="AN812" s="2"/>
       <c r="AO812" s="1"/>
+      <c r="AP812"/>
       <c r="AQ812" s="1" t="s">
         <v>1</v>
       </c>
@@ -87961,6 +89160,7 @@
       <c r="AL813" s="1"/>
       <c r="AN813" s="2"/>
       <c r="AO813" s="1"/>
+      <c r="AP813"/>
       <c r="AQ813" s="1" t="s">
         <v>1</v>
       </c>
@@ -88050,6 +89250,7 @@
       <c r="AL814" s="1"/>
       <c r="AN814" s="2"/>
       <c r="AO814" s="1"/>
+      <c r="AP814"/>
       <c r="AQ814" s="1" t="s">
         <v>1</v>
       </c>
@@ -88149,7 +89350,7 @@
         <v>32</v>
       </c>
       <c r="AO815" s="1"/>
-      <c r="AP815" s="14" t="s">
+      <c r="AP815" s="15" t="s">
         <v>2637</v>
       </c>
       <c r="AQ815" s="1" t="s">
@@ -88253,6 +89454,7 @@
         <v>28</v>
       </c>
       <c r="AO816" s="1"/>
+      <c r="AP816"/>
       <c r="AQ816" s="1" t="s">
         <v>1</v>
       </c>
@@ -88352,6 +89554,7 @@
       <c r="AL817" s="1"/>
       <c r="AN817" s="2"/>
       <c r="AO817" s="1"/>
+      <c r="AP817"/>
       <c r="AQ817" s="1" t="s">
         <v>1</v>
       </c>
@@ -88449,6 +89652,7 @@
       </c>
       <c r="AN818" s="2"/>
       <c r="AO818" s="1"/>
+      <c r="AP818"/>
       <c r="AQ818" s="1" t="s">
         <v>1</v>
       </c>
@@ -88548,6 +89752,7 @@
       </c>
       <c r="AN819" s="2"/>
       <c r="AO819" s="1"/>
+      <c r="AP819"/>
       <c r="AQ819" s="1" t="s">
         <v>1</v>
       </c>
@@ -88991,4 +90196,1906 @@
     <tablePart r:id="rId425"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D390B2A-CBEC-4123-A1BE-2CF75EEB20A8}">
+  <dimension ref="A1:D156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="74.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A16:A29">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF(#REF!, $A16)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657ACD32-8612-4279-A8BE-9D76E07243A6}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="101.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($B$2:$B$50, $A2)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ETS Software Listing 20200721.xlsx
+++ b/ETS Software Listing 20200721.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ASEULA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F92E5-0A62-4DE1-AF1A-70C08CD1C76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F2FBD-63C7-4332-821C-E366C81E8ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="38430" windowHeight="15630" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
   </bookViews>
   <sheets>
     <sheet name="20200721" sheetId="1" r:id="rId1"/>
-    <sheet name="Output Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Output Performance" sheetId="5" r:id="rId2"/>
     <sheet name="Restriction Sentences" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15925" uniqueCount="2777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16308" uniqueCount="2812">
   <si>
     <t>sites/Fulton/ETS/sysmgmt/software/Lists/Software</t>
   </si>
@@ -8263,422 +8263,527 @@
     <t>http://st-download.mediag.com/stfiles/download/85/Altair_License_Management_System_11%200_1.pdf</t>
   </si>
   <si>
+    <t>If You have purchased a Floating Node Seat, You may also copy the Licensed Software onto another computer (or access it through networked workstations) for Use by another User; provided however, that all Users agree to accept the terms and conditions of this Agreement in writing prior to Using the Licensed Software.</t>
+  </si>
+  <si>
+    <t>You may not use, copy, modify, distribute, or otherwise transfer the Licensed Software or any portions thereof, or permit any remote access thereof by any person or entity.</t>
+  </si>
+  <si>
+    <t>Whenever You receive a new License Key in order to effect a transfer to new Designated Equipment, You will immediately cease to Use the Licensed Software under the previously issued License Key.</t>
+  </si>
+  <si>
+    <t>You may change the Designated Equipment as permitted by the customer self- service license center, with further changes permitted only upon consent of Intel.</t>
+  </si>
+  <si>
+    <t>In order to generate License Keys, You must provide Intel with the Designated Equipment's host identification number, which Intel will include in the applicable License Key.</t>
+  </si>
+  <si>
+    <t>Designated Equipment.</t>
+  </si>
+  <si>
+    <t>Use means downloading, installing and/or copying all or any portion of the Licensed Software into the Designated Equipment for processing the instructions contained in the Licensed Software, and/or loading data into or displaying, viewing or extracting output results from, or otherwise operating, any portion of the Licensed Software.</t>
+  </si>
+  <si>
+    <t>Designated Equipment" means the computer system identified by a network interface card or host id number on which the Licensed Software is installed and Used, and which has the configuration, capacity, operating system version level, and pre-requisite applications described in the Documentation as necessary for the operation of the Licensed Software, and is designated by the network interface card or host id in the License Key as the computer system on which the License Key management software will be installed.</t>
+  </si>
+  <si>
+    <t>any business, marketing, technical, scientific or financial information disclosed to You by Intel or an Authorized Distributor; or  any information which, at the time of disclosure, is designated in writing as confidential or proprietary, or similar designation, is disclosed in circumstances of confidence, or would be reasonably understood by a person, exercising business judgment, to be confidential.</t>
+  </si>
+  <si>
+    <t>If You have obtained the Licensed Software through the Intel fpga University Program, then You are only permitted to Use the Licensed Software for educational and academic purposes and cannot Use the Licensed Software for any commercial purposes.</t>
+  </si>
+  <si>
+    <t>Specification" means technical data in human or machine readable form furnished by Intel which:  provides operating instructions for using the Licensed Software, or  explains the capabilities and functions of such items, and any full or partial copies of any such technical data.</t>
+  </si>
+  <si>
+    <t>which:  provides operating instructions for using or  explains the capabilities and functions of the Licensed Software.</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>ASEULA_FINAL</t>
+  </si>
+  <si>
+    <t>Instructional-use only</t>
+  </si>
+  <si>
+    <t>Research-use only</t>
+  </si>
+  <si>
+    <t>Use geographically limited(campus)</t>
+  </si>
+  <si>
+    <t>Use geographically limited(radius)</t>
+  </si>
+  <si>
+    <t>VPN required off-site</t>
+  </si>
+  <si>
+    <t>Block Persons of Concern</t>
+  </si>
+  <si>
+    <t>Virtualization allowed</t>
+  </si>
+  <si>
+    <t>Dongle/Key required</t>
+  </si>
+  <si>
+    <t>RDP allowed</t>
+  </si>
+  <si>
+    <t>RDP prohibited</t>
+  </si>
+  <si>
+    <t>On-site use only</t>
+  </si>
+  <si>
+    <t>North of South America</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Proposed Change</t>
+  </si>
+  <si>
+    <t>Information Summary</t>
+  </si>
+  <si>
+    <t>File processing complete. (Processing time: 21.555622096666664 Minutes)</t>
+  </si>
+  <si>
+    <t>Here's what we found for ADS_Keysight.pdf</t>
+  </si>
+  <si>
     <t>-----------------------</t>
   </si>
   <si>
-    <t>Licensing Restrictions:  Instructional-use only</t>
+    <t>Software:  Keysight</t>
+  </si>
+  <si>
+    <t>Publisher:  Keysight Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.keysight.com10</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), On-site use for on-site students only, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Here's what we found for Altair_License_Management_System_BIG.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Altair</t>
+  </si>
+  <si>
+    <t>Publisher:  Altair Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  urt.sh</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Needs Review</t>
+  </si>
+  <si>
+    <t>Here's what we found for Anaconda_Individual_Edition.docx</t>
+  </si>
+  <si>
+    <t>Software:  Anaconda</t>
+  </si>
+  <si>
+    <t>Publisher:  Unknown</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://docs.anaconda.com/anaconda/pkg-docs</t>
   </si>
   <si>
     <t>Licensing Restrictions:  US use only, Block embargoed countries</t>
   </si>
   <si>
+    <t>Here's what we found for Ansys19.pdf</t>
+  </si>
+  <si>
+    <t>Software:  User</t>
+  </si>
+  <si>
+    <t>Information Webpage:  Unknown</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (Campus), Use geographically limited (radius), Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Anylogic_PLE.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Ln</t>
+  </si>
+  <si>
+    <t>Publisher:  Llc</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.anylogic.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only, No RDP use, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Here's what we found for Autodesk.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Autodesk</t>
+  </si>
+  <si>
+    <t>Publisher:  Autodesk, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://download.autodesk.com/us/fy</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (Campus), VPN required off-site, Instructional-use only, No RDP use, Block embargoed countries, US use only, Research-use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Automation_Studio.pdf</t>
+  </si>
+  <si>
+    <t>Software:  cece</t>
+  </si>
+  <si>
+    <t>Publisher:  Famic Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.automationstudio.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Block embargoed countries, On-site use for on-site students only, Instructional-use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Axure.txt</t>
+  </si>
+  <si>
+    <t>Software:  Services</t>
+  </si>
+  <si>
+    <t>Publisher:  Amazon Web Services, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.axure.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (radius), Instructional-use only, Research-use only, US use only, No RDP use, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Here's what we found for Bluebeam_Revu.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Bluebeam</t>
+  </si>
+  <si>
+    <t>Publisher:  Bluebeam, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https:/Awww.bluebeam.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Block embargoed countries, Instructional-use only, US use only, Block use from Persons of Concern</t>
+  </si>
+  <si>
+    <t>Here's what we found for Bluebeam_Revu_O.pdf</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https:/Awww.bluebeam.comlegal/</t>
+  </si>
+  <si>
+    <t>Here's what we found for Cadence-tbl-v8.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Cadence, ce</t>
+  </si>
+  <si>
+    <t>Publisher:  Cadence Design Systems, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.cadence.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only, Block embargoed countries, Requires Physical Device</t>
+  </si>
+  <si>
+    <t>Here's what we found for COMSOL_5.5.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Compiled</t>
+  </si>
+  <si>
+    <t>Publisher:  Siemens Product Lifecycle Management Software Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.comsol.com/trademarks</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Block embargoed countries, Research-use only, On-site use for on-site students only, VPN required off-site, No RDP use, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for digilent.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Henley</t>
+  </si>
+  <si>
+    <t>Publisher:  Digilent, Inc.</t>
+  </si>
+  <si>
+    <t>Here's what we found for Maplesoft_EULA.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Maplesoft</t>
+  </si>
+  <si>
+    <t>Publisher:  Waterloo Maple Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.maplesoft.com/contact</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Quartus_Prime.txt</t>
+  </si>
+  <si>
+    <t>Software:  License</t>
+  </si>
+  <si>
+    <t>Publisher:  Codesourcery Inc License</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Instructional-use only, Use geographically limited (Campus), Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Rockwell-EULA.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Rev</t>
+  </si>
+  <si>
+    <t>Publisher:  Rockwell Automation, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  activate.rockwellautomation.com</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (radius), Use geographically limited (Campus), Instructional-use only, Research-use only, Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for SIMULIA_Abaqus_2018.txt</t>
+  </si>
+  <si>
+    <t>Software:  simulia</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.3ds.com/terms/price</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Here's what we found for Solidworks.txt</t>
+  </si>
+  <si>
+    <t>Software:  Data</t>
+  </si>
+  <si>
+    <t>Publisher:  Adobe Systems Incorporated</t>
+  </si>
+  <si>
+    <t>Information Webpage:  http://www.3ds.com/terms/ost</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Block embargoed countries, Instructional-use only, Research-use only, VPN required off-site, US use only, No RDP use</t>
+  </si>
+  <si>
+    <t>Here's what we found for SPM_Cart_Pro.txt</t>
+  </si>
+  <si>
+    <t>Software:  Bruce, Pincus</t>
+  </si>
+  <si>
+    <t>Publisher:  Bruce Pincus</t>
+  </si>
+  <si>
+    <t>Information Webpage:  Minitab.com</t>
+  </si>
+  <si>
+    <t>Here's what we found for Stratasys_Insight.txt</t>
+  </si>
+  <si>
+    <t>Software:  Consumables</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https://www.stratasys.com/legal/terms-and-conditions-of-sale</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Block embargoed countries, Block use from Persons of Concern, US use only</t>
+  </si>
+  <si>
+    <t>Here's what we found for Synopsys.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Synopsys</t>
+  </si>
+  <si>
+    <t>Publisher:  Synopsys, Inc.</t>
+  </si>
+  <si>
+    <t>Information Webpage:  https://www.synopsys.com/company/legal/software-</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only, Block embargoed countries, On-site use for on-site students only, Block use from Persons of Concern, Use geographically limited (Campus)</t>
+  </si>
+  <si>
+    <t>Here's what we found for Unity.txt</t>
+  </si>
+  <si>
+    <t>Software:  Pro</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, No RDP use, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Here's what we found for Vernier_Sensordaq.txt</t>
+  </si>
+  <si>
+    <t>Software:  Vernier</t>
+  </si>
+  <si>
+    <t>Information Webpage:  www.vernier.com</t>
+  </si>
+  <si>
     <t>Licensing Restrictions:  US use only</t>
   </si>
   <si>
-    <t>Information Webpage:  Unknown</t>
+    <t>Here's what we found for Xilinx_Vivado_HLS.pdf</t>
+  </si>
+  <si>
+    <t>Software:  Xilinx</t>
   </si>
   <si>
     <t>Publisher:  Xilinx, Inc.</t>
   </si>
   <si>
-    <t>Software:  Xilinx</t>
-  </si>
-  <si>
-    <t>Here's what we found for Xilinx_Vivado_HLS.pdf</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.vernier.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Llc</t>
-  </si>
-  <si>
-    <t>Software:  Vernier</t>
-  </si>
-  <si>
-    <t>Here's what we found for Vernier_Sensordaq.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, No RDP use</t>
-  </si>
-  <si>
-    <t>Publisher:  Unknown</t>
-  </si>
-  <si>
-    <t>Software:  Pro</t>
-  </si>
-  <si>
-    <t>Here's what we found for Unity.txt</t>
+    <t>Licensing Restrictions:  Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>ASEULA_FINAL_v2</t>
+  </si>
+  <si>
+    <t>File processing complete. (Processing time: 21.879501678333334 Minutes)</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), US use only, VPN required off-site, Block embargoed countries, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Requires Physical Device, US use only, VPN required off-site</t>
   </si>
   <si>
     <t>Licensing Restrictions:  Instructional-use only, US use only, Block embargoed countries</t>
   </si>
   <si>
-    <t>Licensing Restrictions:  Block embargoed countries, On-site use for on-site students only</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  On-site use for on-site students only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  https://www.synopsys.com/company/legal/software-</t>
-  </si>
-  <si>
-    <t>Publisher:  Synopsys, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Synopsys</t>
-  </si>
-  <si>
-    <t>Here's what we found for Synopsys18.pdf</t>
-  </si>
-  <si>
-    <t>Information Webpage:  https://www.stratasys.com/legal/terms-and-conditions-of-sale</t>
-  </si>
-  <si>
-    <t>Software:  Consumables</t>
-  </si>
-  <si>
-    <t>Here's what we found for Stratasys_Insight.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Needs Review</t>
-  </si>
-  <si>
-    <t>Information Webpage:  Minitab.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Bruce Pincus</t>
-  </si>
-  <si>
-    <t>Software:  Bruce, Pincus</t>
-  </si>
-  <si>
-    <t>Here's what we found for SPM_Cart_Pro.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only, VPN required off-site, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, VPN required off-site, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, VPN required off-site</t>
-  </si>
-  <si>
-    <t>Information Webpage:  http://www.3ds.com/terms/ost</t>
-  </si>
-  <si>
-    <t>Publisher:  Adobe Systems Incorporated</t>
-  </si>
-  <si>
-    <t>Software:  Data</t>
-  </si>
-  <si>
-    <t>Here's what we found for Solidworks.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  http://www.3ds.com/terms/price</t>
-  </si>
-  <si>
-    <t>Software:  simulia</t>
-  </si>
-  <si>
-    <t>Here's what we found for SIMULIA_Abaqus_2018.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Use geographically limited (Campus), US use only, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Use geographically limited (radius), Instructional-use only, Research-use only, US use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  activate.rockwellautomation.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Rockwell Automation, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Rev</t>
-  </si>
-  <si>
-    <t>Here's what we found for Rockwell-EULA-and-Addendum_English-Final2019.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, No RDP use, US use only</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, No RDP use, Use geographically limited (Campus), US use only, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use, Instructional-use only, US use only</t>
-  </si>
-  <si>
-    <t>Publisher:  Codesourcery Inc License</t>
-  </si>
-  <si>
-    <t>Software:  License</t>
-  </si>
-  <si>
-    <t>Here's what we found for Quartus_Prime.txt</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  http://www.maplesoft.com/contact</t>
-  </si>
-  <si>
-    <t>Publisher:  Waterloo Maple Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Maplesoft</t>
-  </si>
-  <si>
-    <t>Here's what we found for Maplesoft_EULA.pdf</t>
-  </si>
-  <si>
-    <t>Publisher:  Digilent, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Henley</t>
-  </si>
-  <si>
-    <t>Here's what we found for digilent.pdf</t>
+    <t>Licensing Restrictions:  Research-use only, Use geographically limited (Campus), Use geographically limited (radius), US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, Use geographically limited (Campus), US use only, VPN required off-site, Block embargoed countries, Virtualization Allowed</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, US use only, Block embargoed countries, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, Use geographically limited (radius), US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, US use only, Block embargoed countries, Block use from Persons of Concern, Virtualization Allowed</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Requires Physical Device, US use only, VPN required off-site, Block embargoed countries</t>
   </si>
   <si>
     <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only, VPN required off-site, Block embargoed countries, On-site use for on-site students only</t>
   </si>
   <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, On-site use for on-site students only, VPN required off-site, US use only, Block embargoed countries, No RDP use</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.comsol.com/trademarks</t>
-  </si>
-  <si>
-    <t>Publisher:  Siemens Product Lifecycle Management Software Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Compiled</t>
-  </si>
-  <si>
-    <t>Here's what we found for COMSOL_5.5_SoftwareLicenseAgreement.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Requires Physical Device, No RDP use, US use only, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Requires Physical Device, US use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.cadence.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Cadence Design Systems, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Cadence, ce</t>
-  </si>
-  <si>
-    <t>Here's what we found for Cadence-tbl-v8.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Information Webpage:  https:/Awww.bluebeam.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Bluebeam, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Bluebeam</t>
-  </si>
-  <si>
-    <t>Here's what we found for Bluebeam_Revu.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  On-site use for on-site students only, Instructional-use only, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.automationstudio.com</t>
-  </si>
-  <si>
-    <t>Publisher:  Famic Technologies Inc.</t>
-  </si>
-  <si>
-    <t>Software:  cece</t>
-  </si>
-  <si>
-    <t>Here's what we found for Automation_Studio.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, No RDP use, Use geographically limited (Campus), VPN required off-site, Virtualization Allowed</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Use geographically limited (Campus), VPN required off-site, Block embargoed countries, Virtualization Allowed</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  VPN required off-site, Instructional-use only, Research-use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  http://download.autodesk.com/us/fy</t>
-  </si>
-  <si>
-    <t>Publisher:  Autodesk, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Autodesk</t>
-  </si>
-  <si>
-    <t>Here's what we found for Autodesk.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use, US use only, Block embargoed countries</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.anylogic.com</t>
-  </si>
-  <si>
-    <t>Software:  Ln</t>
-  </si>
-  <si>
-    <t>Here's what we found for Anylogic_PLE.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Instructional-use only, Use geographically limited (Campus), Use geographically limited (radius)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licensing Restrictions:  Use geographically limited (Campus), Use geographically limited (radius), Block embargoed countries       </t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  Use geographically limited (Campus), Use geographically limited (radius)</t>
-  </si>
-  <si>
-    <t>Software:  User</t>
-  </si>
-  <si>
-    <t>Here's what we found for Ansys19.pdf</t>
-  </si>
-  <si>
-    <t>Information Webpage:  http://docs.anaconda.com/anaconda/pkg-docs</t>
-  </si>
-  <si>
-    <t>Software:  Anaconda</t>
-  </si>
-  <si>
-    <t>Here's what we found for Anaconda_Individual_Edition.docx</t>
-  </si>
-  <si>
-    <t>Information Webpage:  urt.sh</t>
-  </si>
-  <si>
-    <t>Publisher:  Altair Engineering, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Altair</t>
-  </si>
-  <si>
-    <t>Here's what we found for Altair_License_Management_System_BIG.pdf</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), US use only, On-site use for on-site students only</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), US use only, Block embargoed countries, On-site use for on-site students only</t>
-  </si>
-  <si>
-    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), On-site use for on-site students only, US use only</t>
-  </si>
-  <si>
-    <t>Information Webpage:  www.keysight.com10</t>
-  </si>
-  <si>
-    <t>Publisher:  Keysight Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Software:  Keysight</t>
-  </si>
-  <si>
-    <t>Here's what we found for ADS_Keysight.pdf</t>
-  </si>
-  <si>
-    <t>Execution time: 19.767368345 Minutes</t>
-  </si>
-  <si>
-    <t>Job runtime: 43.63153139166666 Minutes</t>
-  </si>
-  <si>
-    <t>Execution time: 19.896659191666668 Minutes</t>
-  </si>
-  <si>
-    <t>RBM</t>
-  </si>
-  <si>
-    <t>Regex w/ Validation</t>
-  </si>
-  <si>
-    <t>Regex w/o Validation</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>If You have purchased a Floating Node Seat, You may also copy the Licensed Software onto another computer (or access it through networked workstations) for Use by another User; provided however, that all Users agree to accept the terms and conditions of this Agreement in writing prior to Using the Licensed Software.</t>
-  </si>
-  <si>
-    <t>You may not use, copy, modify, distribute, or otherwise transfer the Licensed Software or any portions thereof, or permit any remote access thereof by any person or entity.</t>
-  </si>
-  <si>
-    <t>Whenever You receive a new License Key in order to effect a transfer to new Designated Equipment, You will immediately cease to Use the Licensed Software under the previously issued License Key.</t>
-  </si>
-  <si>
-    <t>You may change the Designated Equipment as permitted by the customer self- service license center, with further changes permitted only upon consent of Intel.</t>
-  </si>
-  <si>
-    <t>In order to generate License Keys, You must provide Intel with the Designated Equipment's host identification number, which Intel will include in the applicable License Key.</t>
-  </si>
-  <si>
-    <t>Designated Equipment.</t>
-  </si>
-  <si>
-    <t>Use means downloading, installing and/or copying all or any portion of the Licensed Software into the Designated Equipment for processing the instructions contained in the Licensed Software, and/or loading data into or displaying, viewing or extracting output results from, or otherwise operating, any portion of the Licensed Software.</t>
-  </si>
-  <si>
-    <t>Designated Equipment" means the computer system identified by a network interface card or host id number on which the Licensed Software is installed and Used, and which has the configuration, capacity, operating system version level, and pre-requisite applications described in the Documentation as necessary for the operation of the Licensed Software, and is designated by the network interface card or host id in the License Key as the computer system on which the License Key management software will be installed.</t>
-  </si>
-  <si>
-    <t>any business, marketing, technical, scientific or financial information disclosed to You by Intel or an Authorized Distributor; or  any information which, at the time of disclosure, is designated in writing as confidential or proprietary, or similar designation, is disclosed in circumstances of confidence, or would be reasonably understood by a person, exercising business judgment, to be confidential.</t>
-  </si>
-  <si>
-    <t>If You have obtained the Licensed Software through the Intel fpga University Program, then You are only permitted to Use the Licensed Software for educational and academic purposes and cannot Use the Licensed Software for any commercial purposes.</t>
-  </si>
-  <si>
-    <t>Specification" means technical data in human or machine readable form furnished by Intel which:  provides operating instructions for using the Licensed Software, or  explains the capabilities and functions of such items, and any full or partial copies of any such technical data.</t>
-  </si>
-  <si>
-    <t>which:  provides operating instructions for using or  explains the capabilities and functions of the Licensed Software.</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>ASEULA_FINAL</t>
+    <t>Licensing Restrictions:  Instructional-use only, US use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, US use only, VPN required off-site, Block embargoed countries, Virtualization Allowed</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Requires Physical Device, No RDP use, Use geographically limited (Campus), US use only, VPN required off-site, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Requires Physical Device, Use geographically limited (Campus), Use geographically limited (radius), US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, US use only, VPN required off-site, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, Requires Physical Device, No RDP use, US use only, VPN required off-site, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, US use only, Block embargoed countries, Block use from Persons of Concern</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Use geographically limited (Campus), US use only, Block embargoed countries, Block use from Persons of Concern, On-site use for on-site students only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Regex w/ word order check</t>
+  </si>
+  <si>
+    <t>Search Method Results with identical restriction values</t>
+  </si>
+  <si>
+    <t>File processing complete. (Processing time: 21.56777754666667 Minutes)</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  No RDP use, Use geographically limited (radius), VPN required off-site, On-site use for on-site students only, US use only, Block embargoed countries</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  US use only, Block embargoed countries, VPN required off-site, Requires Physical Device, Instructional-use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Instructional-use only, Research-use only, No RDP use, VPN required off-site, Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, No RDP use, VPN required off-site, Instructional-use only, Use geographically limited (Campus), Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, Block embargoed countries, Instructional-use only, Research-use only, VPN required off-site, US use only, No RDP use</t>
+  </si>
+  <si>
+    <t>Licensing Restrictions:  Requires Physical Device, Block embargoed countries, US use only</t>
+  </si>
+  <si>
+    <t>Doc Available</t>
+  </si>
+  <si>
+    <t>Matched</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8737,22 +8842,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -8760,12 +8874,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8802,15 +9030,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9032,50 +9384,50 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{896C48B2-22DC-4816-925C-B048C3598701}" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{F4A12026-ED1E-439D-9B37-A3B4663B7F4B}" uniqueName="Current_x005f_x0020_Version" name="Current Version(s)" queryTableFieldId="2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{02FB8763-317D-4A54-B306-4C9D8A589E6D}" uniqueName="Older_x005f_x0020_Versions" name="Older Versions" queryTableFieldId="35" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{896C48B2-22DC-4816-925C-B048C3598701}" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{F4A12026-ED1E-439D-9B37-A3B4663B7F4B}" uniqueName="Current_x005f_x0020_Version" name="Current Version(s)" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{02FB8763-317D-4A54-B306-4C9D8A589E6D}" uniqueName="Older_x005f_x0020_Versions" name="Older Versions" queryTableFieldId="35" dataDxfId="36"/>
     <tableColumn id="4" xr3:uid="{588A9D10-0099-4B39-A4FC-960C7F3B9EFB}" uniqueName="Support_x005f_x0020_Contact" name="Support Contact" queryTableFieldId="10"/>
-    <tableColumn id="5" xr3:uid="{F4A49A77-01A4-425C-93B9-2B350EC3549E}" uniqueName="Available_x005f_x0020_on_x005f_x0020_MyApps_" name="Available on MyApps?" queryTableFieldId="30" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{BEE94145-6156-441A-9B19-0FD6EE65B13B}" uniqueName="License_x005f_x0020_Manager" name="Contacts License Manager?" queryTableFieldId="18" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{AE17FA82-2AFA-472B-B49E-C4254FF64F93}" uniqueName="ETS_x005f_x0020_Managed_x005f_x0020_LM_x003f" name="ETS Managed LM?" queryTableFieldId="19" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{F4A49A77-01A4-425C-93B9-2B350EC3549E}" uniqueName="Available_x005f_x0020_on_x005f_x0020_MyApps_" name="Available on MyApps?" queryTableFieldId="30" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{BEE94145-6156-441A-9B19-0FD6EE65B13B}" uniqueName="License_x005f_x0020_Manager" name="Contacts License Manager?" queryTableFieldId="18" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{AE17FA82-2AFA-472B-B49E-C4254FF64F93}" uniqueName="ETS_x005f_x0020_Managed_x005f_x0020_LM_x003f" name="ETS Managed LM?" queryTableFieldId="19" dataDxfId="33"/>
     <tableColumn id="8" xr3:uid="{727244E4-AD16-42D0-887B-4A986D2A3CA9}" uniqueName="Planned_x005f_x0020_for_x005f_x0020_Labs" name="Planned for Labs" queryTableFieldId="12"/>
     <tableColumn id="9" xr3:uid="{6E354BB8-6F91-4543-8F01-58FC6E852A20}" uniqueName="Classrooms_x005f_x002f_Labs_x005f_x0020_2" name="Classrooms/Labs" queryTableFieldId="11"/>
     <tableColumn id="10" xr3:uid="{D61E0114-2CEC-473C-A4A6-C30A226A884A}" uniqueName="Category" name="Category" queryTableFieldId="5"/>
-    <tableColumn id="11" xr3:uid="{E9F63825-06C1-48EC-8ED9-E3DB255AD318}" uniqueName="Expiration_x005f_x0020_Date" name="Expiration Date" queryTableFieldId="26" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{AB65F6BE-2A35-4DC6-9B51-1FC9318EB72B}" uniqueName="Expires_x005f_x003f_" name="Expires?" queryTableFieldId="25" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{E9F63825-06C1-48EC-8ED9-E3DB255AD318}" uniqueName="Expiration_x005f_x0020_Date" name="Expiration Date" queryTableFieldId="26" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{AB65F6BE-2A35-4DC6-9B51-1FC9318EB72B}" uniqueName="Expires_x005f_x003f_" name="Expires?" queryTableFieldId="25" dataDxfId="31"/>
     <tableColumn id="13" xr3:uid="{ECE81CA1-5C6E-44BF-86E2-C5BC6C5E68A7}" uniqueName="Information_x005f_x0020_Webpage" name="Information Webpage" queryTableFieldId="8"/>
-    <tableColumn id="14" xr3:uid="{F1CEFB8F-91C3-4DD3-95DA-A243F53A8D37}" uniqueName="License_x005f_x0020_Restricted_x005f_x0020_T" name="License Restricted To" queryTableFieldId="14" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{EE832A8D-20CE-48A6-BB2E-AB4D4A0AEED0}" uniqueName="License_x005f_x0020_Restrictions" name="License Restrictions" queryTableFieldId="15" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{65853726-1E92-435B-966A-95BBA0A610BB}" uniqueName="Licenses" name="Licenses" queryTableFieldId="24" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{822A0BE2-1581-4B88-B923-370F1F346605}" uniqueName="Licensing_x005f_x0020_Status" name="Licensing Status" queryTableFieldId="13" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{F1CEFB8F-91C3-4DD3-95DA-A243F53A8D37}" uniqueName="License_x005f_x0020_Restricted_x005f_x0020_T" name="License Restricted To" queryTableFieldId="14" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{EE832A8D-20CE-48A6-BB2E-AB4D4A0AEED0}" uniqueName="License_x005f_x0020_Restrictions" name="License Restrictions" queryTableFieldId="15" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{65853726-1E92-435B-966A-95BBA0A610BB}" uniqueName="Licenses" name="Licenses" queryTableFieldId="24" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{822A0BE2-1581-4B88-B923-370F1F346605}" uniqueName="Licensing_x005f_x0020_Status" name="Licensing Status" queryTableFieldId="13" dataDxfId="27"/>
     <tableColumn id="18" xr3:uid="{BD5EDB3B-B907-4FA3-901A-990B48E1A1AF}" uniqueName="Link_x005f_x0020_to_x005f_x0020_LM_x005f_x0020_Doc" name="Link to LM Documentation" queryTableFieldId="20"/>
-    <tableColumn id="19" xr3:uid="{E4ACABBE-DE2A-44E0-AF8C-E53FA7FD8E34}" uniqueName="LM_x005f_x0020_Server" name="LM Server" queryTableFieldId="21" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{9F68E9AE-2B68-40FC-ABDE-227D34785F64}" uniqueName="LM_x005f_x0020_Server_x005f_x0020_Port" name="LM Server Port" queryTableFieldId="22" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{B8A8470C-4F72-4ED3-97D2-4961C0052F89}" uniqueName="MyApps_x005f_x0020_Access" name="MyApps Access" queryTableFieldId="31" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{B6905A6C-1AD9-450B-B394-640AB6005495}" uniqueName="Obsolete_x005f_x003f_" name="Obsolete? (Move to Older Versions column of Current Version)" queryTableFieldId="36" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{B2F7EAC1-C229-4150-A484-FE18ACBD46E6}" uniqueName="OS_x005f_x0020_Supported" name="OS Supported" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{24AA4CAE-870B-4DA4-9779-26D54E03251A}" uniqueName="Outdated_x005f_x003f_" name="Outdated? (If still used, move to Current Version column of Current Version)" queryTableFieldId="34" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{E4ACABBE-DE2A-44E0-AF8C-E53FA7FD8E34}" uniqueName="LM_x005f_x0020_Server" name="LM Server" queryTableFieldId="21" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{9F68E9AE-2B68-40FC-ABDE-227D34785F64}" uniqueName="LM_x005f_x0020_Server_x005f_x0020_Port" name="LM Server Port" queryTableFieldId="22" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{B8A8470C-4F72-4ED3-97D2-4961C0052F89}" uniqueName="MyApps_x005f_x0020_Access" name="MyApps Access" queryTableFieldId="31" dataDxfId="24"/>
+    <tableColumn id="22" xr3:uid="{B6905A6C-1AD9-450B-B394-640AB6005495}" uniqueName="Obsolete_x005f_x003f_" name="Obsolete? (Move to Older Versions column of Current Version)" queryTableFieldId="36" dataDxfId="23"/>
+    <tableColumn id="23" xr3:uid="{B2F7EAC1-C229-4150-A484-FE18ACBD46E6}" uniqueName="OS_x005f_x0020_Supported" name="OS Supported" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{24AA4CAE-870B-4DA4-9779-26D54E03251A}" uniqueName="Outdated_x005f_x003f_" name="Outdated? (If still used, move to Current Version column of Current Version)" queryTableFieldId="34" dataDxfId="21"/>
     <tableColumn id="25" xr3:uid="{51BC4120-9143-438A-A390-A2762279EDC2}" uniqueName="SMS_x005f_x0020_Package_x005f_x0020_Creator" name="Package Creator" queryTableFieldId="28"/>
-    <tableColumn id="26" xr3:uid="{C73E59FE-6CF8-4B98-AE2F-E7B94610FB16}" uniqueName="Publisher" name="Publisher" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="26" xr3:uid="{C73E59FE-6CF8-4B98-AE2F-E7B94610FB16}" uniqueName="Publisher" name="Publisher" queryTableFieldId="6" dataDxfId="20"/>
     <tableColumn id="27" xr3:uid="{FB3D1A47-4F60-4777-B011-5FE54B079E44}" uniqueName="Purchase_x005f_x0020_Contact" name="Purchase Contact" queryTableFieldId="9"/>
-    <tableColumn id="28" xr3:uid="{AB07EF28-88D9-47E8-B167-F33764CA983A}" uniqueName="Requires_x005f_x0020_Dongle_x005f_x003f_" name="Requires Dongle?" queryTableFieldId="23" dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{950B2BCF-4905-48AA-8092-FDA34BC51A81}" uniqueName="Where_x005f_x0020_is_x005f_x0020_Media_x0020" name="Where is Media Located?" queryTableFieldId="17" dataDxfId="15"/>
-    <tableColumn id="30" xr3:uid="{D91786E0-F66E-4142-B676-842C34FBEE71}" uniqueName="Additional_x005f_x0020_Notes" name="Additional Notes" queryTableFieldId="33" dataDxfId="14"/>
-    <tableColumn id="31" xr3:uid="{463565F8-32DC-401C-9DAE-BE574154E532}" uniqueName="MyApps_x005f_x0020_Notes" name="MyApps Notes" queryTableFieldId="32" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{AB07EF28-88D9-47E8-B167-F33764CA983A}" uniqueName="Requires_x005f_x0020_Dongle_x005f_x003f_" name="Requires Dongle?" queryTableFieldId="23" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{950B2BCF-4905-48AA-8092-FDA34BC51A81}" uniqueName="Where_x005f_x0020_is_x005f_x0020_Media_x0020" name="Where is Media Located?" queryTableFieldId="17" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{D91786E0-F66E-4142-B676-842C34FBEE71}" uniqueName="Additional_x005f_x0020_Notes" name="Additional Notes" queryTableFieldId="33" dataDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{463565F8-32DC-401C-9DAE-BE574154E532}" uniqueName="MyApps_x005f_x0020_Notes" name="MyApps Notes" queryTableFieldId="32" dataDxfId="16"/>
     <tableColumn id="32" xr3:uid="{C6EACCE1-2DC1-412A-ABB8-69667B6ECA2A}" uniqueName="Classrooms_x005f_x002f_Labs_x005f_x003a_Cour" name="Classrooms/Labs:Courses" queryTableFieldId="42"/>
-    <tableColumn id="33" xr3:uid="{C51E58BC-6590-481A-8F7A-21328E5923EB}" uniqueName="Stakeholders" name="Stakeholders" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{0C7BC96F-0B04-488E-95C3-020FCB70866C}" uniqueName="Available_x005f_x0020_on_x005f_x0020_SCCM_x0" name="Available on SCCM?" queryTableFieldId="27" dataDxfId="11"/>
-    <tableColumn id="35" xr3:uid="{ABEAACA3-DDCB-45BB-8F90-4DEC611FC9E5}" uniqueName="Available_x005f_x0020_on_x005f_x0020_Casper_" name="Available on JAMF?" queryTableFieldId="29" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{A5C18D5F-7D51-446C-B995-6F1A33734839}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_" name="FSE Security Review Type" queryTableFieldId="37" dataDxfId="9"/>
-    <tableColumn id="37" xr3:uid="{FB568714-7583-48F4-97E1-ADDA48A64016}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_0" name="FSE Security Review Notes" queryTableFieldId="38" dataDxfId="8"/>
-    <tableColumn id="38" xr3:uid="{FCFEF4BC-C3B4-4468-9FC2-3D89D0D1896F}" uniqueName="Date_x005f_x0020_of_x005f_x0020_Compliance" name="FSE Security Review Date of Compliance" queryTableFieldId="39" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{1BD7A9AC-A628-4CE2-A5F9-86A5FA0E50BF}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus" name="Available Off Campus" queryTableFieldId="40" dataDxfId="6"/>
-    <tableColumn id="40" xr3:uid="{3C22339F-E5E1-40C2-ACDB-9630E2A16A8F}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus0" name="Available Off Campus comments" queryTableFieldId="41" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{38D85B14-55B3-40DA-A6EC-F98D08BD76C6}" uniqueName="Deployment_x005f_x0020_Types" name="Deployment Types" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{C51E58BC-6590-481A-8F7A-21328E5923EB}" uniqueName="Stakeholders" name="Stakeholders" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="34" xr3:uid="{0C7BC96F-0B04-488E-95C3-020FCB70866C}" uniqueName="Available_x005f_x0020_on_x005f_x0020_SCCM_x0" name="Available on SCCM?" queryTableFieldId="27" dataDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{ABEAACA3-DDCB-45BB-8F90-4DEC611FC9E5}" uniqueName="Available_x005f_x0020_on_x005f_x0020_Casper_" name="Available on JAMF?" queryTableFieldId="29" dataDxfId="13"/>
+    <tableColumn id="36" xr3:uid="{A5C18D5F-7D51-446C-B995-6F1A33734839}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_" name="FSE Security Review Type" queryTableFieldId="37" dataDxfId="12"/>
+    <tableColumn id="37" xr3:uid="{FB568714-7583-48F4-97E1-ADDA48A64016}" uniqueName="ISO_x005f_x0020_Security_x005f_x0020_Review_0" name="FSE Security Review Notes" queryTableFieldId="38" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{FCFEF4BC-C3B4-4468-9FC2-3D89D0D1896F}" uniqueName="Date_x005f_x0020_of_x005f_x0020_Compliance" name="FSE Security Review Date of Compliance" queryTableFieldId="39" dataDxfId="10"/>
+    <tableColumn id="39" xr3:uid="{1BD7A9AC-A628-4CE2-A5F9-86A5FA0E50BF}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus" name="Available Off Campus" queryTableFieldId="40" dataDxfId="9"/>
+    <tableColumn id="40" xr3:uid="{3C22339F-E5E1-40C2-ACDB-9630E2A16A8F}" uniqueName="Available_x005f_x0020_Off_x005f_x0020_Campus0" name="Available Off Campus comments" queryTableFieldId="41" dataDxfId="8"/>
+    <tableColumn id="41" xr3:uid="{38D85B14-55B3-40DA-A6EC-F98D08BD76C6}" uniqueName="Deployment_x005f_x0020_Types" name="Deployment Types" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="42" xr3:uid="{CA154ACC-93A1-47CD-9DBE-619C636CD5FE}" uniqueName="Terms_x005f_x0020_of_x005f_x0020_Use" name="Terms of Use" queryTableFieldId="16"/>
-    <tableColumn id="43" xr3:uid="{11410E5C-FEA0-4D1D-AB30-B536AFF386BD}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="44" dataDxfId="3"/>
-    <tableColumn id="44" xr3:uid="{B95C9F5D-1AD8-477E-9D4B-792B452742C6}" uniqueName="FileDirRef" name="Path" queryTableFieldId="43" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{11410E5C-FEA0-4D1D-AB30-B536AFF386BD}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="44" dataDxfId="6"/>
+    <tableColumn id="44" xr3:uid="{B95C9F5D-1AD8-477E-9D4B-792B452742C6}" uniqueName="FileDirRef" name="Path" queryTableFieldId="43" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9390,9 +9742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FA6E6D-09AF-4CA5-8515-FC328C716D20}">
   <dimension ref="A1:AR819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9437,6 +9789,7 @@
     <col min="42" max="42" width="78.42578125" style="2" customWidth="1"/>
     <col min="43" max="43" width="12.140625" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="47.85546875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -15219,10 +15572,10 @@
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>2432</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>2431</v>
       </c>
       <c r="C59" s="1"/>
@@ -15252,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="1"/>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="8" t="s">
         <v>316</v>
       </c>
       <c r="P59" s="3"/>
@@ -19708,10 +20061,10 @@
       </c>
     </row>
     <row r="105" spans="1:44" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>2297</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>2296</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -19743,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="1"/>
-      <c r="O105" s="7" t="s">
+      <c r="O105" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P105" s="3"/>
@@ -20195,10 +20548,10 @@
       </c>
     </row>
     <row r="110" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="10" t="s">
         <v>2286</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -20230,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="1"/>
-      <c r="O110" s="7" t="s">
+      <c r="O110" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P110" s="3"/>
@@ -20487,10 +20840,10 @@
       </c>
     </row>
     <row r="113" spans="1:44" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>2281</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>2280</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -20522,7 +20875,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="1"/>
-      <c r="O113" s="7" t="s">
+      <c r="O113" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P113" s="3"/>
@@ -20775,10 +21128,10 @@
       </c>
     </row>
     <row r="116" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="10" t="s">
         <v>2274</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -20810,7 +21163,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="1"/>
-      <c r="O116" s="7" t="s">
+      <c r="O116" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P116" s="3"/>
@@ -20974,10 +21327,10 @@
       </c>
     </row>
     <row r="118" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>2270</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -21009,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="1"/>
-      <c r="O118" s="7" t="s">
+      <c r="O118" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P118" s="3"/>
@@ -21375,10 +21728,10 @@
       </c>
     </row>
     <row r="122" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>2262</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -21410,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="1"/>
-      <c r="O122" s="7" t="s">
+      <c r="O122" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P122" s="3"/>
@@ -21669,10 +22022,10 @@
       </c>
     </row>
     <row r="125" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>2255</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C125" s="1"/>
@@ -21702,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="N125" s="1"/>
-      <c r="O125" s="7" t="s">
+      <c r="O125" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P125" s="3"/>
@@ -21773,10 +22126,10 @@
       </c>
     </row>
     <row r="126" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>2254</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C126" s="1"/>
@@ -21806,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="1"/>
-      <c r="O126" s="7" t="s">
+      <c r="O126" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P126" s="3"/>
@@ -21877,10 +22230,10 @@
       </c>
     </row>
     <row r="127" spans="1:44" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>2253</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -21912,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="N127" s="1"/>
-      <c r="O127" s="7" t="s">
+      <c r="O127" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P127" s="3"/>
@@ -22076,10 +22429,10 @@
       </c>
     </row>
     <row r="129" spans="1:44" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>2250</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -22111,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="1"/>
-      <c r="O129" s="7" t="s">
+      <c r="O129" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P129" s="3"/>
@@ -52080,10 +52433,10 @@
       </c>
     </row>
     <row r="437" spans="1:44" ht="30" x14ac:dyDescent="0.25">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="10" t="s">
         <v>1384</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -52115,7 +52468,7 @@
         <v>0</v>
       </c>
       <c r="N437" s="1"/>
-      <c r="O437" s="7" t="s">
+      <c r="O437" s="8" t="s">
         <v>593</v>
       </c>
       <c r="P437" s="3"/>
@@ -79629,10 +79982,10 @@
       </c>
     </row>
     <row r="717" spans="1:44" ht="60" x14ac:dyDescent="0.25">
-      <c r="A717" s="10" t="s">
+      <c r="A717" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B717" s="10"/>
+      <c r="B717" s="9"/>
       <c r="C717" s="1"/>
       <c r="D717" t="s">
         <v>367</v>
@@ -79667,7 +80020,7 @@
       <c r="N717" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="O717" s="8" t="s">
+      <c r="O717" s="7" t="s">
         <v>460</v>
       </c>
       <c r="P717" s="3">
@@ -79744,10 +80097,10 @@
       </c>
     </row>
     <row r="718" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A718" s="10" t="s">
+      <c r="A718" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B718" s="10" t="s">
+      <c r="B718" s="9" t="s">
         <v>454</v>
       </c>
       <c r="C718" s="1"/>
@@ -79784,7 +80137,7 @@
       <c r="N718" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="O718" s="8" t="s">
+      <c r="O718" s="7" t="s">
         <v>450</v>
       </c>
       <c r="P718" s="3">
@@ -82739,10 +83092,10 @@
       </c>
     </row>
     <row r="748" spans="1:44" ht="30" x14ac:dyDescent="0.25">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C748" s="1" t="s">
@@ -82774,7 +83127,7 @@
         <v>0</v>
       </c>
       <c r="N748" s="1"/>
-      <c r="O748" s="7" t="s">
+      <c r="O748" s="8" t="s">
         <v>316</v>
       </c>
       <c r="P748" s="3"/>
@@ -89259,10 +89612,10 @@
       </c>
     </row>
     <row r="815" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A815" s="9" t="s">
+      <c r="A815" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B815" s="9" t="s">
+      <c r="B815" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C815" s="1"/>
@@ -89292,7 +89645,7 @@
         <v>0</v>
       </c>
       <c r="N815" s="1"/>
-      <c r="O815" s="7" t="s">
+      <c r="O815" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P815" s="3"/>
@@ -90199,1741 +90552,3376 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D390B2A-CBEC-4123-A1BE-2CF75EEB20A8}">
-  <dimension ref="A1:D156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4072AE54-54A1-41D6-A596-808660C6132C}">
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="74.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="18" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="18" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="38" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="52" t="s">
+        <v>2668</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B2" s="25" t="str">
+        <f>COUNTIF(B3:B201,"Yes") &amp; " of " &amp; COUNTA(B3:B201)</f>
+        <v>10 of 25</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D2" s="25" t="str">
+        <f>COUNTIF(D3:D201,"Yes") &amp; " of " &amp; COUNTA(D3:D201)</f>
+        <v>12 of 25</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F2" s="25" t="str">
+        <f>COUNTIF(F3:F201,"Yes") &amp; " of " &amp; COUNTA(F3:F201)</f>
+        <v>13 of 25</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="str">
+        <f>INT(COUNTIF(B4:B201,"Yes")/COUNTA(B4:B201)*100) &amp; "% Detected"</f>
+        <v>41% Detected</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="str">
+        <f>INT(COUNTIF(D4:D201,"Yes")/COUNTA(D4:D201)*100) &amp; "% Detected"</f>
+        <v>50% Detected</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="str">
+        <f>INT(COUNTIF(F4:F201,"Yes")/COUNTA(F4:F201)*100) &amp; "% Detected"</f>
+        <v>54% Detected</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="H4" s="45" t="s">
+        <v>2666</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="H5" s="47" t="s">
+        <v>2654</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>2654</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="H6" s="47" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>2655</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="H7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="H8" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>2663</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="H9" s="47" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>2664</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="H11" s="47" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="H12" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="H13" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="H14" s="47" t="s">
+        <v>2659</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="19" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="H15" s="47" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="H16" s="47" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>2660</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="H18" s="50" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="H20" s="34" t="str">
+        <f>"Restrictions Listing (" &amp; COUNTA(H21:H324)&amp;" TOTAL )"</f>
+        <v>Restrictions Listing (59 TOTAL )</v>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f>COUNTIF(J21:J200,"Yes") &amp; " Documents, " &amp; COUNTIF(K21:K200,"Yes") &amp; " Matches (" &amp; INT(COUNTIF(K21:K200,"Yes")/COUNTA(H21:H200)*100) &amp; "%)"</f>
+        <v>39 Documents, 26 Matches (44%)</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>2810</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="H21" s="35" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="H22" s="39" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="19" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="H23" s="41" t="s">
+        <v>2455</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="H25" s="41" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="H26" s="41" t="s">
+        <v>2416</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="H27" s="41" t="s">
+        <v>2412</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="19" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="H28" s="41" t="s">
+        <v>2408</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="H29" s="41" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="H30" s="39" t="s">
+        <v>2361</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="H32" s="35" t="s">
+        <v>2286</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="H33" s="35" t="s">
+        <v>2281</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="H34" s="35" t="s">
+        <v>2274</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="H35" s="35" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="19" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="19" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="H36" s="35" t="s">
+        <v>2262</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="19" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="19" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="H37" s="35" t="s">
+        <v>2255</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>2254</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="H39" s="35" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="19" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="19" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="H40" s="35" t="s">
+        <v>2250</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="H41" s="35" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="19" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="H42" s="39" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="H43" s="41" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="H44" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="H46" s="35" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="H47" s="39" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="H48" s="39" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="19" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="H49" s="39" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="19" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="19" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="H50" s="41" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="19" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="19" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="H51" s="39" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="H53" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="19" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="19" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="H54" s="39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="H55" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="J55" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K55" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="19" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="19" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="H56" s="39" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="19" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="H57" s="39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="H58" s="39" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="H60" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="19" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="19" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="H61" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="H62" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="J62" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="H63" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="19" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="H64" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="19" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="19" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="H65" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="H67" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K67" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="19" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="H68" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="H69" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="H70" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="19" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="H71" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="19" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="H72" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K72" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K73" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="H74" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="J74" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="H75" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J75" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F76" s="22"/>
+      <c r="H76" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J76" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="19" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="19" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="H77" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="I77" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="19" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="19" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="H78" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="19" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="19" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="H79" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="37" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K79" s="38" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="33"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="33"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="19" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="19" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="33"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="33"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="19" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="19" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="33"/>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="19" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="19" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="33"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="19" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="19" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F86" s="22"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="33"/>
+    </row>
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="33"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="33"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="19" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="19" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="33"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F90" s="22"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="33"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="19" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="19" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="33"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="19" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="19" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F92" s="22"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="33"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F93" s="22"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="33"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="33"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="19" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="19" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="33"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F97" s="22"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="33"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="19" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="19" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="33"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="19" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D99" s="22"/>
+      <c r="E99" s="19" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="33"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="19" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="19" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F100" s="22"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="33"/>
+    </row>
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="33"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="19" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="19" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D104" s="22"/>
+      <c r="E104" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="19" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D105" s="22"/>
+      <c r="E105" s="19" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="19" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D106" s="22"/>
+      <c r="E106" s="19" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D107" s="22"/>
+      <c r="E107" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>2761</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2761</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2760</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2757</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2755</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2755</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2754</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2754</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2753</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2752</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2752</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2748</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2747</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2746</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2746</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2745</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>2744</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>2743</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>2741</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2741</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2740</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>2739</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2738</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>2735</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2735</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>2649</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2730</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2728</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>2727</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2726</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>2722</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>2721</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>2719</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>2718</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2718</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>2717</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>2716</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>2715</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>2714</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2714</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>2713</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>2711</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>2711</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>2710</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>2708</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>2708</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>2707</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>2706</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>2696</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>2695</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="C147" s="19" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>2692</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C162" s="19" t="s">
         <v>2692</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="E162" s="19" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>2691</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>2689</v>
-      </c>
-      <c r="C92" s="2" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>2687</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>2684</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>2680</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>2678</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>2677</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>2677</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>2674</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>2673</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>2672</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C170" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>2669</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>2668</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>2668</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>2664</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>2664</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>2663</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>2662</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>2660</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>2659</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>2658</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>2654</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>2650</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>2650</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>2649</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>2648</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>2646</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>2646</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>2640</v>
+      <c r="C172" s="19" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>2671</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A16:A29">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(#REF!, $A16)&gt;0</formula>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A9:B11">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>COUNTIF(#REF!, $A9)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C172">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>"+$C$3:$C$200=$D$3:$D$200"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>COUNTIF(#REF!, $A9)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF(#REF!, $A9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -91956,32 +93944,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>2776</v>
+        <v>2653</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>2775</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2774</v>
+        <v>2651</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2772</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>2764</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2773</v>
+        <v>2650</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2763</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -91990,33 +93978,33 @@
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2769</v>
+        <v>2646</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2766</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>2764</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2772</v>
+        <v>2649</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2764</v>
+        <v>2641</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2763</v>
+        <v>2640</v>
       </c>
       <c r="B10" s="2"/>
     </row>
@@ -92026,7 +94014,7 @@
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2771</v>
+        <v>2648</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -92036,7 +94024,7 @@
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2770</v>
+        <v>2647</v>
       </c>
       <c r="B14" s="2"/>
     </row>
@@ -92046,7 +94034,7 @@
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>2769</v>
+        <v>2646</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -92056,37 +94044,37 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2768</v>
+        <v>2645</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2767</v>
+        <v>2644</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>2766</v>
+        <v>2643</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>2765</v>
+        <v>2642</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>2764</v>
+        <v>2641</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>2763</v>
+        <v>2640</v>
       </c>
       <c r="B23" s="2"/>
     </row>
